--- a/vignettes/analysis.xlsx
+++ b/vignettes/analysis.xlsx
@@ -301,6 +301,12 @@
     <t>STAT5B</t>
   </si>
   <si>
+    <t>CEBPB</t>
+  </si>
+  <si>
+    <t>IRF3</t>
+  </si>
+  <si>
     <t>IKBKB</t>
   </si>
   <si>
@@ -335,12 +341,6 @@
   </si>
   <si>
     <t>TRAF6</t>
-  </si>
-  <si>
-    <t>CEBPB</t>
-  </si>
-  <si>
-    <t>IRF3</t>
   </si>
   <si>
     <t>MAP4K2</t>
@@ -491,10 +491,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>0.020015170937809447</v>
+        <v>0.022987931548094823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0650493055478807</v>
+        <v>0.07471077753130817</v>
       </c>
       <c r="D2" t="n">
         <v>0.35248785758361917</v>
@@ -503,7 +503,7 @@
         <v>0.6602542750770662</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6352108375889596</v>
+        <v>1.705012485722425</v>
       </c>
       <c r="G2" t="n">
         <v>9.0</v>
@@ -515,19 +515,19 @@
         <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1736842105263158</v>
+        <v>0.16007194244604317</v>
       </c>
       <c r="K2" t="n">
-        <v>0.398941798941799</v>
+        <v>0.36099029775844765</v>
       </c>
       <c r="L2" t="n">
-        <v>0.13802224249664274</v>
+        <v>0.14641623786055022</v>
       </c>
       <c r="M2" t="n">
         <v>0.5275884796905466</v>
       </c>
       <c r="N2" t="n">
-        <v>1.295809979178747</v>
+        <v>1.3026697553897404</v>
       </c>
       <c r="O2" t="n">
         <v>9.0</v>
@@ -544,19 +544,19 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05466970387243736</v>
+        <v>0.043689320388349516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1184510250569476</v>
+        <v>0.09466019417475728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29406667231886474</v>
+        <v>0.34179338089747546</v>
       </c>
       <c r="E3" t="n">
         <v>0.3990305943917146</v>
       </c>
       <c r="F3" t="n">
-        <v>1.428788283765725</v>
+        <v>1.4464009545203094</v>
       </c>
       <c r="G3" t="n">
         <v>31.0</v>
@@ -568,19 +568,19 @@
         <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>0.024115755627009645</v>
+        <v>0.021665748746486295</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07837620578778134</v>
+        <v>0.07041368342608045</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3760393069936389</v>
+        <v>0.35248785758361917</v>
       </c>
       <c r="M3" t="n">
         <v>0.4602171797884377</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5454474451776523</v>
+        <v>1.5650575623835248</v>
       </c>
       <c r="O3" t="n">
         <v>31.0</v>
@@ -597,19 +597,19 @@
         <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>0.768361581920904</v>
+        <v>0.7557522123893805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.768361581920904</v>
+        <v>0.8063314711359404</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05502111171631165</v>
+        <v>0.05291298484305835</v>
       </c>
       <c r="E4" t="n">
         <v>-0.3043453382935105</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7948263509102449</v>
+        <v>-0.7763998236481399</v>
       </c>
       <c r="G4" t="n">
         <v>11.0</v>
@@ -621,19 +621,19 @@
         <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8236301369863014</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8922659817351598</v>
+        <v>0.8853046594982079</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04744831936562972</v>
+        <v>0.049890735672630714</v>
       </c>
       <c r="M4" t="n">
         <v>0.28083561290130765</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7290900622141587</v>
+        <v>0.7235650685096642</v>
       </c>
       <c r="O4" t="n">
         <v>11.0</v>
@@ -650,10 +650,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>8.58502954230783E-4</v>
+        <v>8.037525864023564E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.011160538405000179</v>
+        <v>0.010448783623230633</v>
       </c>
       <c r="D5" t="n">
         <v>0.47727081536286214</v>
@@ -662,7 +662,7 @@
         <v>0.6726876326270983</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9879651966863798</v>
+        <v>2.0099055765263363</v>
       </c>
       <c r="G5" t="n">
         <v>15.0</v>
@@ -674,25 +674,25 @@
         <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>0.017683971609727765</v>
+        <v>0.006725714249757467</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07663054364215365</v>
+        <v>0.04265591110132323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.35248785758361917</v>
+        <v>0.40701791892395395</v>
       </c>
       <c r="M5" t="n">
         <v>0.6102865824712798</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7374535940463074</v>
+        <v>1.722981507753006</v>
       </c>
       <c r="O5" t="n">
         <v>15.0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -703,10 +703,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>0.009409910026957551</v>
+        <v>0.011899560671075986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0563356409530356</v>
+        <v>0.051564762907995935</v>
       </c>
       <c r="D6" t="n">
         <v>0.3807304007227924</v>
@@ -715,22 +715,22 @@
         <v>0.5511928206773921</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7344504838509127</v>
+        <v>1.7518658642109295</v>
       </c>
       <c r="G6" t="n">
         <v>19.0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0017114612516386232</v>
+        <v>0.0015771169455023818</v>
       </c>
       <c r="K6" t="n">
-        <v>0.022248996271302102</v>
+        <v>0.020502520291530962</v>
       </c>
       <c r="L6" t="n">
         <v>0.45505986738722953</v>
@@ -739,7 +739,7 @@
         <v>0.6164976520051508</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8479589338552838</v>
+        <v>1.8687853065497837</v>
       </c>
       <c r="O6" t="n">
         <v>19.0</v>
@@ -756,19 +756,19 @@
         <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>0.028192806189532498</v>
+        <v>0.037280636741799725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0733012960927845</v>
+        <v>0.09466019417475728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.35248785758361917</v>
+        <v>0.3217759180753611</v>
       </c>
       <c r="E7" t="n">
         <v>0.5260237707589465</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5807728131507202</v>
+        <v>1.6290721465260203</v>
       </c>
       <c r="G7" t="n">
         <v>16.0</v>
@@ -780,19 +780,19 @@
         <v>31</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3371900826446281</v>
+        <v>0.31810490693739424</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4870523415977961</v>
+        <v>0.45948486557623613</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09026354843400684</v>
+        <v>0.09497515259055948</v>
       </c>
       <c r="M7" t="n">
         <v>0.3861841904703278</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1168513461079652</v>
+        <v>1.107753032464952</v>
       </c>
       <c r="O7" t="n">
         <v>16.0</v>
@@ -809,19 +809,19 @@
         <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7632575757575758</v>
+        <v>0.8063314711359404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.768361581920904</v>
+        <v>0.8063314711359404</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05559470977588687</v>
+        <v>0.052269331749930564</v>
       </c>
       <c r="E8" t="n">
         <v>-0.34603253199469186</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7553424470587536</v>
+        <v>-0.7177646833715748</v>
       </c>
       <c r="G8" t="n">
         <v>6.0</v>
@@ -833,19 +833,19 @@
         <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9585152838427947</v>
+        <v>0.9458874458874459</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9585152838427947</v>
+        <v>0.9458874458874459</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05163559644842005</v>
+        <v>0.051845762486506596</v>
       </c>
       <c r="M8" t="n">
         <v>-0.26117864739750407</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.5931922673922093</v>
+        <v>-0.58157222463147</v>
       </c>
       <c r="O8" t="n">
         <v>6.0</v>
@@ -862,19 +862,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7556053811659192</v>
+        <v>0.7239709443099274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.768361581920904</v>
+        <v>0.8063314711359404</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06407037504997216</v>
+        <v>0.06994587365016587</v>
       </c>
       <c r="E9" t="n">
         <v>0.27036977261525363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7990123084262016</v>
+        <v>0.8078306889355245</v>
       </c>
       <c r="G9" t="n">
         <v>15.0</v>
@@ -886,19 +886,19 @@
         <v>31</v>
       </c>
       <c r="J9" t="n">
-        <v>0.21481481481481482</v>
+        <v>0.19437939110070257</v>
       </c>
       <c r="K9" t="n">
-        <v>0.398941798941799</v>
+        <v>0.36099029775844765</v>
       </c>
       <c r="L9" t="n">
-        <v>0.14826150047510658</v>
+        <v>0.15214492236756472</v>
       </c>
       <c r="M9" t="n">
         <v>-0.40920221860588224</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.2265758055352547</v>
+        <v>-1.218916858583309</v>
       </c>
       <c r="O9" t="n">
         <v>15.0</v>
@@ -915,19 +915,19 @@
         <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>0.24271844660194175</v>
+        <v>0.2920517560073937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3155339805825243</v>
+        <v>0.3796672828096118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.12098514214525231</v>
+        <v>0.10552093684319848</v>
       </c>
       <c r="E10" t="n">
         <v>-0.5943546062703156</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.2011470684047378</v>
+        <v>-1.1737765808662082</v>
       </c>
       <c r="G10" t="n">
         <v>5.0</v>
@@ -939,19 +939,19 @@
         <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7196467991169978</v>
+        <v>0.7383966244725738</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8504916716837247</v>
+        <v>0.87265055619486</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06568136019340105</v>
+        <v>0.06224904294985801</v>
       </c>
       <c r="M10" t="n">
         <v>-0.37122697366124924</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.7765097376446375</v>
+        <v>-0.7735047626417989</v>
       </c>
       <c r="O10" t="n">
         <v>5.0</v>
@@ -968,19 +968,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>0.24193548387096775</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3155339805825243</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="D11" t="n">
-        <v>0.13355495455759195</v>
+        <v>0.1455161460903603</v>
       </c>
       <c r="E11" t="n">
         <v>0.3420201343692896</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1751365250332249</v>
+        <v>1.195770899082234</v>
       </c>
       <c r="G11" t="n">
         <v>26.0</v>
@@ -992,19 +992,19 @@
         <v>31</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4943639291465378</v>
+        <v>0.49185667752442996</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6426731078904991</v>
+        <v>0.639413680781759</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06863256318367258</v>
+        <v>0.06944814420031753</v>
       </c>
       <c r="M11" t="n">
         <v>0.30061249593903383</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9811895397204105</v>
+        <v>0.9833761624989373</v>
       </c>
       <c r="O11" t="n">
         <v>26.0</v>
@@ -1021,19 +1021,19 @@
         <v>27</v>
       </c>
       <c r="B12" t="n">
-        <v>0.19506726457399104</v>
+        <v>0.1990632318501171</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3155339805825243</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14826150047510658</v>
+        <v>0.15016980212840597</v>
       </c>
       <c r="E12" t="n">
         <v>0.4025051857473026</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2095827035791713</v>
+        <v>1.2465406002226005</v>
       </c>
       <c r="G12" t="n">
         <v>16.0</v>
@@ -1045,25 +1045,25 @@
         <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007644645746416624</v>
+        <v>0.009843671792613055</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04969019735170806</v>
+        <v>0.04265591110132323</v>
       </c>
       <c r="L12" t="n">
-        <v>0.40701791892395395</v>
+        <v>0.3807304007227924</v>
       </c>
       <c r="M12" t="n">
         <v>0.6112871884706734</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7678531026103232</v>
+        <v>1.7534514706846653</v>
       </c>
       <c r="O12" t="n">
         <v>16.0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q12" t="s">
         <v>30</v>
@@ -1074,19 +1074,19 @@
         <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>0.18277310924369747</v>
+        <v>0.1309255079006772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3155339805825243</v>
+        <v>0.24314737181554338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14826150047510658</v>
+        <v>0.1847064712077387</v>
       </c>
       <c r="E13" t="n">
         <v>0.5441579167421151</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3084085495150006</v>
+        <v>1.3620608386412418</v>
       </c>
       <c r="G13" t="n">
         <v>8.0</v>
@@ -1098,19 +1098,19 @@
         <v>31</v>
       </c>
       <c r="J13" t="n">
-        <v>0.19400352733686066</v>
+        <v>0.17939609236234458</v>
       </c>
       <c r="K13" t="n">
-        <v>0.398941798941799</v>
+        <v>0.36099029775844765</v>
       </c>
       <c r="L13" t="n">
-        <v>0.13010563075112855</v>
+        <v>0.13649043778041264</v>
       </c>
       <c r="M13" t="n">
         <v>0.5340923271953777</v>
       </c>
       <c r="N13" t="n">
-        <v>1.2720488449328793</v>
+        <v>1.2791699920175172</v>
       </c>
       <c r="O13" t="n">
         <v>8.0</v>
@@ -1127,10 +1127,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="n">
-        <v>0.013000532527623601</v>
+        <v>0.011882894801299703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0563356409530356</v>
+        <v>0.051564762907995935</v>
       </c>
       <c r="D14" t="n">
         <v>0.3807304007227924</v>
@@ -1139,31 +1139,31 @@
         <v>0.7747080949897063</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7038111046791014</v>
+        <v>1.733062835273708</v>
       </c>
       <c r="G14" t="n">
         <v>6.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>0.29411764705882354</v>
+        <v>0.2532347504621072</v>
       </c>
       <c r="K14" t="n">
-        <v>0.47794117647058826</v>
+        <v>0.4115064695009242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.10473282158065095</v>
+        <v>0.1147507192270233</v>
       </c>
       <c r="M14" t="n">
         <v>0.539502364354025</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1634310513287662</v>
+        <v>1.190329681160411</v>
       </c>
       <c r="O14" t="n">
         <v>6.0</v>
@@ -1352,10 +1352,10 @@
         <v>22</v>
       </c>
       <c r="BC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD1" t="s">
         <v>21</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>29</v>
       </c>
       <c r="BE1" t="s">
         <v>17</v>
@@ -1880,10 +1880,10 @@
         <v>1.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE4" t="n">
         <v>1.0</v>
@@ -2056,10 +2056,10 @@
         <v>1.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE5" t="n">
         <v>1.0</v>
@@ -3112,10 +3112,10 @@
         <v>1.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE11" t="n">
         <v>0.0</v>
@@ -3288,10 +3288,10 @@
         <v>1.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE12" t="n">
         <v>0.0</v>
@@ -3308,154 +3308,154 @@
         <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4208591423258504</v>
+        <v>0.25659173144764397</v>
       </c>
       <c r="D13" t="n">
-        <v>4.910401795475521</v>
+        <v>1.7302863292610773</v>
       </c>
       <c r="E13" t="n">
-        <v>1.3708438761814209E-5</v>
+        <v>0.09078795471345771</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006525216850623563</v>
+        <v>0.2735130787569992</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1114939333697064</v>
+        <v>0.06443142845872565</v>
       </c>
       <c r="H13" t="n">
-        <v>1.3008628197491976</v>
+        <v>0.4344832906653659</v>
       </c>
       <c r="I13" t="n">
-        <v>0.20026885475256773</v>
+        <v>0.666121213131337</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7333276386011531</v>
+        <v>0.951789531269048</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04645253320586917</v>
+        <v>0.4293717587408086</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.034237795529856285</v>
+        <v>0.5086741480998214</v>
       </c>
       <c r="M13" t="n">
-        <v>0.22212723939527557</v>
+        <v>-0.23229853136936107</v>
       </c>
       <c r="N13" t="n">
-        <v>0.10774153193326175</v>
+        <v>0.23591663553792763</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03423779552985717</v>
+        <v>-0.1806290888661941</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08837216839038042</v>
+        <v>-0.10913447604087523</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04201156931786354</v>
+        <v>-0.3456513984438061</v>
       </c>
       <c r="R13" t="n">
-        <v>0.19206131804516424</v>
+        <v>-0.13909051028982233</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.17909940172105188</v>
+        <v>0.30717477323584674</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.07156404614818612</v>
+        <v>0.5881424098151768</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.2816767703764276</v>
+        <v>0.10913447604087345</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.17209862211911453</v>
+        <v>0.22961953197427754</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.3527551521804311</v>
+        <v>-0.14412507864015467</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.5367884685613058</v>
+        <v>-0.4492452178803923</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4754113257159567</v>
+        <v>-0.3304978811970738</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5615166105790763</v>
+        <v>0.41602797664805635</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2922358345247087</v>
+        <v>0.23194929230792738</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.397042505390937</v>
+        <v>0.3592669805259998</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5828354275223244</v>
+        <v>0.942142252739778</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.4307168703138178</v>
+        <v>0.5581378284116241</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.2460714715631518</v>
+        <v>0.9113829763612067</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.43334485645486787</v>
+        <v>0.7938293247351869</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.2992912303914057</v>
+        <v>0.49479745354952165</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.12511401166033664</v>
+        <v>-0.48833620820699686</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.2326110551414935</v>
+        <v>0.11836239387570124</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.46059968256899175</v>
+        <v>0.781323393060438</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.4693416001453947</v>
+        <v>-0.5881680125285094</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.0093205902292679</v>
+        <v>0.199925901898256</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.41784135800293676</v>
+        <v>-0.31047204812104745</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.15107574838629745</v>
+        <v>-0.10999278492874787</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.3174989126475527</v>
+        <v>0.24555781437108593</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.2730623179512186</v>
+        <v>0.8527711144297552</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.04470676232406667</v>
+        <v>-0.12030540819799107</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.18099528447720736</v>
+        <v>0.1722021004831582</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.08285676694664623</v>
+        <v>0.112487599094516</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.156357578990729</v>
+        <v>0.3214658580161185</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.13365430495233355</v>
+        <v>-0.24779645082642965</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.2892121837041923</v>
+        <v>0.2698880977063851</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.12863361019186303</v>
+        <v>0.4217061086461964</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.14930753794099516</v>
+        <v>0.2558174718771635</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.0010818553714413426</v>
+        <v>0.09810994260875994</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.19343077813621612</v>
+        <v>-0.25153998482263695</v>
       </c>
       <c r="BA13" t="n">
         <v>0.0</v>
@@ -3473,7 +3473,7 @@
         <v>0.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -3484,154 +3484,154 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22948147297559793</v>
+        <v>0.17333206521621367</v>
       </c>
       <c r="D14" t="n">
-        <v>2.1051425799306815</v>
+        <v>1.5121111464409667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.041189082026772635</v>
+        <v>0.13785816103603005</v>
       </c>
       <c r="F14" t="n">
-        <v>0.181537065229109</v>
+        <v>0.3605521134788478</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09263891924688106</v>
+        <v>0.08202958378627985</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8498208196794466</v>
+        <v>0.7156082045547819</v>
       </c>
       <c r="I14" t="n">
-        <v>0.40015568498704723</v>
+        <v>0.47812106920761777</v>
       </c>
       <c r="J14" t="n">
-        <v>0.900800194791533</v>
+        <v>0.9262665655274255</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.011348211359338833</v>
+        <v>-0.19743674637713493</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.05099700047285083</v>
+        <v>-0.8192584781184262</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.034949040997208414</v>
+        <v>-0.12226250239703074</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04206243863690773</v>
+        <v>-0.11904797741926387</v>
       </c>
       <c r="O14" t="n">
-        <v>6.603094973751666E-4</v>
+        <v>0.28498425154294527</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.01152472460218057</v>
+        <v>0.14694445671573497</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.2711475669327408</v>
+        <v>-0.3826443373893813</v>
       </c>
       <c r="R14" t="n">
-        <v>0.21225060647677196</v>
+        <v>0.012625762266211815</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.60309497376943E-4</v>
+        <v>0.2630910169694234</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6657824487347366</v>
+        <v>0.2499538444813023</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08742996789706936</v>
+        <v>-0.003843926456037927</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4841433389073835</v>
+        <v>0.14737306266856276</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.11390308447571051</v>
+        <v>-0.19943221340138617</v>
       </c>
       <c r="X14" t="n">
-        <v>0.14327026787544916</v>
+        <v>0.003843926456037039</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7879601892119439</v>
+        <v>0.47517532936193874</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.32806619617170263</v>
+        <v>-0.34548879838893587</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.344167839814677</v>
+        <v>-0.025255250129793794</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.7662027996911593</v>
+        <v>0.22133192021138814</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.5084665860494972</v>
+        <v>-0.1368857473258549</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.1400067191186949</v>
+        <v>0.2910239477593475</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.5399261475573915</v>
+        <v>0.41395122821162467</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.2269394104443485</v>
+        <v>-0.25101661375777606</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.26779001233702715</v>
+        <v>-0.21051474592157504</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.3629068186933644</v>
+        <v>-0.06529872096724354</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.2901961116190197</v>
+        <v>0.2532930986917128</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.22906147126420073</v>
+        <v>0.6233418960351749</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.13095466848574056</v>
+        <v>0.6127156628561901</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.15697872827461268</v>
+        <v>-0.16483415406764923</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.5549585275876243</v>
+        <v>0.2711697368196049</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.15929466321548524</v>
+        <v>0.031941786017971374</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.4804309478623239</v>
+        <v>0.2673127739789898</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.39323321800631916</v>
+        <v>0.28431841650664147</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.005750504421937919</v>
+        <v>0.28294881241579084</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.28363166865193</v>
+        <v>-0.37425975631751207</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.29048254401098994</v>
+        <v>-0.16556854829125367</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.4143082696289824</v>
+        <v>0.09511026671375156</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0223968028433017</v>
+        <v>-0.2678713766235514</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.14173957639406787</v>
+        <v>-0.24251302202602787</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.23807577746925546</v>
+        <v>-0.05330292779361745</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.11130397057490882</v>
+        <v>0.23469186858864433</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.05171593297455246</v>
+        <v>0.20287761234572077</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.6058762285479524</v>
+        <v>-0.15355132978567898</v>
       </c>
       <c r="BA14" t="n">
         <v>0.0</v>
@@ -3649,171 +3649,171 @@
         <v>0.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15" t="n">
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5937187207757599</v>
+        <v>0.3752109254564909</v>
       </c>
       <c r="D15" t="n">
-        <v>2.976268735582548</v>
+        <v>3.658707007826087</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004785555782273633</v>
+        <v>6.906002797229204E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07118514226132029</v>
+        <v>0.03652508146090112</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2519205489225485</v>
+        <v>0.13653814662349362</v>
       </c>
       <c r="H15" t="n">
-        <v>1.262859376624169</v>
+        <v>1.3313926647503498</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2134797244520755</v>
+        <v>0.19011114690221254</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7475853732188708</v>
+        <v>0.7333276386011531</v>
       </c>
       <c r="K15" t="n">
-        <v>0.33213115914226243</v>
+        <v>0.10426414957129815</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8703492172509932</v>
+        <v>-0.3840257949958943</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.23669168974504817</v>
+        <v>0.010897070458701918</v>
       </c>
       <c r="N15" t="n">
-        <v>0.37092279174412646</v>
+        <v>0.07437775588073059</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.8744383191874725</v>
+        <v>0.05263556564027283</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1560438959630801</v>
+        <v>-0.010897070458701918</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.24607383954726814</v>
+        <v>-0.08382410811115548</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.5881858707622865</v>
+        <v>-0.29449530350208164</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3904602064719942</v>
+        <v>0.056622460669291996</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9253894893522112</v>
+        <v>0.5585309399964089</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1560438959630801</v>
+        <v>-0.2809546318206326</v>
       </c>
       <c r="V15" t="n">
-        <v>0.37849856395271964</v>
+        <v>0.41700618688795643</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.6575324080120604</v>
+        <v>-0.31504845063525444</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.6150604078421376</v>
+        <v>-0.17922812798228271</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5684241098879497</v>
+        <v>0.08049133114848672</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6747521054100591</v>
+        <v>0.6069285364557899</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.23741401548765495</v>
+        <v>0.35423736514633397</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.252059988170327</v>
+        <v>0.6485817948579911</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.28799863434889605</v>
+        <v>0.5628726902941033</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.2296326648007838</v>
+        <v>0.21221717593471112</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.072507086162659</v>
+        <v>0.6463218506650641</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5202433192061875</v>
+        <v>0.5340234560112975</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.35948301730208954</v>
+        <v>0.31020802752054166</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.012389853296788544</v>
+        <v>0.0077677239084792404</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.8375200749167142</v>
+        <v>0.398420708246352</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.263475265125221</v>
+        <v>0.21547237638641548</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.0027528808870487254</v>
+        <v>0.4718137708804342</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.04317796867631252</v>
+        <v>-0.0705432094665106</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.10910271266388438</v>
+        <v>0.29163755351569876</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.5778323143874733</v>
+        <v>0.4081859339976699</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.058590560241770895</v>
+        <v>0.13075267589791828</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.8022026799728863</v>
+        <v>0.08400250978605328</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.4917634679888909</v>
+        <v>0.12326258939592094</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.6307224562146807</v>
+        <v>0.4163694238429674</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.09281073484059199</v>
+        <v>0.0990550648283719</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5446258570491906</v>
+        <v>0.5086222386033707</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.5749138549231088</v>
+        <v>-0.13227754424704408</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.2831111769140646</v>
+        <v>0.024252788196681863</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.08079109808783347</v>
+        <v>-0.0904386590955717</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.626650377224939</v>
+        <v>0.30104776908492425</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.6679113360363331</v>
+        <v>-0.16765410369478495</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0.5357810223065087</v>
+        <v>-0.3594235457846082</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC15" t="n">
         <v>1.0</v>
@@ -3830,166 +3830,166 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" t="n">
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.43444916863043836</v>
+        <v>0.29441061898877696</v>
       </c>
       <c r="D16" t="n">
-        <v>2.222360831166304</v>
+        <v>2.2201557521550486</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03159763231710844</v>
+        <v>0.031758005574058626</v>
       </c>
       <c r="F16" t="n">
         <v>0.1576731532834612</v>
       </c>
       <c r="G16" t="n">
-        <v>0.052798969266856406</v>
+        <v>0.18220878420727</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2700853625626992</v>
+        <v>1.374039705973953</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7883932260348766</v>
+        <v>0.1765859729558175</v>
       </c>
       <c r="J16" t="n">
-        <v>0.951789531269048</v>
+        <v>0.7251655412348408</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.05253958147590865</v>
+        <v>-0.2679420775790309</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02710273089703019</v>
+        <v>-0.23214903987461355</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0737437626523052</v>
+        <v>-0.004120837321217152</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.44771346271888834</v>
+        <v>-0.03964474785122718</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3845725150673829</v>
+        <v>0.004120837321217152</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.09347869767064498</v>
+        <v>-0.11404374276202844</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.7877195681151719</v>
+        <v>-0.19196489638853365</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.5093568057171458</v>
+        <v>-0.28234026424533276</v>
       </c>
       <c r="S16" t="n">
-        <v>0.16511601614644444</v>
+        <v>0.0891845932089641</v>
       </c>
       <c r="T16" t="n">
-        <v>1.0800739957925432</v>
+        <v>1.1550569722603754</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6968983890195863</v>
+        <v>0.22224343578879768</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5096879298109869</v>
+        <v>0.828694321514222</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02710273089703019</v>
+        <v>0.13626784890177213</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07711642428120236</v>
+        <v>0.26913307904463224</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1493564380452126</v>
+        <v>0.19971183200675213</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.46032284916098565</v>
+        <v>0.5436516881369169</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.07108791638344503</v>
+        <v>0.36544646676417614</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.6605476931855216</v>
+        <v>0.4598090763499485</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.0993493348859324</v>
+        <v>0.6911164327775321</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.2092830869043265</v>
+        <v>0.4169884479260446</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.1992302327003097</v>
+        <v>0.8407325597472077</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.7490543714118258</v>
+        <v>0.29551734441247923</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.5679025787081224</v>
+        <v>0.21901040192123844</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.230535081868668</v>
+        <v>-0.11201394721136282</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.09151151033362659</v>
+        <v>0.7406801209481308</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.1372298935552632</v>
+        <v>0.9313211489161208</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.02092243093751467</v>
+        <v>0.1513911622904498</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.3664568261875374</v>
+        <v>-0.04911858712478079</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.12500962048437803</v>
+        <v>0.19609902961201264</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.25118101731159825</v>
+        <v>0.34118556333613625</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.19645296611884877</v>
+        <v>0.45407480804440326</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.3322755520415903</v>
+        <v>0.3744584810083964</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.6547683428336422</v>
+        <v>0.21222378873138759</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.5222086910937032</v>
+        <v>0.4629383380367944</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.2858574446880757</v>
+        <v>0.4591576708008649</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0.09611802681113168</v>
+        <v>0.5790553686690778</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0.5035904384429717</v>
+        <v>-0.18847756480119493</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.5902135265440211</v>
+        <v>0.49952067474972495</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.381959645721099</v>
+        <v>0.4692295573070826</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.702101929574992</v>
+        <v>0.4604019392044396</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.46148342139064535</v>
+        <v>0.2488024600875285</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.8736024500885504</v>
+        <v>-0.44525165386687604</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC16" t="n">
         <v>1.0</v>
@@ -4006,160 +4006,160 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.16260372511058546</v>
+        <v>0.4208591423258504</v>
       </c>
       <c r="D17" t="n">
-        <v>1.16693490649591</v>
+        <v>4.910401795475521</v>
       </c>
       <c r="E17" t="n">
-        <v>0.24970019056160184</v>
+        <v>1.3708438761814209E-5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5057757051375424</v>
+        <v>0.006525216850623563</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.007555567190926239</v>
+        <v>0.1114939333697064</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05422295883732559</v>
+        <v>1.3008628197491976</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9570099574530703</v>
+        <v>0.20026885475256773</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9924547706920728</v>
+        <v>0.7333276386011531</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2403016201894932</v>
+        <v>0.04645253320586917</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009909987213329252</v>
+        <v>-0.034237795529856285</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.021487233531319205</v>
+        <v>0.22212723939527557</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.5666599985167853</v>
+        <v>0.10774153193326175</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2061487850558441</v>
+        <v>0.03423779552985717</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2397529275456085</v>
+        <v>0.08837216839038042</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.5436504078847362</v>
+        <v>0.04201156931786354</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6884291062476553</v>
+        <v>0.19206131804516424</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00990998721333014</v>
+        <v>-0.17909940172105188</v>
       </c>
       <c r="T17" t="n">
-        <v>0.520902378494676</v>
+        <v>-0.07156404614818612</v>
       </c>
       <c r="U17" t="n">
-        <v>0.22350320764770348</v>
+        <v>-0.2816767703764276</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05205461736244743</v>
+        <v>-0.17209862211911453</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.1371218337745903</v>
+        <v>-0.3527551521804311</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.20238494662362605</v>
+        <v>-0.5367884685613058</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01637131543797299</v>
+        <v>0.4754113257159567</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.21507864118225495</v>
+        <v>0.5615166105790763</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.2223424209359104</v>
+        <v>0.2922358345247087</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.30521707038655244</v>
+        <v>0.397042505390937</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.056390709164801045</v>
+        <v>0.5828354275223244</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.24041173371544922</v>
+        <v>0.4307168703138178</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.7017778265323775</v>
+        <v>0.2460714715631518</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.26194130130393134</v>
+        <v>0.43334485645486787</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.16002527137881462</v>
+        <v>0.2992912303914057</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.11115855035277722</v>
+        <v>0.12511401166033664</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.5922040307384036</v>
+        <v>0.2326110551414935</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2549035079846327</v>
+        <v>0.46059968256899175</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.5511990515436294</v>
+        <v>0.4693416001453947</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.09098619418868648</v>
+        <v>-0.0093205902292679</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.4604802811596578</v>
+        <v>0.41784135800293676</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.3572240269061986</v>
+        <v>0.15107574838629745</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.0012748476972772593</v>
+        <v>0.3174989126475527</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0.5011499755872144</v>
+        <v>0.2730623179512186</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.14980811292087637</v>
+        <v>0.04470676232406667</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.3070831151946978</v>
+        <v>-0.18099528447720736</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.2015144205202164</v>
+        <v>0.08285676694664623</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.16531290232716422</v>
+        <v>0.156357578990729</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.04968336619932323</v>
+        <v>-0.13365430495233355</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.5305469475453073</v>
+        <v>-0.2892121837041923</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0.009308506788307191</v>
+        <v>-0.12863361019186303</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.4684703485419002</v>
+        <v>0.14930753794099516</v>
       </c>
       <c r="AY17" t="n">
-        <v>-1.006751272903661</v>
+        <v>-0.0010818553714413426</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.3555868102962796</v>
+        <v>-0.19343077813621612</v>
       </c>
       <c r="BA17" t="n">
         <v>0.0</v>
@@ -4168,174 +4168,174 @@
         <v>0.0</v>
       </c>
       <c r="BC17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE17" t="n">
         <v>0.0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24945615707731433</v>
+        <v>0.22948147297559793</v>
       </c>
       <c r="D18" t="n">
-        <v>1.366661722028969</v>
+        <v>2.1051425799306815</v>
       </c>
       <c r="E18" t="n">
-        <v>0.17887123635650706</v>
+        <v>0.041189082026772635</v>
       </c>
       <c r="F18" t="n">
-        <v>0.41500987677462026</v>
+        <v>0.181537065229109</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03184511176249427</v>
+        <v>0.09263891924688106</v>
       </c>
       <c r="H18" t="n">
-        <v>0.17446550844622663</v>
+        <v>0.8498208196794466</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8623226658649237</v>
+        <v>0.40015568498704723</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9620104838169957</v>
+        <v>0.900800194791533</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0027005659659655734</v>
+        <v>-0.011348211359338833</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.7479349755727691</v>
+        <v>-0.05099700047285083</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.6516803401348437</v>
+        <v>-0.034949040997208414</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0027005659659655734</v>
+        <v>0.04206243863690773</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.7616887601039632</v>
+        <v>6.603094973751666E-4</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.7281206577226946</v>
+        <v>-0.01152472460218057</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.6536094657657374</v>
+        <v>-0.2711475669327408</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1482002792610384</v>
+        <v>0.21225060647677196</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2091880068216403</v>
+        <v>-6.60309497376943E-4</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9114425772005994</v>
+        <v>0.6657824487347366</v>
       </c>
       <c r="U18" t="n">
-        <v>0.13164655006863324</v>
+        <v>0.08742996789706936</v>
       </c>
       <c r="V18" t="n">
-        <v>0.355533179359508</v>
+        <v>0.4841433389073835</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.29404533672852295</v>
+        <v>-0.11390308447571051</v>
       </c>
       <c r="X18" t="n">
-        <v>0.029340248922945733</v>
+        <v>0.14327026787544916</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.15887280611090482</v>
+        <v>0.7879601892119439</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.7315659852872267</v>
+        <v>0.32806619617170263</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.22592979032295002</v>
+        <v>0.344167839814677</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.27365398716579126</v>
+        <v>0.7662027996911593</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4521013328525587</v>
+        <v>0.5084665860494972</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.25179342189073317</v>
+        <v>0.1400067191186949</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.44848193803193936</v>
+        <v>0.5399261475573915</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.3145278391550548</v>
+        <v>0.2269394104443485</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.22426790765644178</v>
+        <v>0.26779001233702715</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.7162942052476335</v>
+        <v>-0.3629068186933644</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.18190081057316743</v>
+        <v>0.2901961116190197</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.8514448483001456</v>
+        <v>0.22906147126420073</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.06952960488304871</v>
+        <v>0.13095466848574056</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.6124221230347198</v>
+        <v>0.15697872827461268</v>
       </c>
       <c r="AM18" t="n">
-        <v>-0.8076396190672703</v>
+        <v>0.5549585275876243</v>
       </c>
       <c r="AN18" t="n">
-        <v>-0.6263443217603859</v>
+        <v>0.15929466321548524</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.24489281337269997</v>
+        <v>0.4804309478623239</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.5070713118268744</v>
+        <v>0.39323321800631916</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-0.3305438247109693</v>
+        <v>0.005750504421937919</v>
       </c>
       <c r="AR18" t="n">
-        <v>-0.13704750818915734</v>
+        <v>0.28363166865193</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.5222018286735608</v>
+        <v>0.29048254401098994</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.17317262214064666</v>
+        <v>0.4143082696289824</v>
       </c>
       <c r="AU18" t="n">
-        <v>-0.710662965645037</v>
+        <v>0.0223968028433017</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.23589941786736013</v>
+        <v>0.14173957639406787</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.6911220817220416</v>
+        <v>0.23807577746925546</v>
       </c>
       <c r="AX18" t="n">
-        <v>-0.2503861082508543</v>
+        <v>0.11130397057490882</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.0857993955644023</v>
+        <v>-0.05171593297455246</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.6854882178530595</v>
+        <v>-0.6058762285479524</v>
       </c>
       <c r="BA18" t="n">
         <v>0.0</v>
@@ -4344,368 +4344,368 @@
         <v>0.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE18" t="n">
         <v>0.0</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2430387312494626</v>
+        <v>0.5937187207757599</v>
       </c>
       <c r="D19" t="n">
-        <v>2.570980838611452</v>
+        <v>2.976268735582548</v>
       </c>
       <c r="E19" t="n">
-        <v>0.013703675433150462</v>
+        <v>0.004785555782273633</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11953694441187547</v>
+        <v>0.07118514226132029</v>
       </c>
       <c r="G19" t="n">
-        <v>0.20201832565831623</v>
+        <v>0.2519205489225485</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1370472173128086</v>
+        <v>1.262859376624169</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03835327887852739</v>
+        <v>0.2134797244520755</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6184314049540025</v>
+        <v>0.7475853732188708</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.15309328992133686</v>
+        <v>0.33213115914226243</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1794309352315686</v>
+        <v>0.8703492172509932</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0879709565300626</v>
+        <v>-0.23669168974504817</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1591954099342594</v>
+        <v>0.37092279174412646</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.15682263880445113</v>
+        <v>-0.8744383191874725</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2083421616575798</v>
+        <v>0.1560438959630801</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.14002983133936553</v>
+        <v>-0.24607383954726814</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0751914418493822</v>
+        <v>-0.5881858707622865</v>
       </c>
       <c r="S19" t="n">
-        <v>0.242745356024896</v>
+        <v>0.3904602064719942</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5670296786254418</v>
+        <v>0.9253894893522112</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.2856245383822582</v>
+        <v>-0.1560438959630801</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3072881993837271</v>
+        <v>0.37849856395271964</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.10826660464564064</v>
+        <v>-0.6575324080120604</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0751914418493822</v>
+        <v>-0.6150604078421376</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07350553829907014</v>
+        <v>0.5684241098879497</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.4349507483493742</v>
+        <v>0.6747521054100591</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.46263998006605433</v>
+        <v>0.23741401548765495</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.06571739393304554</v>
+        <v>1.252059988170327</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.564863379216666</v>
+        <v>0.28799863434889605</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.2833663480373634</v>
+        <v>1.2296326648007838</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.41675823077368435</v>
+        <v>2.072507086162659</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.17677546637045616</v>
+        <v>0.5202433192061875</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.4858633184421226</v>
+        <v>0.35948301730208954</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.058261035417809026</v>
+        <v>0.012389853296788544</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.3653125667491697</v>
+        <v>0.8375200749167142</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.3239196088789793</v>
+        <v>0.263475265125221</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.008208570504312007</v>
+        <v>0.0027528808870487254</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.41462393368872696</v>
+        <v>0.04317796867631252</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.002555583740900147</v>
+        <v>0.10910271266388438</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.10360726503750861</v>
+        <v>0.5778323143874733</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.3315191198897445</v>
+        <v>-0.058590560241770895</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.7302873472851115</v>
+        <v>0.8022026799728863</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5546551957665997</v>
+        <v>0.4917634679888909</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.300127202309147</v>
+        <v>0.6307224562146807</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.1548178002431264</v>
+        <v>0.09281073484059199</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4246032177986514</v>
+        <v>0.5446258570491906</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.0404635507639437</v>
+        <v>-0.5749138549231088</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.05732228793802463</v>
+        <v>0.2831111769140646</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.11499684396373411</v>
+        <v>-0.08079109808783347</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.5449437268634725</v>
+        <v>0.626650377224939</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.4343495583414505</v>
+        <v>0.6679113360363331</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-0.152841157962742</v>
+        <v>-0.5357810223065087</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27252718987554164</v>
+        <v>0.43444916863043836</v>
       </c>
       <c r="D20" t="n">
-        <v>2.243525542913429</v>
+        <v>2.222360831166304</v>
       </c>
       <c r="E20" t="n">
-        <v>0.030094547294688804</v>
+        <v>0.03159763231710844</v>
       </c>
       <c r="F20" t="n">
         <v>0.1576731532834612</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25418622696978216</v>
+        <v>0.052798969266856406</v>
       </c>
       <c r="H20" t="n">
-        <v>2.0925372368310504</v>
+        <v>0.2700853625626992</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04235920435428537</v>
+        <v>0.7883932260348766</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6504187507303173</v>
+        <v>0.951789531269048</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.05692824232339433</v>
+        <v>-0.05253958147590865</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.16840760579288805</v>
+        <v>-0.02710273089703019</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.025270412916125196</v>
+        <v>0.0737437626523052</v>
       </c>
       <c r="N20" t="n">
-        <v>0.24057218435145877</v>
+        <v>-0.44771346271888834</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.018630230709204554</v>
+        <v>-0.3845725150673829</v>
       </c>
       <c r="P20" t="n">
-        <v>0.031052451952961135</v>
+        <v>-0.09347869767064498</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.12054888967035282</v>
+        <v>-0.7877195681151719</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.11108289877872046</v>
+        <v>-0.5093568057171458</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4391663254475322</v>
+        <v>0.16511601614644444</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5972783115224907</v>
+        <v>1.0800739957925432</v>
       </c>
       <c r="U20" t="n">
-        <v>0.19050768867981915</v>
+        <v>0.6968983890195863</v>
       </c>
       <c r="V20" t="n">
-        <v>0.29482491312068504</v>
+        <v>0.5096879298109869</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.01558783302314204</v>
+        <v>0.02710273089703019</v>
       </c>
       <c r="X20" t="n">
-        <v>0.015587833023140263</v>
+        <v>0.07711642428120236</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.41085935738722945</v>
+        <v>0.1493564380452126</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5837246176690307</v>
+        <v>0.46032284916098565</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.03846673590786054</v>
+        <v>-0.07108791638344503</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.27019489512365347</v>
+        <v>0.6605476931855216</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5132787570865105</v>
+        <v>1.0993493348859324</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.5991651090789922</v>
+        <v>0.2092830869043265</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.0957306418530415</v>
+        <v>1.1992302327003097</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.39773093758705613</v>
+        <v>0.7490543714118258</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.4179169008432826</v>
+        <v>0.5679025787081224</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.016549465584338563</v>
+        <v>-0.230535081868668</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.3612819217063823</v>
+        <v>0.09151151033362659</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.3637975472592885</v>
+        <v>1.1372298935552632</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.16197176869374275</v>
+        <v>0.02092243093751467</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.2011891347489012</v>
+        <v>0.3664568261875374</v>
       </c>
       <c r="AM20" t="n">
-        <v>-0.09187050598755775</v>
+        <v>-0.12500962048437803</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.22037783411874123</v>
+        <v>0.25118101731159825</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.8363192372976478</v>
+        <v>0.19645296611884877</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.0871754738159147</v>
+        <v>1.3322755520415903</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.32348470612315694</v>
+        <v>-0.6547683428336422</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.5006053988301922</v>
+        <v>0.5222086910937032</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.08448016911706624</v>
+        <v>0.2858574446880757</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6440497782530841</v>
+        <v>-0.09611802681113168</v>
       </c>
       <c r="AU20" t="n">
-        <v>-0.09429201039609225</v>
+        <v>-0.5035904384429717</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.23484968825607488</v>
+        <v>0.5902135265440211</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.3944261844456882</v>
+        <v>0.381959645721099</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.4088606331633091</v>
+        <v>-0.702101929574992</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.6193398830881556</v>
+        <v>0.46148342139064535</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-0.3166656976641704</v>
+        <v>-0.8736024500885504</v>
       </c>
       <c r="BA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -4713,157 +4713,157 @@
         <v>101</v>
       </c>
       <c r="B21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.29299754159091274</v>
+        <v>0.16260372511058546</v>
       </c>
       <c r="D21" t="n">
-        <v>1.912306050978645</v>
+        <v>1.16693490649591</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06254792435093856</v>
+        <v>0.24970019056160184</v>
       </c>
       <c r="F21" t="n">
-        <v>0.22713506911938255</v>
+        <v>0.5057757051375424</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09976206574596709</v>
+        <v>-0.007555567190926239</v>
       </c>
       <c r="H21" t="n">
-        <v>0.651116732748925</v>
+        <v>-0.05422295883732559</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5184534451559426</v>
+        <v>0.9570099574530703</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9312597731857686</v>
+        <v>0.9924547706920728</v>
       </c>
       <c r="K21" t="n">
-        <v>0.39763403391881624</v>
+        <v>-0.2403016201894932</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.24137213694007897</v>
+        <v>0.009909987213329252</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.08472273764172833</v>
+        <v>-0.021487233531319205</v>
       </c>
       <c r="N21" t="n">
-        <v>0.09903344444713902</v>
+        <v>-0.5666599985167853</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.29481704773620443</v>
+        <v>0.2061487850558441</v>
       </c>
       <c r="P21" t="n">
-        <v>0.16489997581598637</v>
+        <v>0.2397529275456085</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.5002953939968942</v>
+        <v>-0.5436504078847362</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.17087151484996</v>
+        <v>0.6884291062476553</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.16818787991788753</v>
+        <v>-0.00990998721333014</v>
       </c>
       <c r="T21" t="n">
-        <v>1.1778224097745227</v>
+        <v>0.520902378494676</v>
       </c>
       <c r="U21" t="n">
-        <v>0.12334205668004294</v>
+        <v>0.22350320764770348</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6456341481787149</v>
+        <v>0.05205461736244743</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.008742526344169832</v>
+        <v>-0.1371218337745903</v>
       </c>
       <c r="X21" t="n">
-        <v>0.008742526344169832</v>
+        <v>-0.20238494662362605</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.233438053324166</v>
+        <v>0.01637131543797299</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.6313262996970046</v>
+        <v>0.21507864118225495</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.4408168991660677</v>
+        <v>0.2223424209359104</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.554416539326624</v>
+        <v>0.30521707038655244</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.8785303908437729</v>
+        <v>0.056390709164801045</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.4323631814798521</v>
+        <v>0.24041173371544922</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5171723767416445</v>
+        <v>0.7017778265323775</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.36202424196076954</v>
+        <v>0.26194130130393134</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3251830118051249</v>
+        <v>0.16002527137881462</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.3338410718731559</v>
+        <v>0.11115855035277722</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.3241695252068464</v>
+        <v>0.5922040307384036</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.4375303501416798</v>
+        <v>0.2549035079846327</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.4477715984071393</v>
+        <v>-0.5511990515436294</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.10529325940802181</v>
+        <v>-0.09098619418868648</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.12340619771969408</v>
+        <v>0.4604802811596578</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.3326277649420941</v>
+        <v>0.3572240269061986</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.4540878134031807</v>
+        <v>-0.0012748476972772593</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.32799446640480134</v>
+        <v>-0.5011499755872144</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-0.2496510056097172</v>
+        <v>-0.14980811292087637</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.5531110306940068</v>
+        <v>0.3070831151946978</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.39554924248598944</v>
+        <v>-0.2015144205202164</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.36081625192782774</v>
+        <v>0.16531290232716422</v>
       </c>
       <c r="AU21" t="n">
-        <v>-0.28822456216042625</v>
+        <v>0.04968336619932323</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.08549188008900899</v>
+        <v>0.5305469475453073</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.3192329718269473</v>
+        <v>-0.009308506788307191</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.42282105224084</v>
+        <v>0.4684703485419002</v>
       </c>
       <c r="AY21" t="n">
-        <v>-0.03449121956807488</v>
+        <v>-1.006751272903661</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.25800360622016427</v>
+        <v>-0.3555868102962796</v>
       </c>
       <c r="BA21" t="n">
         <v>0.0</v>
@@ -4872,10 +4872,10 @@
         <v>0.0</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE21" t="n">
         <v>0.0</v>
@@ -4889,157 +4889,157 @@
         <v>102</v>
       </c>
       <c r="B22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08392229997617119</v>
+        <v>0.24945615707731433</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7300081338955766</v>
+        <v>1.366661722028969</v>
       </c>
       <c r="E22" t="n">
-        <v>0.46936390514535364</v>
+        <v>0.17887123635650706</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7137930314670554</v>
+        <v>0.41500987677462026</v>
       </c>
       <c r="G22" t="n">
-        <v>0.16538500488390098</v>
+        <v>0.03184511176249427</v>
       </c>
       <c r="H22" t="n">
-        <v>1.4386211867869219</v>
+        <v>0.17446550844622663</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1575341115158047</v>
+        <v>0.8623226658649237</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7186265464382217</v>
+        <v>0.9620104838169957</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3180375290488051</v>
+        <v>-0.0027005659659655734</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.37092985960223146</v>
+        <v>-0.7479349755727691</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.16875546944415376</v>
+        <v>-0.6516803401348437</v>
       </c>
       <c r="N22" t="n">
-        <v>0.26360130170791507</v>
+        <v>0.0027005659659655734</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.2703341449769674</v>
+        <v>-0.7616887601039632</v>
       </c>
       <c r="P22" t="n">
-        <v>0.14548287011499283</v>
+        <v>-0.7281206577226946</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1454828701149946</v>
+        <v>-0.6536094657657374</v>
       </c>
       <c r="R22" t="n">
-        <v>0.20633444650950672</v>
+        <v>0.1482002792610384</v>
       </c>
       <c r="S22" t="n">
-        <v>0.19967037147422317</v>
+        <v>0.2091880068216403</v>
       </c>
       <c r="T22" t="n">
-        <v>0.16203354024210626</v>
+        <v>0.9114425772005994</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.25708813507936945</v>
+        <v>0.13164655006863324</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1711120285624208</v>
+        <v>0.355533179359508</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.4933390398007589</v>
+        <v>-0.29404533672852295</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.554895735415716</v>
+        <v>0.029340248922945733</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.28084267928918116</v>
+        <v>0.15887280611090482</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.06042058059246891</v>
+        <v>0.7315659852872267</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.2583686091927433</v>
+        <v>0.22592979032295002</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.059223329906107125</v>
+        <v>-0.27365398716579126</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.18676094164258572</v>
+        <v>0.4521013328525587</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.045375601290199796</v>
+        <v>-0.25179342189073317</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.23061347170471258</v>
+        <v>0.44848193803193936</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.1407312499835971</v>
+        <v>0.3145278391550548</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.2927997946029546</v>
+        <v>0.22426790765644178</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.1883696088767728</v>
+        <v>-0.7162942052476335</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.4299444298471542</v>
+        <v>-0.18190081057316743</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.007758272716005266</v>
+        <v>0.8514448483001456</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.09278556431067209</v>
+        <v>0.06952960488304871</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.09161783207375684</v>
+        <v>-0.6124221230347198</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.14551123263114363</v>
+        <v>-0.8076396190672703</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.18712246614847317</v>
+        <v>-0.6263443217603859</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.6862846472750626</v>
+        <v>0.24489281337269997</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.6721307530727856</v>
+        <v>0.5070713118268744</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.07303472125322052</v>
+        <v>-0.3305438247109693</v>
       </c>
       <c r="AR22" t="n">
-        <v>-0.27629863166918334</v>
+        <v>-0.13704750818915734</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.005847785503160452</v>
+        <v>0.5222018286735608</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.4112119214029999</v>
+        <v>-0.17317262214064666</v>
       </c>
       <c r="AU22" t="n">
-        <v>-0.13886155140700218</v>
+        <v>-0.710662965645037</v>
       </c>
       <c r="AV22" t="n">
-        <v>-0.32296841486384054</v>
+        <v>0.23589941786736013</v>
       </c>
       <c r="AW22" t="n">
-        <v>-0.17995958431111703</v>
+        <v>0.6911220817220416</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.373552672351126</v>
+        <v>-0.2503861082508543</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.27907893096132774</v>
+        <v>-0.0857993955644023</v>
       </c>
       <c r="AZ22" t="n">
-        <v>-0.3831544757414438</v>
+        <v>-0.6854882178530595</v>
       </c>
       <c r="BA22" t="n">
         <v>0.0</v>
@@ -5048,10 +5048,10 @@
         <v>0.0</v>
       </c>
       <c r="BC22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE22" t="n">
         <v>0.0</v>
@@ -5062,512 +5062,512 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11061827404060529</v>
+        <v>0.2430387312494626</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8428746540084002</v>
+        <v>2.570980838611452</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4039864533684099</v>
+        <v>0.013703675433150462</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6630950062184935</v>
+        <v>0.11953694441187547</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.024019481111208982</v>
+        <v>0.20201832565831623</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1830205000634885</v>
+        <v>2.1370472173128086</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8556465553774718</v>
+        <v>0.03835327887852739</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9620104838169957</v>
+        <v>0.6184314049540025</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1643135092720014</v>
+        <v>-0.15309328992133686</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.3622751535364497</v>
+        <v>0.1794309352315686</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06037933453645827</v>
+        <v>-0.0879709565300626</v>
       </c>
       <c r="N23" t="n">
-        <v>-6.803151248480077E-4</v>
+        <v>0.1591954099342594</v>
       </c>
       <c r="O23" t="n">
-        <v>0.13396186466438298</v>
+        <v>-0.15682263880445113</v>
       </c>
       <c r="P23" t="n">
-        <v>6.803151248488959E-4</v>
+        <v>0.2083421616575798</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.051346412583647805</v>
+        <v>-0.14002983133936553</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.32596098433604137</v>
+        <v>-0.0751914418493822</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.22913659641684792</v>
+        <v>0.242745356024896</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8229262880873112</v>
+        <v>0.5670296786254418</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.17451602818026402</v>
+        <v>-0.2856245383822582</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7974080138393553</v>
+        <v>0.3072881993837271</v>
       </c>
       <c r="W23" t="n">
-        <v>0.34102906556406865</v>
+        <v>-0.10826660464564064</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5698074178017123</v>
+        <v>0.0751914418493822</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.009540882194086997</v>
+        <v>0.07350553829907014</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.33875137574392333</v>
+        <v>0.4349507483493742</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.4148573864041758</v>
+        <v>0.46263998006605433</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.28420746059374835</v>
+        <v>0.06571739393304554</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.28662370885238886</v>
+        <v>0.564863379216666</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.31969122012602647</v>
+        <v>0.2833663480373634</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.23801293433847093</v>
+        <v>0.41675823077368435</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.15523546239154662</v>
+        <v>0.17677546637045616</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.04004745685651745</v>
+        <v>0.4858633184421226</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.013360515019190444</v>
+        <v>0.058261035417809026</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.3507983642915793</v>
+        <v>0.3653125667491697</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.4461074681345121</v>
+        <v>0.3239196088789793</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.6563987784046219</v>
+        <v>0.008208570504312007</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.008122074611602415</v>
+        <v>0.41462393368872696</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.18554039191959415</v>
+        <v>0.002555583740900147</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.21434444476856473</v>
+        <v>0.10360726503750861</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.08152325865451537</v>
+        <v>0.3315191198897445</v>
       </c>
       <c r="AP23" t="n">
-        <v>-0.1869018220606442</v>
+        <v>0.7302873472851115</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.1995491708476509</v>
+        <v>0.5546551957665997</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.26312762128376477</v>
+        <v>0.300127202309147</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.7445853508025237</v>
+        <v>0.1548178002431264</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.04877883311104547</v>
+        <v>0.4246032177986514</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.03393023581780774</v>
+        <v>-0.0404635507639437</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.35396866776418</v>
+        <v>0.05732228793802463</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.39865663649338323</v>
+        <v>0.11499684396373411</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.3545465249644142</v>
+        <v>0.5449437268634725</v>
       </c>
       <c r="AY23" t="n">
-        <v>-0.22252219736055867</v>
+        <v>0.4343495583414505</v>
       </c>
       <c r="AZ23" t="n">
-        <v>-0.7854487796112952</v>
+        <v>-0.152841157962742</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10255551132536396</v>
+        <v>0.27252718987554164</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0048339416117118</v>
+        <v>2.243525542913429</v>
       </c>
       <c r="E24" t="n">
-        <v>0.32062667259553096</v>
+        <v>0.030094547294688804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.583870656421232</v>
+        <v>0.1576731532834612</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0407485113348468</v>
+        <v>0.25418622696978216</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3992519439496669</v>
+        <v>2.0925372368310504</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6916937378912393</v>
+        <v>0.04235920435428537</v>
       </c>
       <c r="J24" t="n">
-        <v>0.951789531269048</v>
+        <v>0.6504187507303173</v>
       </c>
       <c r="K24" t="n">
-        <v>0.20161229084132337</v>
+        <v>-0.05692824232339433</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.20562663894741995</v>
+        <v>-0.16840760579288805</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.011230447767321294</v>
+        <v>-0.025270412916125196</v>
       </c>
       <c r="N24" t="n">
-        <v>0.19217733611571752</v>
+        <v>0.24057218435145877</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.1457563849585064</v>
+        <v>-0.018630230709204554</v>
       </c>
       <c r="P24" t="n">
-        <v>0.006649493361633674</v>
+        <v>0.031052451952961135</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.00664949336163545</v>
+        <v>-0.12054888967035282</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.1712574941422016</v>
+        <v>-0.11108289877872046</v>
       </c>
       <c r="S24" t="n">
-        <v>0.03182670292580525</v>
+        <v>0.4391663254475322</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8450847341270329</v>
+        <v>0.5972783115224907</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04506171804538717</v>
+        <v>0.19050768867981915</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3605442690350422</v>
+        <v>0.29482491312068504</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.03002431941701289</v>
+        <v>-0.01558783302314204</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.13955020926623085</v>
+        <v>0.015587833023140263</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.029689136749357914</v>
+        <v>0.41085935738722945</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.2129247530762335</v>
+        <v>0.5837246176690307</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.4109067642580513</v>
+        <v>0.03846673590786054</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.20224461400934857</v>
+        <v>0.27019489512365347</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5575256224500826</v>
+        <v>0.5132787570865105</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1286387907085036</v>
+        <v>0.5991651090789922</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.5281560518680344</v>
+        <v>1.0957306418530415</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.3340615806134135</v>
+        <v>0.39773093758705613</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.05142037718086101</v>
+        <v>0.4179169008432826</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.14380090210427987</v>
+        <v>0.016549465584338563</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.2759784463019095</v>
+        <v>0.3612819217063823</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.4921887169137893</v>
+        <v>0.3637975472592885</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.07130635130746654</v>
+        <v>-0.16197176869374275</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.13612138405372853</v>
+        <v>0.2011891347489012</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.01617626950562645</v>
+        <v>-0.09187050598755775</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.29628732627484844</v>
+        <v>0.22037783411874123</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.42205404648702505</v>
+        <v>0.8363192372976478</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.1170684179591941</v>
+        <v>1.0871754738159147</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.0812254142611657</v>
+        <v>0.32348470612315694</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.045914553132892166</v>
+        <v>0.5006053988301922</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.17364655423680375</v>
+        <v>0.08448016911706624</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.2972753058092774</v>
+        <v>0.6440497782530841</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.016697538447941085</v>
+        <v>-0.09429201039609225</v>
       </c>
       <c r="AV24" t="n">
-        <v>-0.008381517784838977</v>
+        <v>0.23484968825607488</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.06831033336537828</v>
+        <v>0.3944261844456882</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.48283319297385496</v>
+        <v>0.4088606331633091</v>
       </c>
       <c r="AY24" t="n">
-        <v>-0.18157603000160094</v>
+        <v>0.6193398830881556</v>
       </c>
       <c r="AZ24" t="n">
-        <v>-0.2841906893880992</v>
+        <v>-0.3166656976641704</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BF24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.15462126875355467</v>
+        <v>0.29299754159091274</v>
       </c>
       <c r="D25" t="n">
-        <v>1.6178153953498398</v>
+        <v>1.912306050978645</v>
       </c>
       <c r="E25" t="n">
-        <v>0.11305290487016088</v>
+        <v>0.06254792435093856</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3110588596427548</v>
+        <v>0.22713506911938255</v>
       </c>
       <c r="G25" t="n">
-        <v>0.17085465331523492</v>
+        <v>0.09976206574596709</v>
       </c>
       <c r="H25" t="n">
-        <v>1.7876666692025975</v>
+        <v>0.651116732748925</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08091489103579498</v>
+        <v>0.5184534451559426</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.9312597731857686</v>
       </c>
       <c r="K25" t="n">
-        <v>0.13242162234861965</v>
+        <v>0.39763403391881624</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.06821114465334865</v>
+        <v>-0.24137213694007897</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09184652297442142</v>
+        <v>-0.08472273764172833</v>
       </c>
       <c r="N25" t="n">
-        <v>0.08770363639344048</v>
+        <v>0.09903344444713902</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.30292365201670357</v>
+        <v>-0.29481704773620443</v>
       </c>
       <c r="P25" t="n">
-        <v>0.17749320349547482</v>
+        <v>0.16489997581598637</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.15395918133713948</v>
+        <v>-0.5002953939968942</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06821114465335043</v>
+        <v>-0.17087151484996</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.29073792601053583</v>
+        <v>-0.16818787991788753</v>
       </c>
       <c r="T25" t="n">
-        <v>0.19258887317954</v>
+        <v>1.1778224097745227</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.2625019249132219</v>
+        <v>0.12334205668004294</v>
       </c>
       <c r="V25" t="n">
-        <v>0.14885738690515993</v>
+        <v>0.6456341481787149</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.18155711090510174</v>
+        <v>-0.008742526344169832</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.25192347593972464</v>
+        <v>0.008742526344169832</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.30300383095123706</v>
+        <v>0.233438053324166</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.25531274325146747</v>
+        <v>0.6313262996970046</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.07936257771617328</v>
+        <v>0.4408168991660677</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.12483984783517066</v>
+        <v>0.554416539326624</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3423292910113549</v>
+        <v>0.8785303908437729</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.014203872133155215</v>
+        <v>0.4323631814798521</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.24359111436492675</v>
+        <v>0.5171723767416445</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.04078862083829726</v>
+        <v>0.36202424196076954</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.12835592544272245</v>
+        <v>0.3251830118051249</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.03355885783951962</v>
+        <v>-0.3338410718731559</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.26910907101877335</v>
+        <v>0.3241695252068464</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.14235634008896092</v>
+        <v>1.4375303501416798</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.005483469582284073</v>
+        <v>-0.4477715984071393</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.11964040937013287</v>
+        <v>-0.10529325940802181</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.42017839705073357</v>
+        <v>0.12340619771969408</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.2673398621172378</v>
+        <v>0.3326277649420941</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.75965217854014</v>
+        <v>0.4540878134031807</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.3283396912535199</v>
+        <v>0.32799446640480134</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.010044989517105307</v>
+        <v>-0.2496510056097172</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.0157937582312222</v>
+        <v>0.5531110306940068</v>
       </c>
       <c r="AS25" t="n">
-        <v>-0.04220318479842966</v>
+        <v>0.39554924248598944</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.36649177635109353</v>
+        <v>0.36081625192782774</v>
       </c>
       <c r="AU25" t="n">
-        <v>-0.04222662474220229</v>
+        <v>-0.28822456216042625</v>
       </c>
       <c r="AV25" t="n">
-        <v>-0.19539049617600845</v>
+        <v>0.08549188008900899</v>
       </c>
       <c r="AW25" t="n">
-        <v>-0.13149612006500533</v>
+        <v>0.3192329718269473</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.4599352054205106</v>
+        <v>0.42282105224084</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.016639577649128157</v>
+        <v>-0.03449121956807488</v>
       </c>
       <c r="AZ25" t="n">
-        <v>-0.45382588976152505</v>
+        <v>-0.25800360622016427</v>
       </c>
       <c r="BA25" t="n">
         <v>0.0</v>
@@ -5576,10 +5576,10 @@
         <v>0.0</v>
       </c>
       <c r="BC25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE25" t="n">
         <v>0.0</v>
@@ -5590,160 +5590,160 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07082632761981736</v>
+        <v>0.08392229997617119</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8058544672089316</v>
+        <v>0.7300081338955766</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4247835723075216</v>
+        <v>0.46936390514535364</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6877448313550351</v>
+        <v>0.7137930314670554</v>
       </c>
       <c r="G26" t="n">
-        <v>0.10412035803232175</v>
+        <v>0.16538500488390098</v>
       </c>
       <c r="H26" t="n">
-        <v>1.1846704250731597</v>
+        <v>1.4386211867869219</v>
       </c>
       <c r="I26" t="n">
-        <v>0.24268753515510905</v>
+        <v>0.1575341115158047</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7702339488970553</v>
+        <v>0.7186265464382217</v>
       </c>
       <c r="K26" t="n">
-        <v>0.024845061379035194</v>
+        <v>0.3180375290488051</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.1079462035454517</v>
+        <v>-0.37092985960223146</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1638990940823586</v>
+        <v>-0.16875546944415376</v>
       </c>
       <c r="N26" t="n">
-        <v>0.15293592982027882</v>
+        <v>0.26360130170791507</v>
       </c>
       <c r="O26" t="n">
-        <v>0.18868151526022992</v>
+        <v>-0.2703341449769674</v>
       </c>
       <c r="P26" t="n">
-        <v>0.11950117548423655</v>
+        <v>0.14548287011499283</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04090404874757603</v>
+        <v>-0.1454828701149946</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3525359224014615</v>
+        <v>0.20633444650950672</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.024845061379035194</v>
+        <v>0.19967037147422317</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.19496935072489308</v>
+        <v>0.16203354024210626</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.4033527186345358</v>
+        <v>-0.25708813507936945</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.14972993404949264</v>
+        <v>0.1711120285624208</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.3680676198492021</v>
+        <v>-0.4933390398007589</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.2756963570264901</v>
+        <v>-0.554895735415716</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.14282119059236464</v>
+        <v>0.28084267928918116</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.03522855929043178</v>
+        <v>0.06042058059246891</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.16781755426392841</v>
+        <v>-0.2583686091927433</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.18457263782514666</v>
+        <v>-0.059223329906107125</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.08921398295820548</v>
+        <v>0.18676094164258572</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.315697254458307</v>
+        <v>-0.045375601290199796</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.1479204346211347</v>
+        <v>0.23061347170471258</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.09030098279034515</v>
+        <v>-0.1407312499835971</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.16080648236728656</v>
+        <v>-0.2927997946029546</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.10624006104487904</v>
+        <v>-0.1883696088767728</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.015202446788620705</v>
+        <v>0.4299444298471542</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.046491885452498494</v>
+        <v>-0.007758272716005266</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.27652706953472084</v>
+        <v>0.09278556431067209</v>
       </c>
       <c r="AL26" t="n">
-        <v>-0.10911506777340385</v>
+        <v>0.09161783207375684</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.05147359994840528</v>
+        <v>0.14551123263114363</v>
       </c>
       <c r="AN26" t="n">
-        <v>-0.040504899688710516</v>
+        <v>0.18712246614847317</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.26123162179870363</v>
+        <v>0.6862846472750626</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.4961569199153679</v>
+        <v>0.6721307530727856</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.04158275551281587</v>
+        <v>0.07303472125322052</v>
       </c>
       <c r="AR26" t="n">
-        <v>-0.2194652791664371</v>
+        <v>-0.27629863166918334</v>
       </c>
       <c r="AS26" t="n">
-        <v>-0.13626554317367834</v>
+        <v>-0.005847785503160452</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.16734859135720903</v>
+        <v>0.4112119214029999</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.2988957329362698</v>
+        <v>-0.13886155140700218</v>
       </c>
       <c r="AV26" t="n">
-        <v>-0.36173710243934387</v>
+        <v>-0.32296841486384054</v>
       </c>
       <c r="AW26" t="n">
-        <v>-0.07912789311843937</v>
+        <v>-0.17995958431111703</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.04645328398883386</v>
+        <v>0.373552672351126</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.30632230947644423</v>
+        <v>0.27907893096132774</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.14401641707114088</v>
+        <v>-0.3831544757414438</v>
       </c>
       <c r="BA26" t="n">
         <v>0.0</v>
@@ -5752,10 +5752,10 @@
         <v>0.0</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE26" t="n">
         <v>0.0</v>
@@ -5766,160 +5766,160 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" t="n">
         <v>3.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25659173144764397</v>
+        <v>0.11061827404060529</v>
       </c>
       <c r="D27" t="n">
-        <v>1.7302863292610773</v>
+        <v>0.8428746540084002</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09078795471345771</v>
+        <v>0.4039864533684099</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2735130787569992</v>
+        <v>0.6630950062184935</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06443142845872565</v>
+        <v>-0.024019481111208982</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4344832906653659</v>
+        <v>-0.1830205000634885</v>
       </c>
       <c r="I27" t="n">
-        <v>0.666121213131337</v>
+        <v>0.8556465553774718</v>
       </c>
       <c r="J27" t="n">
-        <v>0.951789531269048</v>
+        <v>0.9620104838169957</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4293717587408086</v>
+        <v>-0.1643135092720014</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5086741480998214</v>
+        <v>-0.3622751535364497</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.23229853136936107</v>
+        <v>0.06037933453645827</v>
       </c>
       <c r="N27" t="n">
-        <v>0.23591663553792763</v>
+        <v>-6.803151248480077E-4</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1806290888661941</v>
+        <v>0.13396186466438298</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.10913447604087523</v>
+        <v>6.803151248488959E-4</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.3456513984438061</v>
+        <v>-0.051346412583647805</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.13909051028982233</v>
+        <v>-0.32596098433604137</v>
       </c>
       <c r="S27" t="n">
-        <v>0.30717477323584674</v>
+        <v>-0.22913659641684792</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5881424098151768</v>
+        <v>0.8229262880873112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.10913447604087345</v>
+        <v>-0.17451602818026402</v>
       </c>
       <c r="V27" t="n">
-        <v>0.22961953197427754</v>
+        <v>0.7974080138393553</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.14412507864015467</v>
+        <v>0.34102906556406865</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.4492452178803923</v>
+        <v>0.5698074178017123</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.3304978811970738</v>
+        <v>0.009540882194086997</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.41602797664805635</v>
+        <v>0.33875137574392333</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.23194929230792738</v>
+        <v>0.4148573864041758</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.3592669805259998</v>
+        <v>-0.28420746059374835</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.942142252739778</v>
+        <v>0.28662370885238886</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.5581378284116241</v>
+        <v>0.31969122012602647</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.9113829763612067</v>
+        <v>0.23801293433847093</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.7938293247351869</v>
+        <v>0.15523546239154662</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.49479745354952165</v>
+        <v>0.04004745685651745</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.48833620820699686</v>
+        <v>-0.013360515019190444</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.11836239387570124</v>
+        <v>0.3507983642915793</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.781323393060438</v>
+        <v>0.4461074681345121</v>
       </c>
       <c r="AK27" t="n">
-        <v>-0.5881680125285094</v>
+        <v>0.6563987784046219</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.199925901898256</v>
+        <v>0.008122074611602415</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.31047204812104745</v>
+        <v>-0.18554039191959415</v>
       </c>
       <c r="AN27" t="n">
-        <v>-0.10999278492874787</v>
+        <v>0.21434444476856473</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.24555781437108593</v>
+        <v>-0.08152325865451537</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.8527711144297552</v>
+        <v>-0.1869018220606442</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-0.12030540819799107</v>
+        <v>0.1995491708476509</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.1722021004831582</v>
+        <v>0.26312762128376477</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.112487599094516</v>
+        <v>0.7445853508025237</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.3214658580161185</v>
+        <v>0.04877883311104547</v>
       </c>
       <c r="AU27" t="n">
-        <v>-0.24779645082642965</v>
+        <v>-0.03393023581780774</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.2698880977063851</v>
+        <v>0.35396866776418</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.4217061086461964</v>
+        <v>0.39865663649338323</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.2558174718771635</v>
+        <v>0.3545465249644142</v>
       </c>
       <c r="AY27" t="n">
-        <v>0.09810994260875994</v>
+        <v>-0.22252219736055867</v>
       </c>
       <c r="AZ27" t="n">
-        <v>-0.25153998482263695</v>
+        <v>-0.7854487796112952</v>
       </c>
       <c r="BA27" t="n">
         <v>0.0</v>
@@ -5942,160 +5942,160 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" t="n">
         <v>3.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17333206521621367</v>
+        <v>0.10255551132536396</v>
       </c>
       <c r="D28" t="n">
-        <v>1.5121111464409667</v>
+        <v>1.0048339416117118</v>
       </c>
       <c r="E28" t="n">
-        <v>0.13785816103603005</v>
+        <v>0.32062667259553096</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3605521134788478</v>
+        <v>0.583870656421232</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08202958378627985</v>
+        <v>0.0407485113348468</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7156082045547819</v>
+        <v>0.3992519439496669</v>
       </c>
       <c r="I28" t="n">
-        <v>0.47812106920761777</v>
+        <v>0.6916937378912393</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9262665655274255</v>
+        <v>0.951789531269048</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.19743674637713493</v>
+        <v>0.20161229084132337</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.8192584781184262</v>
+        <v>-0.20562663894741995</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.12226250239703074</v>
+        <v>-0.011230447767321294</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.11904797741926387</v>
+        <v>0.19217733611571752</v>
       </c>
       <c r="O28" t="n">
-        <v>0.28498425154294527</v>
+        <v>-0.1457563849585064</v>
       </c>
       <c r="P28" t="n">
-        <v>0.14694445671573497</v>
+        <v>0.006649493361633674</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.3826443373893813</v>
+        <v>-0.00664949336163545</v>
       </c>
       <c r="R28" t="n">
-        <v>0.012625762266211815</v>
+        <v>-0.1712574941422016</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2630910169694234</v>
+        <v>0.03182670292580525</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2499538444813023</v>
+        <v>0.8450847341270329</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.003843926456037927</v>
+        <v>0.04506171804538717</v>
       </c>
       <c r="V28" t="n">
-        <v>0.14737306266856276</v>
+        <v>0.3605442690350422</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.19943221340138617</v>
+        <v>-0.03002431941701289</v>
       </c>
       <c r="X28" t="n">
-        <v>0.003843926456037039</v>
+        <v>-0.13955020926623085</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.47517532936193874</v>
+        <v>-0.029689136749357914</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.34548879838893587</v>
+        <v>0.2129247530762335</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.025255250129793794</v>
+        <v>0.4109067642580513</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.22133192021138814</v>
+        <v>-0.20224461400934857</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.1368857473258549</v>
+        <v>0.5575256224500826</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.2910239477593475</v>
+        <v>0.1286387907085036</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.41395122821162467</v>
+        <v>0.5281560518680344</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.25101661375777606</v>
+        <v>0.3340615806134135</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.21051474592157504</v>
+        <v>0.05142037718086101</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.06529872096724354</v>
+        <v>-0.14380090210427987</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.2532930986917128</v>
+        <v>0.2759784463019095</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.6233418960351749</v>
+        <v>0.4921887169137893</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.6127156628561901</v>
+        <v>-0.07130635130746654</v>
       </c>
       <c r="AL28" t="n">
-        <v>-0.16483415406764923</v>
+        <v>-0.13612138405372853</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.2711697368196049</v>
+        <v>0.01617626950562645</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.031941786017971374</v>
+        <v>0.29628732627484844</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.2673127739789898</v>
+        <v>0.42205404648702505</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.28431841650664147</v>
+        <v>0.1170684179591941</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.28294881241579084</v>
+        <v>0.0812254142611657</v>
       </c>
       <c r="AR28" t="n">
-        <v>-0.37425975631751207</v>
+        <v>0.045914553132892166</v>
       </c>
       <c r="AS28" t="n">
-        <v>-0.16556854829125367</v>
+        <v>0.17364655423680375</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.09511026671375156</v>
+        <v>0.2972753058092774</v>
       </c>
       <c r="AU28" t="n">
-        <v>-0.2678713766235514</v>
+        <v>0.016697538447941085</v>
       </c>
       <c r="AV28" t="n">
-        <v>-0.24251302202602787</v>
+        <v>-0.008381517784838977</v>
       </c>
       <c r="AW28" t="n">
-        <v>-0.05330292779361745</v>
+        <v>0.06831033336537828</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.23469186858864433</v>
+        <v>0.48283319297385496</v>
       </c>
       <c r="AY28" t="n">
-        <v>0.20287761234572077</v>
+        <v>-0.18157603000160094</v>
       </c>
       <c r="AZ28" t="n">
-        <v>-0.15355132978567898</v>
+        <v>-0.2841906893880992</v>
       </c>
       <c r="BA28" t="n">
         <v>0.0</v>
@@ -6118,166 +6118,166 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B29" t="n">
         <v>3.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3752109254564909</v>
+        <v>0.15462126875355467</v>
       </c>
       <c r="D29" t="n">
-        <v>3.658707007826087</v>
+        <v>1.6178153953498398</v>
       </c>
       <c r="E29" t="n">
-        <v>6.906002797229204E-4</v>
+        <v>0.11305290487016088</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03652508146090112</v>
+        <v>0.3110588596427548</v>
       </c>
       <c r="G29" t="n">
-        <v>0.13653814662349362</v>
+        <v>0.17085465331523492</v>
       </c>
       <c r="H29" t="n">
-        <v>1.3313926647503498</v>
+        <v>1.7876666692025975</v>
       </c>
       <c r="I29" t="n">
-        <v>0.19011114690221254</v>
+        <v>0.08091489103579498</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7333276386011531</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K29" t="n">
-        <v>0.10426414957129815</v>
+        <v>0.13242162234861965</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.3840257949958943</v>
+        <v>-0.06821114465334865</v>
       </c>
       <c r="M29" t="n">
-        <v>0.010897070458701918</v>
+        <v>0.09184652297442142</v>
       </c>
       <c r="N29" t="n">
-        <v>0.07437775588073059</v>
+        <v>0.08770363639344048</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05263556564027283</v>
+        <v>-0.30292365201670357</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.010897070458701918</v>
+        <v>0.17749320349547482</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.08382410811115548</v>
+        <v>-0.15395918133713948</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.29449530350208164</v>
+        <v>0.06821114465335043</v>
       </c>
       <c r="S29" t="n">
-        <v>0.056622460669291996</v>
+        <v>-0.29073792601053583</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5585309399964089</v>
+        <v>0.19258887317954</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.2809546318206326</v>
+        <v>-0.2625019249132219</v>
       </c>
       <c r="V29" t="n">
-        <v>0.41700618688795643</v>
+        <v>0.14885738690515993</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.31504845063525444</v>
+        <v>-0.18155711090510174</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.17922812798228271</v>
+        <v>-0.25192347593972464</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.08049133114848672</v>
+        <v>0.30300383095123706</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.6069285364557899</v>
+        <v>0.25531274325146747</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.35423736514633397</v>
+        <v>-0.07936257771617328</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.6485817948579911</v>
+        <v>0.12483984783517066</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.5628726902941033</v>
+        <v>0.3423292910113549</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.21221717593471112</v>
+        <v>-0.014203872133155215</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.6463218506650641</v>
+        <v>0.24359111436492675</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.5340234560112975</v>
+        <v>0.04078862083829726</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.31020802752054166</v>
+        <v>0.12835592544272245</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.0077677239084792404</v>
+        <v>-0.03355885783951962</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.398420708246352</v>
+        <v>0.26910907101877335</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.21547237638641548</v>
+        <v>-0.14235634008896092</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.4718137708804342</v>
+        <v>-0.005483469582284073</v>
       </c>
       <c r="AL29" t="n">
-        <v>-0.0705432094665106</v>
+        <v>0.11964040937013287</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.29163755351569876</v>
+        <v>0.42017839705073357</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.4081859339976699</v>
+        <v>0.2673398621172378</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.13075267589791828</v>
+        <v>0.75965217854014</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.08400250978605328</v>
+        <v>0.3283396912535199</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.12326258939592094</v>
+        <v>0.010044989517105307</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.4163694238429674</v>
+        <v>0.0157937582312222</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.0990550648283719</v>
+        <v>-0.04220318479842966</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5086222386033707</v>
+        <v>0.36649177635109353</v>
       </c>
       <c r="AU29" t="n">
-        <v>-0.13227754424704408</v>
+        <v>-0.04222662474220229</v>
       </c>
       <c r="AV29" t="n">
-        <v>0.024252788196681863</v>
+        <v>-0.19539049617600845</v>
       </c>
       <c r="AW29" t="n">
-        <v>-0.0904386590955717</v>
+        <v>-0.13149612006500533</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.30104776908492425</v>
+        <v>0.4599352054205106</v>
       </c>
       <c r="AY29" t="n">
-        <v>-0.16765410369478495</v>
+        <v>0.016639577649128157</v>
       </c>
       <c r="AZ29" t="n">
-        <v>-0.3594235457846082</v>
+        <v>-0.45382588976152505</v>
       </c>
       <c r="BA29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC29" t="n">
         <v>0.0</v>
@@ -6294,166 +6294,166 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B30" t="n">
         <v>3.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.29441061898877696</v>
+        <v>0.07082632761981736</v>
       </c>
       <c r="D30" t="n">
-        <v>2.2201557521550486</v>
+        <v>0.8058544672089316</v>
       </c>
       <c r="E30" t="n">
-        <v>0.031758005574058626</v>
+        <v>0.4247835723075216</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1576731532834612</v>
+        <v>0.6877448313550351</v>
       </c>
       <c r="G30" t="n">
-        <v>0.18220878420727</v>
+        <v>0.10412035803232175</v>
       </c>
       <c r="H30" t="n">
-        <v>1.374039705973953</v>
+        <v>1.1846704250731597</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1765859729558175</v>
+        <v>0.24268753515510905</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7251655412348408</v>
+        <v>0.7702339488970553</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.2679420775790309</v>
+        <v>0.024845061379035194</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.23214903987461355</v>
+        <v>-0.1079462035454517</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.004120837321217152</v>
+        <v>0.1638990940823586</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.03964474785122718</v>
+        <v>0.15293592982027882</v>
       </c>
       <c r="O30" t="n">
-        <v>0.004120837321217152</v>
+        <v>0.18868151526022992</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.11404374276202844</v>
+        <v>0.11950117548423655</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.19196489638853365</v>
+        <v>0.04090404874757603</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.28234026424533276</v>
+        <v>0.3525359224014615</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0891845932089641</v>
+        <v>-0.024845061379035194</v>
       </c>
       <c r="T30" t="n">
-        <v>1.1550569722603754</v>
+        <v>-0.19496935072489308</v>
       </c>
       <c r="U30" t="n">
-        <v>0.22224343578879768</v>
+        <v>-0.4033527186345358</v>
       </c>
       <c r="V30" t="n">
-        <v>0.828694321514222</v>
+        <v>-0.14972993404949264</v>
       </c>
       <c r="W30" t="n">
-        <v>0.13626784890177213</v>
+        <v>-0.3680676198492021</v>
       </c>
       <c r="X30" t="n">
-        <v>0.26913307904463224</v>
+        <v>-0.2756963570264901</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.19971183200675213</v>
+        <v>-0.14282119059236464</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.5436516881369169</v>
+        <v>0.03522855929043178</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.36544646676417614</v>
+        <v>0.16781755426392841</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.4598090763499485</v>
+        <v>-0.18457263782514666</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.6911164327775321</v>
+        <v>-0.08921398295820548</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.4169884479260446</v>
+        <v>0.315697254458307</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.8407325597472077</v>
+        <v>-0.1479204346211347</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.29551734441247923</v>
+        <v>0.09030098279034515</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.21901040192123844</v>
+        <v>0.16080648236728656</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.11201394721136282</v>
+        <v>0.10624006104487904</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.7406801209481308</v>
+        <v>-0.015202446788620705</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.9313211489161208</v>
+        <v>0.046491885452498494</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.1513911622904498</v>
+        <v>0.27652706953472084</v>
       </c>
       <c r="AL30" t="n">
-        <v>-0.04911858712478079</v>
+        <v>-0.10911506777340385</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.19609902961201264</v>
+        <v>0.05147359994840528</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.34118556333613625</v>
+        <v>-0.040504899688710516</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.45407480804440326</v>
+        <v>0.26123162179870363</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.3744584810083964</v>
+        <v>0.4961569199153679</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.21222378873138759</v>
+        <v>0.04158275551281587</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.4629383380367944</v>
+        <v>-0.2194652791664371</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.4591576708008649</v>
+        <v>-0.13626554317367834</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5790553686690778</v>
+        <v>0.16734859135720903</v>
       </c>
       <c r="AU30" t="n">
-        <v>-0.18847756480119493</v>
+        <v>0.2988957329362698</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.49952067474972495</v>
+        <v>-0.36173710243934387</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.4692295573070826</v>
+        <v>-0.07912789311843937</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.4604019392044396</v>
+        <v>0.04645328398883386</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.2488024600875285</v>
+        <v>0.30632230947644423</v>
       </c>
       <c r="AZ30" t="n">
-        <v>-0.44525165386687604</v>
+        <v>0.14401641707114088</v>
       </c>
       <c r="BA30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC30" t="n">
         <v>0.0</v>
@@ -6984,10 +6984,10 @@
         <v>1.0</v>
       </c>
       <c r="BC33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE33" t="n">
         <v>1.0</v>
@@ -7336,10 +7336,10 @@
         <v>1.0</v>
       </c>
       <c r="BC35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE35" t="n">
         <v>1.0</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B38" t="n">
         <v>5.0</v>
@@ -7864,10 +7864,10 @@
         <v>0.0</v>
       </c>
       <c r="BC38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE38" t="n">
         <v>0.0</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B39" t="n">
         <v>5.0</v>
@@ -8040,10 +8040,10 @@
         <v>0.0</v>
       </c>
       <c r="BC39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE39" t="n">
         <v>0.0</v>
@@ -8216,10 +8216,10 @@
         <v>1.0</v>
       </c>
       <c r="BC40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE40" t="n">
         <v>1.0</v>
@@ -8392,10 +8392,10 @@
         <v>1.0</v>
       </c>
       <c r="BC41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE41" t="n">
         <v>1.0</v>
@@ -9106,10 +9106,10 @@
         <v>21</v>
       </c>
       <c r="BB1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC1" t="s">
         <v>27</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>20</v>
       </c>
       <c r="BD1" t="s">
         <v>18</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -9786,10 +9786,10 @@
         <v>1.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD5" t="n">
         <v>1.0</v>
@@ -9956,10 +9956,10 @@
         <v>1.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD6" t="n">
         <v>1.0</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" t="n">
         <v>1.0</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -10647,160 +10647,160 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B11" t="n">
         <v>2.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.025557150248771227</v>
+        <v>0.3410859499232979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3017048660599277</v>
+        <v>2.9382356603465705</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7643388393832697</v>
+        <v>0.005300115030229515</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8912076736953188</v>
+        <v>0.07645014407240149</v>
       </c>
       <c r="G11" t="n">
-        <v>0.131538288485428</v>
+        <v>0.26175052923677034</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5528234299579733</v>
+        <v>2.254812135448603</v>
       </c>
       <c r="I11" t="n">
-        <v>0.12783261993510642</v>
+        <v>0.029319281175297484</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6914582623762574</v>
+        <v>0.6184314049540025</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.11524393383222886</v>
+        <v>-0.39455897843353327</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.6210345596782609</v>
+        <v>-0.7422761976737835</v>
       </c>
       <c r="M11" t="n">
-        <v>0.13074194043095488</v>
+        <v>0.11787925228672691</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1778424096047022</v>
+        <v>-0.06300312343516801</v>
       </c>
       <c r="O11" t="n">
-        <v>0.17132731187943406</v>
+        <v>0.009108900493247418</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1023565286467516</v>
+        <v>0.310486145061061</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.18405815896243283</v>
+        <v>-0.013971151042628804</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1241055706759564</v>
+        <v>-0.009108900493245642</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08607297815560067</v>
+        <v>0.06981925346699924</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.08607297815560244</v>
+        <v>0.610571883389154</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.2838053648870904</v>
+        <v>-0.34817518526044466</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.10495045830151994</v>
+        <v>0.5417707588930138</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.2054236826623157</v>
+        <v>-0.31508541852398864</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.303562794861973</v>
+        <v>0.08673580047521945</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.046454085479929574</v>
+        <v>0.670190083566883</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.06569806978409609</v>
+        <v>0.5098700842385462</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0474310089403609</v>
+        <v>0.48884662940361956</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.3410429552236991</v>
+        <v>0.49911475982800724</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.007516485959504493</v>
+        <v>0.4455192667518606</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.15097361391677389</v>
+        <v>0.23408822638586102</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.3282976765129124</v>
+        <v>0.46785783560136984</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.07743555350531572</v>
+        <v>0.054605585326184425</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.034207538524190895</v>
+        <v>0.1153171168626752</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.07954702103785571</v>
+        <v>0.19251526609604497</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.01725860901125742</v>
+        <v>0.4727232163552273</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.20006890271937294</v>
+        <v>0.43256331237839696</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.12872061610719676</v>
+        <v>0.07871130836974771</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.22732826857250998</v>
+        <v>-0.026526353035636774</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.05177981486126271</v>
+        <v>0.3725905275985326</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0514496540807432</v>
+        <v>0.5487445990392441</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.19372651401087104</v>
+        <v>0.4452673240765037</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.39493563839094037</v>
+        <v>0.45802337510629343</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.18276062293783468</v>
+        <v>0.14875709173739082</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.1051787786106484</v>
+        <v>0.27381949213085477</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.01814162936071284</v>
+        <v>0.2229234698451883</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.14396034560847326</v>
+        <v>0.6240084625545901</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.14555448917262126</v>
+        <v>0.1224802799908673</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.2520792341424052</v>
+        <v>-0.043336401674050506</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.031179220238955807</v>
+        <v>-0.03603405727545628</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.34430863090463326</v>
+        <v>0.7026516126135665</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.15266307306527693</v>
+        <v>-0.0639122957206748</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.053053126184575916</v>
+        <v>-0.2512830315054355</v>
       </c>
       <c r="BA11" t="n">
         <v>0.0</v>
@@ -10809,7 +10809,7 @@
         <v>1.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD11" t="n">
         <v>0.0</v>
@@ -10817,333 +10817,333 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" t="n">
         <v>2.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3410859499232979</v>
+        <v>0.2430387312494626</v>
       </c>
       <c r="D12" t="n">
-        <v>2.9382356603465705</v>
+        <v>2.570980838611452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005300115030229515</v>
+        <v>0.013703675433150462</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07645014407240149</v>
+        <v>0.11953694441187547</v>
       </c>
       <c r="G12" t="n">
-        <v>0.26175052923677034</v>
+        <v>0.20201832565831623</v>
       </c>
       <c r="H12" t="n">
-        <v>2.254812135448603</v>
+        <v>2.1370472173128086</v>
       </c>
       <c r="I12" t="n">
-        <v>0.029319281175297484</v>
+        <v>0.03835327887852739</v>
       </c>
       <c r="J12" t="n">
         <v>0.6184314049540025</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.39455897843353327</v>
+        <v>-0.15309328992133686</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.7422761976737835</v>
+        <v>0.1794309352315686</v>
       </c>
       <c r="M12" t="n">
-        <v>0.11787925228672691</v>
+        <v>-0.0879709565300626</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.06300312343516801</v>
+        <v>0.1591954099342594</v>
       </c>
       <c r="O12" t="n">
-        <v>0.009108900493247418</v>
+        <v>-0.15682263880445113</v>
       </c>
       <c r="P12" t="n">
-        <v>0.310486145061061</v>
+        <v>0.2083421616575798</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.013971151042628804</v>
+        <v>-0.14002983133936553</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.009108900493245642</v>
+        <v>-0.0751914418493822</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06981925346699924</v>
+        <v>0.242745356024896</v>
       </c>
       <c r="T12" t="n">
-        <v>0.610571883389154</v>
+        <v>0.5670296786254418</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.34817518526044466</v>
+        <v>-0.2856245383822582</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5417707588930138</v>
+        <v>0.3072881993837271</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.31508541852398864</v>
+        <v>-0.10826660464564064</v>
       </c>
       <c r="X12" t="n">
-        <v>0.08673580047521945</v>
+        <v>0.0751914418493822</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.670190083566883</v>
+        <v>0.07350553829907014</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5098700842385462</v>
+        <v>0.4349507483493742</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.48884662940361956</v>
+        <v>0.46263998006605433</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.49911475982800724</v>
+        <v>0.06571739393304554</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.4455192667518606</v>
+        <v>0.564863379216666</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.23408822638586102</v>
+        <v>0.2833663480373634</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.46785783560136984</v>
+        <v>0.41675823077368435</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.054605585326184425</v>
+        <v>0.17677546637045616</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.1153171168626752</v>
+        <v>0.4858633184421226</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.19251526609604497</v>
+        <v>0.058261035417809026</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.4727232163552273</v>
+        <v>0.3653125667491697</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.43256331237839696</v>
+        <v>0.3239196088789793</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.07871130836974771</v>
+        <v>0.008208570504312007</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.026526353035636774</v>
+        <v>0.41462393368872696</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.3725905275985326</v>
+        <v>0.002555583740900147</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.5487445990392441</v>
+        <v>0.10360726503750861</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.4452673240765037</v>
+        <v>0.3315191198897445</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.45802337510629343</v>
+        <v>0.7302873472851115</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.14875709173739082</v>
+        <v>0.5546551957665997</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.27381949213085477</v>
+        <v>0.300127202309147</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.2229234698451883</v>
+        <v>0.1548178002431264</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6240084625545901</v>
+        <v>0.4246032177986514</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1224802799908673</v>
+        <v>-0.0404635507639437</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.043336401674050506</v>
+        <v>0.05732228793802463</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.03603405727545628</v>
+        <v>0.11499684396373411</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.7026516126135665</v>
+        <v>0.5449437268634725</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0.0639122957206748</v>
+        <v>0.4343495583414505</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.2512830315054355</v>
+        <v>-0.152841157962742</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB12" t="n">
         <v>1.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B13" t="n">
         <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.26764696447151</v>
+        <v>0.27252718987554164</v>
       </c>
       <c r="D13" t="n">
-        <v>2.2553732709029</v>
+        <v>2.243525542913429</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02928120559114356</v>
+        <v>0.030094547294688804</v>
       </c>
       <c r="F13" t="n">
         <v>0.1576731532834612</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2213027773817412</v>
+        <v>0.25418622696978216</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8648459916924771</v>
+        <v>2.0925372368310504</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06907220009575947</v>
+        <v>0.04235920435428537</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.6504187507303173</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.16531699859204885</v>
+        <v>-0.05692824232339433</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.5137925615315133</v>
+        <v>-0.16840760579288805</v>
       </c>
       <c r="M13" t="n">
-        <v>0.12797846128097135</v>
+        <v>-0.025270412916125196</v>
       </c>
       <c r="N13" t="n">
-        <v>0.15413156119461746</v>
+        <v>0.24057218435145877</v>
       </c>
       <c r="O13" t="n">
-        <v>0.10338419549488975</v>
+        <v>-0.018630230709204554</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1970956292265189</v>
+        <v>0.031052451952961135</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.10338419549489153</v>
+        <v>-0.12054888967035282</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.5592125236084531</v>
+        <v>-0.11108289877872046</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.2096066458581518</v>
+        <v>0.4391663254475322</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5520637922731773</v>
+        <v>0.5972783115224907</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.3730980549711127</v>
+        <v>0.19050768867981915</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5793013073778202</v>
+        <v>0.29482491312068504</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.5002292474886509</v>
+        <v>-0.01558783302314204</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1364237269338222</v>
+        <v>0.015587833023140263</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.380552330819933</v>
+        <v>0.41085935738722945</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4725139282808364</v>
+        <v>0.5837246176690307</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3264020439431494</v>
+        <v>0.03846673590786054</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.14358346767748387</v>
+        <v>0.27019489512365347</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5329896969392696</v>
+        <v>0.5132787570865105</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.12042110424249408</v>
+        <v>0.5991651090789922</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4051518848591549</v>
+        <v>1.0957306418530415</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.09018497670709458</v>
+        <v>0.39773093758705613</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.21116266487047675</v>
+        <v>0.4179169008432826</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.08071385933055097</v>
+        <v>0.016549465584338563</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.49465583371685184</v>
+        <v>0.3612819217063823</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.16170931459130777</v>
+        <v>0.3637975472592885</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.08443071010039738</v>
+        <v>-0.16197176869374275</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.0013867283790016671</v>
+        <v>0.2011891347489012</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.4992458205700814</v>
+        <v>-0.09187050598755775</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.4490152292875038</v>
+        <v>0.22037783411874123</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.4779610354305035</v>
+        <v>0.8363192372976478</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.20994047539300453</v>
+        <v>1.0871754738159147</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.07359414123069818</v>
+        <v>0.32348470612315694</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.15368980640958263</v>
+        <v>0.5006053988301922</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.16922590444931807</v>
+        <v>0.08448016911706624</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6531171615984359</v>
+        <v>0.6440497782530841</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1635043190644918</v>
+        <v>-0.09429201039609225</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1458166641882226</v>
+        <v>0.23484968825607488</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.01053110015362968</v>
+        <v>0.3944261844456882</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.5119894290661584</v>
+        <v>0.4088606331633091</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.12715278012967168</v>
+        <v>0.6193398830881556</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.3923040565402065</v>
+        <v>-0.3166656976641704</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB13" t="n">
         <v>1.0</v>
@@ -11152,165 +11152,165 @@
         <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5492925119307347</v>
+        <v>0.22328185070048015</v>
       </c>
       <c r="D14" t="n">
-        <v>3.432543287771932</v>
+        <v>1.333449572336759</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001338390193843832</v>
+        <v>0.189441168396487</v>
       </c>
       <c r="F14" t="n">
-        <v>0.045505266590690284</v>
+        <v>0.42939998169870386</v>
       </c>
       <c r="G14" t="n">
-        <v>0.22402522172863748</v>
+        <v>0.30653653406259923</v>
       </c>
       <c r="H14" t="n">
-        <v>1.3999394756599575</v>
+        <v>1.830650404271692</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16874186726529108</v>
+        <v>0.07412424112705542</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7236137731376446</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08241301345245944</v>
+        <v>-0.3770180972830133</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.27787141153273964</v>
+        <v>-0.844765038982132</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.024611180059364912</v>
+        <v>0.07561784160726681</v>
       </c>
       <c r="N14" t="n">
-        <v>0.024611180059364912</v>
+        <v>0.26495865251002115</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.33055768974923794</v>
+        <v>-0.31216280179392797</v>
       </c>
       <c r="P14" t="n">
-        <v>0.23305352865676277</v>
+        <v>0.2697103755502521</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.38943334691589726</v>
+        <v>-0.09858123641297745</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.20779286282644271</v>
+        <v>0.12613786678586258</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06598823357871986</v>
+        <v>0.25167532116116753</v>
       </c>
       <c r="T14" t="n">
-        <v>1.171061778835778</v>
+        <v>0.9547627860119565</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.31440398494657984</v>
+        <v>-0.2526143730395827</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7913154664725877</v>
+        <v>0.7704803749989235</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.39850066545608875</v>
+        <v>-0.31899422937174293</v>
       </c>
       <c r="X14" t="n">
-        <v>0.13429066377889498</v>
+        <v>-0.07561784160726681</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.5669789438121313</v>
+        <v>0.8139616875205036</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.0688574971009057</v>
+        <v>0.32466023093746976</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.7037574971934042</v>
+        <v>-0.11014249312641589</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.0953259832722004</v>
+        <v>0.37292185900006203</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.839404153068255</v>
+        <v>0.3391991781107482</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6200783397200116</v>
+        <v>-0.37935756403862086</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.1886486813268764</v>
+        <v>0.5233285124951372</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.37537392982390294</v>
+        <v>-0.1562895212494535</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.3828272941604869</v>
+        <v>-0.1882854986471525</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.05733544398424684</v>
+        <v>0.039543220496280895</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.7108780050483148</v>
+        <v>0.8198867422417937</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.7686216898710274</v>
+        <v>0.9196797415792162</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.11028706565232227</v>
+        <v>0.2687319854318311</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.12404574568711801</v>
+        <v>-0.028302570809866978</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.4955655875111855</v>
+        <v>0.7517600558676865</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.5047305290203266</v>
+        <v>0.6177703393226288</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.4890929984581387</v>
+        <v>1.0419006959204111</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.5112587990597941</v>
+        <v>0.8118063765099333</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.14848665566878871</v>
+        <v>0.18578192976032426</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.4410559545346988</v>
+        <v>-0.1472694170357869</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.48430972623650526</v>
+        <v>0.4962232267436626</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.7825331532990507</v>
+        <v>0.9119174034758686</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.2824857016787412</v>
+        <v>-0.23803404010730134</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.12605612721652015</v>
+        <v>0.1427378057139208</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.2312969999903114</v>
+        <v>0.032681778082530144</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.541650568064199</v>
+        <v>0.4199084751214066</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.010035029205864632</v>
+        <v>0.1467834748783332</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.7676005406257698</v>
+        <v>-0.44886702724242156</v>
       </c>
       <c r="BA14" t="n">
         <v>0.0</v>
@@ -11319,168 +11319,168 @@
         <v>1.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B15" t="n">
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.25609154691405217</v>
+        <v>0.4468992553699398</v>
       </c>
       <c r="D15" t="n">
-        <v>1.9183064076634793</v>
+        <v>3.2893076534664507</v>
       </c>
       <c r="E15" t="n">
-        <v>0.061761871154838846</v>
+        <v>0.002015159276160081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.22713506911938255</v>
+        <v>0.056424459732482266</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2409837696690969</v>
+        <v>0.2022556503743993</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8051384946894657</v>
+        <v>1.488660029613681</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07809401232751079</v>
+        <v>0.14391208814729808</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.7139792222239946</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.07697828543351548</v>
+        <v>0.32418524039496965</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.8118737793157802</v>
+        <v>0.05886691427386559</v>
       </c>
       <c r="M15" t="n">
-        <v>0.13619326724922587</v>
+        <v>0.1444012090779001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.16358229957549675</v>
+        <v>0.2768150367825264</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.026900700265462874</v>
+        <v>-0.05886691427386559</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3603862956024848</v>
+        <v>-0.11713636316767406</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.30297184440104985</v>
+        <v>-0.1986969295722094</v>
       </c>
       <c r="R15" t="n">
-        <v>0.30302194725537923</v>
+        <v>-0.132022885224659</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.13699841454343087</v>
+        <v>0.12420825223430754</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5114993419612688</v>
+        <v>0.3357092305063798</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.20901753275554924</v>
+        <v>-0.09930067068161819</v>
       </c>
       <c r="V15" t="n">
-        <v>0.48066752692191983</v>
+        <v>0.1346255357920949</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.31683318393825743</v>
+        <v>-0.4920162878569858</v>
       </c>
       <c r="X15" t="n">
-        <v>0.026900700265462874</v>
+        <v>-0.36112880780896717</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8971293160979208</v>
+        <v>-0.2839870708236525</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2534372542158412</v>
+        <v>0.9037213054233533</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1952626923546088</v>
+        <v>0.6256063163715133</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.6271166258750096</v>
+        <v>0.38115483176199305</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.23663104786837863</v>
+        <v>1.0231229890405587</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.18881526667247783</v>
+        <v>0.5484619518760443</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.615892388938093</v>
+        <v>0.5476776359482542</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.15062697093879507</v>
+        <v>0.7556942029482734</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.043312224216725426</v>
+        <v>0.6361396871902318</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.11972428655863077</v>
+        <v>-0.21064243500735635</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.59956876363057</v>
+        <v>-0.008693229600591934</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.9474542039276752</v>
+        <v>0.7163493068516456</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.028995875483152744</v>
+        <v>0.18253808923707737</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.15505837406339396</v>
+        <v>0.37908855443785683</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.6101980756562302</v>
+        <v>0.04414366124301061</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.4384174420838125</v>
+        <v>-0.12457657741506267</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.5546688470678394</v>
+        <v>0.37638980074859774</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.2299067797018015</v>
+        <v>0.9301282915885061</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.038543969911678744</v>
+        <v>0.03856268805734331</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.1606648596957463</v>
+        <v>0.714838328044447</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.4705983779873133</v>
+        <v>-0.3660844877395988</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6456172771374522</v>
+        <v>0.6592892016887841</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.042167501884204484</v>
+        <v>0.1418176953899053</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.024049144754934915</v>
+        <v>-0.12828180452805782</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0518940555015881</v>
+        <v>-0.20550833850960792</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.39983581432184856</v>
+        <v>0.33712352468874407</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.03357302080253355</v>
+        <v>0.5105602377741612</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0.07420370758795869</v>
+        <v>-0.15718055531351638</v>
       </c>
       <c r="BA15" t="n">
         <v>0.0</v>
@@ -11492,165 +11492,165 @@
         <v>0.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B16" t="n">
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.02474422212533722</v>
+        <v>0.5492925119307347</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.14052428047158613</v>
+        <v>3.432543287771932</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8889053378922902</v>
+        <v>0.001338390193843832</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9484027078756346</v>
+        <v>0.045505266590690284</v>
       </c>
       <c r="G16" t="n">
-        <v>0.26507075159577753</v>
+        <v>0.22402522172863748</v>
       </c>
       <c r="H16" t="n">
-        <v>1.5053565415547112</v>
+        <v>1.3999394756599575</v>
       </c>
       <c r="I16" t="n">
-        <v>0.13958066526194227</v>
+        <v>0.16874186726529108</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7139792222239946</v>
+        <v>0.7236137731376446</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.3207735421039999</v>
+        <v>0.08241301345245944</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3013559308663041</v>
+        <v>-0.27787141153273964</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5027185695518668</v>
+        <v>-0.024611180059364912</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3655625621719256</v>
+        <v>0.024611180059364912</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7358874678821525</v>
+        <v>-0.33055768974923794</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6509558013643613</v>
+        <v>0.23305352865676277</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3013559308663041</v>
+        <v>-0.38943334691589726</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7030409204422323</v>
+        <v>-0.20779286282644271</v>
       </c>
       <c r="S16" t="n">
-        <v>0.48720940358395737</v>
+        <v>0.06598823357871986</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.626688576571981</v>
+        <v>1.171061778835778</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.41036556322420736</v>
+        <v>-0.31440398494657984</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.5021333272505117</v>
+        <v>0.7913154664725877</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.7341333550091704</v>
+        <v>-0.39850066545608875</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.5869644337813789</v>
+        <v>0.13429066377889498</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6871789442451988</v>
+        <v>0.5669789438121313</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.26254433014768885</v>
+        <v>1.0688574971009057</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.15654930104764375</v>
+        <v>0.7037574971934042</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.529515100643339</v>
+        <v>1.0953259832722004</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.4438876480631304</v>
+        <v>0.839404153068255</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.12547945291627016</v>
+        <v>0.6200783397200116</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.05501654246904231</v>
+        <v>1.1886486813268764</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.2572803818569227</v>
+        <v>0.37537392982390294</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.18044690802471663</v>
+        <v>0.3828272941604869</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.44882441592530853</v>
+        <v>-0.05733544398424684</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.011251126003081424</v>
+        <v>0.7108780050483148</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1285426318953533</v>
+        <v>0.7686216898710274</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.051691981146964494</v>
+        <v>0.11028706565232227</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.6236296352595403</v>
+        <v>-0.12404574568711801</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.07969704734532712</v>
+        <v>0.4955655875111855</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.031137145486015427</v>
+        <v>0.5047305290203266</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.6796155379481803</v>
+        <v>0.4890929984581387</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.8796048019771128</v>
+        <v>0.5112587990597941</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.48546963232928775</v>
+        <v>0.14848665566878871</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.18310352288664866</v>
+        <v>0.4410559545346988</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.48835957366100935</v>
+        <v>0.48430972623650526</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5069899902655415</v>
+        <v>0.7825331532990507</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.41987706341064523</v>
+        <v>-0.2824857016787412</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.3653891281599151</v>
+        <v>0.12605612721652015</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.4518428703587798</v>
+        <v>0.2312969999903114</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.6280598203211252</v>
+        <v>0.541650568064199</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.8822631685355837</v>
+        <v>-0.010035029205864632</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.5050802910703691</v>
+        <v>-0.7676005406257698</v>
       </c>
       <c r="BA16" t="n">
         <v>0.0</v>
@@ -11659,7 +11659,7 @@
         <v>1.0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD16" t="n">
         <v>0.0</v>
@@ -11667,160 +11667,160 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B17" t="n">
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.033508438521007516</v>
+        <v>0.3752109254564909</v>
       </c>
       <c r="D17" t="n">
-        <v>0.39183809677188197</v>
+        <v>3.658707007826087</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6971229963127321</v>
+        <v>6.906002797229204E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8504928786182735</v>
+        <v>0.03652508146090112</v>
       </c>
       <c r="G17" t="n">
-        <v>0.15364637951674853</v>
+        <v>0.13653814662349362</v>
       </c>
       <c r="H17" t="n">
-        <v>1.7966968197574744</v>
+        <v>1.3313926647503498</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07944642812907211</v>
+        <v>0.19011114690221254</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.7333276386011531</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02433953214325868</v>
+        <v>0.10426414957129815</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.21995162817866465</v>
+        <v>-0.3840257949958943</v>
       </c>
       <c r="M17" t="n">
-        <v>0.16272533907741504</v>
+        <v>0.010897070458701918</v>
       </c>
       <c r="N17" t="n">
-        <v>0.034565590683941494</v>
+        <v>0.07437775588073059</v>
       </c>
       <c r="O17" t="n">
-        <v>0.20545220167373301</v>
+        <v>0.05263556564027283</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.07215024066937659</v>
+        <v>-0.010897070458701918</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.17183961854558127</v>
+        <v>-0.08382410811115548</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.19066860749826553</v>
+        <v>-0.29449530350208164</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.02433953214325868</v>
+        <v>0.056622460669291996</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4622269988866048</v>
+        <v>0.5585309399964089</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2609188374666047</v>
+        <v>-0.2809546318206326</v>
       </c>
       <c r="V17" t="n">
-        <v>0.09771655624725817</v>
+        <v>0.41700618688795643</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.06119880988508264</v>
+        <v>-0.31504845063525444</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.13110151305588325</v>
+        <v>-0.17922812798228271</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.19476259406275176</v>
+        <v>0.08049133114848672</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.08212842197870707</v>
+        <v>0.6069285364557899</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.022572890053899286</v>
+        <v>0.35423736514633397</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.07106566092564393</v>
+        <v>0.6485817948579911</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.49420373875722134</v>
+        <v>0.5628726902941033</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.38060849391631635</v>
+        <v>0.21221717593471112</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.266995589449893</v>
+        <v>0.6463218506650641</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3359077785623068</v>
+        <v>0.5340234560112975</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.0487062416870323</v>
+        <v>0.31020802752054166</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.09006083114164554</v>
+        <v>0.0077677239084792404</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.07797652526894261</v>
+        <v>0.398420708246352</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.005745420674800883</v>
+        <v>0.21547237638641548</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.22801765522311435</v>
+        <v>0.4718137708804342</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.013386200520596248</v>
+        <v>-0.0705432094665106</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.06918193376013093</v>
+        <v>0.29163755351569876</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.2287318661531117</v>
+        <v>0.4081859339976699</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.31083345406038276</v>
+        <v>0.13075267589791828</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.48674030765310405</v>
+        <v>0.08400250978605328</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.19871508042436403</v>
+        <v>0.12326258939592094</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.21442053527689708</v>
+        <v>0.4163694238429674</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.11471650829803792</v>
+        <v>0.0990550648283719</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4529744233287527</v>
+        <v>0.5086222386033707</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.23159463024769167</v>
+        <v>-0.13227754424704408</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.05098903873974514</v>
+        <v>0.024252788196681863</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0035057984334692094</v>
+        <v>-0.0904386590955717</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.25348993201328973</v>
+        <v>0.30104776908492425</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.23280409931272317</v>
+        <v>-0.16765410369478495</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.09152017166844217</v>
+        <v>-0.3594235457846082</v>
       </c>
       <c r="BA17" t="n">
         <v>0.0</v>
@@ -11837,160 +11837,160 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3410859499232979</v>
+        <v>0.29441061898877696</v>
       </c>
       <c r="D18" t="n">
-        <v>2.9382356603465705</v>
+        <v>2.2201557521550486</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005300115030229515</v>
+        <v>0.031758005574058626</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07645014407240149</v>
+        <v>0.1576731532834612</v>
       </c>
       <c r="G18" t="n">
-        <v>0.26175052923677034</v>
+        <v>0.18220878420727</v>
       </c>
       <c r="H18" t="n">
-        <v>2.254812135448603</v>
+        <v>1.374039705973953</v>
       </c>
       <c r="I18" t="n">
-        <v>0.029319281175297484</v>
+        <v>0.1765859729558175</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6184314049540025</v>
+        <v>0.7251655412348408</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.39455897843353327</v>
+        <v>-0.2679420775790309</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.7422761976737835</v>
+        <v>-0.23214903987461355</v>
       </c>
       <c r="M18" t="n">
-        <v>0.11787925228672691</v>
+        <v>-0.004120837321217152</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.06300312343516801</v>
+        <v>-0.03964474785122718</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009108900493247418</v>
+        <v>0.004120837321217152</v>
       </c>
       <c r="P18" t="n">
-        <v>0.310486145061061</v>
+        <v>-0.11404374276202844</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.013971151042628804</v>
+        <v>-0.19196489638853365</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.009108900493245642</v>
+        <v>-0.28234026424533276</v>
       </c>
       <c r="S18" t="n">
-        <v>0.06981925346699924</v>
+        <v>0.0891845932089641</v>
       </c>
       <c r="T18" t="n">
-        <v>0.610571883389154</v>
+        <v>1.1550569722603754</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.34817518526044466</v>
+        <v>0.22224343578879768</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5417707588930138</v>
+        <v>0.828694321514222</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.31508541852398864</v>
+        <v>0.13626784890177213</v>
       </c>
       <c r="X18" t="n">
-        <v>0.08673580047521945</v>
+        <v>0.26913307904463224</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.670190083566883</v>
+        <v>0.19971183200675213</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5098700842385462</v>
+        <v>0.5436516881369169</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.48884662940361956</v>
+        <v>0.36544646676417614</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.49911475982800724</v>
+        <v>0.4598090763499485</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4455192667518606</v>
+        <v>0.6911164327775321</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.23408822638586102</v>
+        <v>0.4169884479260446</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.46785783560136984</v>
+        <v>0.8407325597472077</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.054605585326184425</v>
+        <v>0.29551734441247923</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.1153171168626752</v>
+        <v>0.21901040192123844</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.19251526609604497</v>
+        <v>-0.11201394721136282</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.4727232163552273</v>
+        <v>0.7406801209481308</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.43256331237839696</v>
+        <v>0.9313211489161208</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.07871130836974771</v>
+        <v>0.1513911622904498</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.026526353035636774</v>
+        <v>-0.04911858712478079</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.3725905275985326</v>
+        <v>0.19609902961201264</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.5487445990392441</v>
+        <v>0.34118556333613625</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.4452673240765037</v>
+        <v>0.45407480804440326</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.45802337510629343</v>
+        <v>0.3744584810083964</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.14875709173739082</v>
+        <v>0.21222378873138759</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.27381949213085477</v>
+        <v>0.4629383380367944</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.2229234698451883</v>
+        <v>0.4591576708008649</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6240084625545901</v>
+        <v>0.5790553686690778</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.1224802799908673</v>
+        <v>-0.18847756480119493</v>
       </c>
       <c r="AV18" t="n">
-        <v>-0.043336401674050506</v>
+        <v>0.49952067474972495</v>
       </c>
       <c r="AW18" t="n">
-        <v>-0.03603405727545628</v>
+        <v>0.4692295573070826</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.7026516126135665</v>
+        <v>0.4604019392044396</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.0639122957206748</v>
+        <v>0.2488024600875285</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.2512830315054355</v>
+        <v>-0.44525165386687604</v>
       </c>
       <c r="BA18" t="n">
         <v>0.0</v>
@@ -11999,7 +11999,7 @@
         <v>1.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD18" t="n">
         <v>0.0</v>
@@ -12007,163 +12007,163 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B19" t="n">
         <v>3.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2430387312494626</v>
+        <v>0.025557150248771227</v>
       </c>
       <c r="D19" t="n">
-        <v>2.570980838611452</v>
+        <v>0.3017048660599277</v>
       </c>
       <c r="E19" t="n">
-        <v>0.013703675433150462</v>
+        <v>0.7643388393832697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11953694441187547</v>
+        <v>0.8912076736953188</v>
       </c>
       <c r="G19" t="n">
-        <v>0.20201832565831623</v>
+        <v>0.131538288485428</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1370472173128086</v>
+        <v>1.5528234299579733</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03835327887852739</v>
+        <v>0.12783261993510642</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6184314049540025</v>
+        <v>0.6914582623762574</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.15309328992133686</v>
+        <v>-0.11524393383222886</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1794309352315686</v>
+        <v>-0.6210345596782609</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0879709565300626</v>
+        <v>0.13074194043095488</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1591954099342594</v>
+        <v>0.1778424096047022</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.15682263880445113</v>
+        <v>0.17132731187943406</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2083421616575798</v>
+        <v>0.1023565286467516</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.14002983133936553</v>
+        <v>0.18405815896243283</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0751914418493822</v>
+        <v>0.1241055706759564</v>
       </c>
       <c r="S19" t="n">
-        <v>0.242745356024896</v>
+        <v>0.08607297815560067</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5670296786254418</v>
+        <v>-0.08607297815560244</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.2856245383822582</v>
+        <v>-0.2838053648870904</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3072881993837271</v>
+        <v>-0.10495045830151994</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.10826660464564064</v>
+        <v>-0.2054236826623157</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0751914418493822</v>
+        <v>-0.303562794861973</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07350553829907014</v>
+        <v>-0.046454085479929574</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.4349507483493742</v>
+        <v>-0.06569806978409609</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.46263998006605433</v>
+        <v>0.0474310089403609</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.06571739393304554</v>
+        <v>-0.3410429552236991</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.564863379216666</v>
+        <v>-0.007516485959504493</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.2833663480373634</v>
+        <v>-0.15097361391677389</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.41675823077368435</v>
+        <v>-0.3282976765129124</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.17677546637045616</v>
+        <v>-0.07743555350531572</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.4858633184421226</v>
+        <v>-0.034207538524190895</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.058261035417809026</v>
+        <v>0.07954702103785571</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.3653125667491697</v>
+        <v>-0.01725860901125742</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.3239196088789793</v>
+        <v>0.20006890271937294</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.008208570504312007</v>
+        <v>0.12872061610719676</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.41462393368872696</v>
+        <v>0.22732826857250998</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.002555583740900147</v>
+        <v>-0.05177981486126271</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.10360726503750861</v>
+        <v>0.0514496540807432</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.3315191198897445</v>
+        <v>0.19372651401087104</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.7302873472851115</v>
+        <v>0.39493563839094037</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5546551957665997</v>
+        <v>0.18276062293783468</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.300127202309147</v>
+        <v>-0.1051787786106484</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.1548178002431264</v>
+        <v>-0.01814162936071284</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4246032177986514</v>
+        <v>0.14396034560847326</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.0404635507639437</v>
+        <v>0.14555448917262126</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.05732228793802463</v>
+        <v>-0.2520792341424052</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.11499684396373411</v>
+        <v>-0.031179220238955807</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.5449437268634725</v>
+        <v>0.34430863090463326</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.4343495583414505</v>
+        <v>0.15266307306527693</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-0.152841157962742</v>
+        <v>-0.053053126184575916</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB19" t="n">
         <v>0.0</v>
@@ -12172,335 +12172,335 @@
         <v>1.0</v>
       </c>
       <c r="BD19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" t="n">
         <v>3.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27252718987554164</v>
+        <v>0.3410859499232979</v>
       </c>
       <c r="D20" t="n">
-        <v>2.243525542913429</v>
+        <v>2.9382356603465705</v>
       </c>
       <c r="E20" t="n">
-        <v>0.030094547294688804</v>
+        <v>0.005300115030229515</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1576731532834612</v>
+        <v>0.07645014407240149</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25418622696978216</v>
+        <v>0.26175052923677034</v>
       </c>
       <c r="H20" t="n">
-        <v>2.0925372368310504</v>
+        <v>2.254812135448603</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04235920435428537</v>
+        <v>0.029319281175297484</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6504187507303173</v>
+        <v>0.6184314049540025</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.05692824232339433</v>
+        <v>-0.39455897843353327</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.16840760579288805</v>
+        <v>-0.7422761976737835</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.025270412916125196</v>
+        <v>0.11787925228672691</v>
       </c>
       <c r="N20" t="n">
-        <v>0.24057218435145877</v>
+        <v>-0.06300312343516801</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.018630230709204554</v>
+        <v>0.009108900493247418</v>
       </c>
       <c r="P20" t="n">
-        <v>0.031052451952961135</v>
+        <v>0.310486145061061</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.12054888967035282</v>
+        <v>-0.013971151042628804</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.11108289877872046</v>
+        <v>-0.009108900493245642</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4391663254475322</v>
+        <v>0.06981925346699924</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5972783115224907</v>
+        <v>0.610571883389154</v>
       </c>
       <c r="U20" t="n">
-        <v>0.19050768867981915</v>
+        <v>-0.34817518526044466</v>
       </c>
       <c r="V20" t="n">
-        <v>0.29482491312068504</v>
+        <v>0.5417707588930138</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.01558783302314204</v>
+        <v>-0.31508541852398864</v>
       </c>
       <c r="X20" t="n">
-        <v>0.015587833023140263</v>
+        <v>0.08673580047521945</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.41085935738722945</v>
+        <v>0.670190083566883</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5837246176690307</v>
+        <v>0.5098700842385462</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.03846673590786054</v>
+        <v>0.48884662940361956</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.27019489512365347</v>
+        <v>0.49911475982800724</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5132787570865105</v>
+        <v>0.4455192667518606</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.5991651090789922</v>
+        <v>0.23408822638586102</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.0957306418530415</v>
+        <v>0.46785783560136984</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.39773093758705613</v>
+        <v>0.054605585326184425</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.4179169008432826</v>
+        <v>0.1153171168626752</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.016549465584338563</v>
+        <v>0.19251526609604497</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.3612819217063823</v>
+        <v>0.4727232163552273</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.3637975472592885</v>
+        <v>0.43256331237839696</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.16197176869374275</v>
+        <v>0.07871130836974771</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.2011891347489012</v>
+        <v>-0.026526353035636774</v>
       </c>
       <c r="AM20" t="n">
-        <v>-0.09187050598755775</v>
+        <v>0.3725905275985326</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.22037783411874123</v>
+        <v>0.5487445990392441</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.8363192372976478</v>
+        <v>0.4452673240765037</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.0871754738159147</v>
+        <v>0.45802337510629343</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.32348470612315694</v>
+        <v>0.14875709173739082</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.5006053988301922</v>
+        <v>0.27381949213085477</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.08448016911706624</v>
+        <v>0.2229234698451883</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6440497782530841</v>
+        <v>0.6240084625545901</v>
       </c>
       <c r="AU20" t="n">
-        <v>-0.09429201039609225</v>
+        <v>0.1224802799908673</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.23484968825607488</v>
+        <v>-0.043336401674050506</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.3944261844456882</v>
+        <v>-0.03603405727545628</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.4088606331633091</v>
+        <v>0.7026516126135665</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.6193398830881556</v>
+        <v>-0.0639122957206748</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-0.3166656976641704</v>
+        <v>-0.2512830315054355</v>
       </c>
       <c r="BA20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC20" t="n">
         <v>1.0</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B21" t="n">
         <v>3.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.22328185070048015</v>
+        <v>0.26764696447151</v>
       </c>
       <c r="D21" t="n">
-        <v>1.333449572336759</v>
+        <v>2.2553732709029</v>
       </c>
       <c r="E21" t="n">
-        <v>0.189441168396487</v>
+        <v>0.02928120559114356</v>
       </c>
       <c r="F21" t="n">
-        <v>0.42939998169870386</v>
+        <v>0.1576731532834612</v>
       </c>
       <c r="G21" t="n">
-        <v>0.30653653406259923</v>
+        <v>0.2213027773817412</v>
       </c>
       <c r="H21" t="n">
-        <v>1.830650404271692</v>
+        <v>1.8648459916924771</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07412424112705542</v>
+        <v>0.06907220009575947</v>
       </c>
       <c r="J21" t="n">
         <v>0.6605979243379088</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.3770180972830133</v>
+        <v>-0.16531699859204885</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.844765038982132</v>
+        <v>-0.5137925615315133</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07561784160726681</v>
+        <v>0.12797846128097135</v>
       </c>
       <c r="N21" t="n">
-        <v>0.26495865251002115</v>
+        <v>0.15413156119461746</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.31216280179392797</v>
+        <v>0.10338419549488975</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2697103755502521</v>
+        <v>0.1970956292265189</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.09858123641297745</v>
+        <v>-0.10338419549489153</v>
       </c>
       <c r="R21" t="n">
-        <v>0.12613786678586258</v>
+        <v>-0.5592125236084531</v>
       </c>
       <c r="S21" t="n">
-        <v>0.25167532116116753</v>
+        <v>-0.2096066458581518</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9547627860119565</v>
+        <v>0.5520637922731773</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.2526143730395827</v>
+        <v>-0.3730980549711127</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7704803749989235</v>
+        <v>0.5793013073778202</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.31899422937174293</v>
+        <v>-0.5002292474886509</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.07561784160726681</v>
+        <v>0.1364237269338222</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8139616875205036</v>
+        <v>0.380552330819933</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.32466023093746976</v>
+        <v>0.4725139282808364</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.11014249312641589</v>
+        <v>0.3264020439431494</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.37292185900006203</v>
+        <v>0.14358346767748387</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3391991781107482</v>
+        <v>0.5329896969392696</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.37935756403862086</v>
+        <v>0.12042110424249408</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5233285124951372</v>
+        <v>0.4051518848591549</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.1562895212494535</v>
+        <v>0.09018497670709458</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.1882854986471525</v>
+        <v>0.21116266487047675</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.039543220496280895</v>
+        <v>-0.08071385933055097</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.8198867422417937</v>
+        <v>0.49465583371685184</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.9196797415792162</v>
+        <v>0.16170931459130777</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.2687319854318311</v>
+        <v>-0.08443071010039738</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.028302570809866978</v>
+        <v>-0.0013867283790016671</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.7517600558676865</v>
+        <v>0.4992458205700814</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.6177703393226288</v>
+        <v>0.4490152292875038</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.0419006959204111</v>
+        <v>0.4779610354305035</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.8118063765099333</v>
+        <v>0.20994047539300453</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.18578192976032426</v>
+        <v>-0.07359414123069818</v>
       </c>
       <c r="AR21" t="n">
-        <v>-0.1472694170357869</v>
+        <v>0.15368980640958263</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.4962232267436626</v>
+        <v>0.16922590444931807</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9119174034758686</v>
+        <v>0.6531171615984359</v>
       </c>
       <c r="AU21" t="n">
-        <v>-0.23803404010730134</v>
+        <v>-0.1635043190644918</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.1427378057139208</v>
+        <v>0.1458166641882226</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.032681778082530144</v>
+        <v>0.01053110015362968</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.4199084751214066</v>
+        <v>0.5119894290661584</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.1467834748783332</v>
+        <v>-0.12715278012967168</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.44886702724242156</v>
+        <v>-0.3923040565402065</v>
       </c>
       <c r="BA21" t="n">
         <v>0.0</v>
@@ -12512,341 +12512,341 @@
         <v>1.0</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" t="n">
         <v>3.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4468992553699398</v>
+        <v>0.5492925119307347</v>
       </c>
       <c r="D22" t="n">
-        <v>3.2893076534664507</v>
+        <v>3.432543287771932</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002015159276160081</v>
+        <v>0.001338390193843832</v>
       </c>
       <c r="F22" t="n">
-        <v>0.056424459732482266</v>
+        <v>0.045505266590690284</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2022556503743993</v>
+        <v>0.22402522172863748</v>
       </c>
       <c r="H22" t="n">
-        <v>1.488660029613681</v>
+        <v>1.3999394756599575</v>
       </c>
       <c r="I22" t="n">
-        <v>0.14391208814729808</v>
+        <v>0.16874186726529108</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7139792222239946</v>
+        <v>0.7236137731376446</v>
       </c>
       <c r="K22" t="n">
-        <v>0.32418524039496965</v>
+        <v>0.08241301345245944</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05886691427386559</v>
+        <v>-0.27787141153273964</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1444012090779001</v>
+        <v>-0.024611180059364912</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2768150367825264</v>
+        <v>0.024611180059364912</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.05886691427386559</v>
+        <v>-0.33055768974923794</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.11713636316767406</v>
+        <v>0.23305352865676277</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1986969295722094</v>
+        <v>-0.38943334691589726</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.132022885224659</v>
+        <v>-0.20779286282644271</v>
       </c>
       <c r="S22" t="n">
-        <v>0.12420825223430754</v>
+        <v>0.06598823357871986</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3357092305063798</v>
+        <v>1.171061778835778</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.09930067068161819</v>
+        <v>-0.31440398494657984</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1346255357920949</v>
+        <v>0.7913154664725877</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.4920162878569858</v>
+        <v>-0.39850066545608875</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.36112880780896717</v>
+        <v>0.13429066377889498</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.2839870708236525</v>
+        <v>0.5669789438121313</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.9037213054233533</v>
+        <v>1.0688574971009057</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.6256063163715133</v>
+        <v>0.7037574971934042</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.38115483176199305</v>
+        <v>1.0953259832722004</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.0231229890405587</v>
+        <v>0.839404153068255</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.5484619518760443</v>
+        <v>0.6200783397200116</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.5476776359482542</v>
+        <v>1.1886486813268764</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.7556942029482734</v>
+        <v>0.37537392982390294</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.6361396871902318</v>
+        <v>0.3828272941604869</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.21064243500735635</v>
+        <v>-0.05733544398424684</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.008693229600591934</v>
+        <v>0.7108780050483148</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.7163493068516456</v>
+        <v>0.7686216898710274</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.18253808923707737</v>
+        <v>0.11028706565232227</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.37908855443785683</v>
+        <v>-0.12404574568711801</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.04414366124301061</v>
+        <v>0.4955655875111855</v>
       </c>
       <c r="AN22" t="n">
-        <v>-0.12457657741506267</v>
+        <v>0.5047305290203266</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.37638980074859774</v>
+        <v>0.4890929984581387</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.9301282915885061</v>
+        <v>0.5112587990597941</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.03856268805734331</v>
+        <v>0.14848665566878871</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.714838328044447</v>
+        <v>0.4410559545346988</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.3660844877395988</v>
+        <v>0.48430972623650526</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6592892016887841</v>
+        <v>0.7825331532990507</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.1418176953899053</v>
+        <v>-0.2824857016787412</v>
       </c>
       <c r="AV22" t="n">
-        <v>-0.12828180452805782</v>
+        <v>0.12605612721652015</v>
       </c>
       <c r="AW22" t="n">
-        <v>-0.20550833850960792</v>
+        <v>0.2312969999903114</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.33712352468874407</v>
+        <v>0.541650568064199</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.5105602377741612</v>
+        <v>-0.010035029205864632</v>
       </c>
       <c r="AZ22" t="n">
-        <v>-0.15718055531351638</v>
+        <v>-0.7676005406257698</v>
       </c>
       <c r="BA22" t="n">
         <v>0.0</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC22" t="n">
         <v>1.0</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B23" t="n">
         <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5492925119307347</v>
+        <v>0.25609154691405217</v>
       </c>
       <c r="D23" t="n">
-        <v>3.432543287771932</v>
+        <v>1.9183064076634793</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001338390193843832</v>
+        <v>0.061761871154838846</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045505266590690284</v>
+        <v>0.22713506911938255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.22402522172863748</v>
+        <v>0.2409837696690969</v>
       </c>
       <c r="H23" t="n">
-        <v>1.3999394756599575</v>
+        <v>1.8051384946894657</v>
       </c>
       <c r="I23" t="n">
-        <v>0.16874186726529108</v>
+        <v>0.07809401232751079</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7236137731376446</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08241301345245944</v>
+        <v>-0.07697828543351548</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.27787141153273964</v>
+        <v>-0.8118737793157802</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.024611180059364912</v>
+        <v>0.13619326724922587</v>
       </c>
       <c r="N23" t="n">
-        <v>0.024611180059364912</v>
+        <v>0.16358229957549675</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.33055768974923794</v>
+        <v>-0.026900700265462874</v>
       </c>
       <c r="P23" t="n">
-        <v>0.23305352865676277</v>
+        <v>0.3603862956024848</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.38943334691589726</v>
+        <v>-0.30297184440104985</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.20779286282644271</v>
+        <v>0.30302194725537923</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06598823357871986</v>
+        <v>-0.13699841454343087</v>
       </c>
       <c r="T23" t="n">
-        <v>1.171061778835778</v>
+        <v>0.5114993419612688</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.31440398494657984</v>
+        <v>-0.20901753275554924</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7913154664725877</v>
+        <v>0.48066752692191983</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.39850066545608875</v>
+        <v>-0.31683318393825743</v>
       </c>
       <c r="X23" t="n">
-        <v>0.13429066377889498</v>
+        <v>0.026900700265462874</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5669789438121313</v>
+        <v>0.8971293160979208</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.0688574971009057</v>
+        <v>0.2534372542158412</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.7037574971934042</v>
+        <v>0.1952626923546088</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.0953259832722004</v>
+        <v>0.6271166258750096</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.839404153068255</v>
+        <v>0.23663104786837863</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.6200783397200116</v>
+        <v>-0.18881526667247783</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.1886486813268764</v>
+        <v>0.615892388938093</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.37537392982390294</v>
+        <v>-0.15062697093879507</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.3828272941604869</v>
+        <v>-0.043312224216725426</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.05733544398424684</v>
+        <v>-0.11972428655863077</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.7108780050483148</v>
+        <v>0.59956876363057</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.7686216898710274</v>
+        <v>0.9474542039276752</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.11028706565232227</v>
+        <v>-0.028995875483152744</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.12404574568711801</v>
+        <v>-0.15505837406339396</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.4955655875111855</v>
+        <v>0.6101980756562302</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.5047305290203266</v>
+        <v>0.4384174420838125</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.4890929984581387</v>
+        <v>0.5546688470678394</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.5112587990597941</v>
+        <v>0.2299067797018015</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.14848665566878871</v>
+        <v>0.038543969911678744</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.4410559545346988</v>
+        <v>0.1606648596957463</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.48430972623650526</v>
+        <v>0.4705983779873133</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.7825331532990507</v>
+        <v>0.6456172771374522</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.2824857016787412</v>
+        <v>-0.042167501884204484</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.12605612721652015</v>
+        <v>0.024049144754934915</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.2312969999903114</v>
+        <v>0.0518940555015881</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.541650568064199</v>
+        <v>0.39983581432184856</v>
       </c>
       <c r="AY23" t="n">
-        <v>-0.010035029205864632</v>
+        <v>-0.03357302080253355</v>
       </c>
       <c r="AZ23" t="n">
-        <v>-0.7676005406257698</v>
+        <v>-0.07420370758795869</v>
       </c>
       <c r="BA23" t="n">
         <v>0.0</v>
       </c>
       <c r="BB23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC23" t="n">
         <v>1.0</v>
@@ -12857,160 +12857,160 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B24" t="n">
         <v>3.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3752109254564909</v>
+        <v>-0.02474422212533722</v>
       </c>
       <c r="D24" t="n">
-        <v>3.658707007826087</v>
+        <v>-0.14052428047158613</v>
       </c>
       <c r="E24" t="n">
-        <v>6.906002797229204E-4</v>
+        <v>0.8889053378922902</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03652508146090112</v>
+        <v>0.9484027078756346</v>
       </c>
       <c r="G24" t="n">
-        <v>0.13653814662349362</v>
+        <v>0.26507075159577753</v>
       </c>
       <c r="H24" t="n">
-        <v>1.3313926647503498</v>
+        <v>1.5053565415547112</v>
       </c>
       <c r="I24" t="n">
-        <v>0.19011114690221254</v>
+        <v>0.13958066526194227</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7333276386011531</v>
+        <v>0.7139792222239946</v>
       </c>
       <c r="K24" t="n">
-        <v>0.10426414957129815</v>
+        <v>-0.3207735421039999</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3840257949958943</v>
+        <v>-0.3013559308663041</v>
       </c>
       <c r="M24" t="n">
-        <v>0.010897070458701918</v>
+        <v>0.5027185695518668</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07437775588073059</v>
+        <v>0.3655625621719256</v>
       </c>
       <c r="O24" t="n">
-        <v>0.05263556564027283</v>
+        <v>0.7358874678821525</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.010897070458701918</v>
+        <v>0.6509558013643613</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.08382410811115548</v>
+        <v>0.3013559308663041</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.29449530350208164</v>
+        <v>0.7030409204422323</v>
       </c>
       <c r="S24" t="n">
-        <v>0.056622460669291996</v>
+        <v>0.48720940358395737</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5585309399964089</v>
+        <v>-0.626688576571981</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.2809546318206326</v>
+        <v>-0.41036556322420736</v>
       </c>
       <c r="V24" t="n">
-        <v>0.41700618688795643</v>
+        <v>-0.5021333272505117</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.31504845063525444</v>
+        <v>-0.7341333550091704</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.17922812798228271</v>
+        <v>-0.5869644337813789</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.08049133114848672</v>
+        <v>0.6871789442451988</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6069285364557899</v>
+        <v>-0.26254433014768885</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.35423736514633397</v>
+        <v>-0.15654930104764375</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.6485817948579911</v>
+        <v>-0.529515100643339</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5628726902941033</v>
+        <v>-0.4438876480631304</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.21221717593471112</v>
+        <v>-0.12547945291627016</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.6463218506650641</v>
+        <v>-0.05501654246904231</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.5340234560112975</v>
+        <v>-0.2572803818569227</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.31020802752054166</v>
+        <v>-0.18044690802471663</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.0077677239084792404</v>
+        <v>0.44882441592530853</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.398420708246352</v>
+        <v>-0.011251126003081424</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.21547237638641548</v>
+        <v>0.1285426318953533</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.4718137708804342</v>
+        <v>0.051691981146964494</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.0705432094665106</v>
+        <v>0.6236296352595403</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.29163755351569876</v>
+        <v>0.07969704734532712</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.4081859339976699</v>
+        <v>0.031137145486015427</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.13075267589791828</v>
+        <v>0.6796155379481803</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.08400250978605328</v>
+        <v>0.8796048019771128</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.12326258939592094</v>
+        <v>0.48546963232928775</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.4163694238429674</v>
+        <v>0.18310352288664866</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.0990550648283719</v>
+        <v>-0.48835957366100935</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5086222386033707</v>
+        <v>0.5069899902655415</v>
       </c>
       <c r="AU24" t="n">
-        <v>-0.13227754424704408</v>
+        <v>0.41987706341064523</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.024252788196681863</v>
+        <v>-0.3653891281599151</v>
       </c>
       <c r="AW24" t="n">
-        <v>-0.0904386590955717</v>
+        <v>-0.4518428703587798</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.30104776908492425</v>
+        <v>0.6280598203211252</v>
       </c>
       <c r="AY24" t="n">
-        <v>-0.16765410369478495</v>
+        <v>0.8822631685355837</v>
       </c>
       <c r="AZ24" t="n">
-        <v>-0.3594235457846082</v>
+        <v>0.5050802910703691</v>
       </c>
       <c r="BA24" t="n">
         <v>0.0</v>
@@ -13027,160 +13027,160 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B25" t="n">
         <v>3.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.29441061898877696</v>
+        <v>0.033508438521007516</v>
       </c>
       <c r="D25" t="n">
-        <v>2.2201557521550486</v>
+        <v>0.39183809677188197</v>
       </c>
       <c r="E25" t="n">
-        <v>0.031758005574058626</v>
+        <v>0.6971229963127321</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1576731532834612</v>
+        <v>0.8504928786182735</v>
       </c>
       <c r="G25" t="n">
-        <v>0.18220878420727</v>
+        <v>0.15364637951674853</v>
       </c>
       <c r="H25" t="n">
-        <v>1.374039705973953</v>
+        <v>1.7966968197574744</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1765859729558175</v>
+        <v>0.07944642812907211</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7251655412348408</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.2679420775790309</v>
+        <v>0.02433953214325868</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.23214903987461355</v>
+        <v>-0.21995162817866465</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.004120837321217152</v>
+        <v>0.16272533907741504</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.03964474785122718</v>
+        <v>0.034565590683941494</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004120837321217152</v>
+        <v>0.20545220167373301</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.11404374276202844</v>
+        <v>-0.07215024066937659</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.19196489638853365</v>
+        <v>-0.17183961854558127</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.28234026424533276</v>
+        <v>-0.19066860749826553</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0891845932089641</v>
+        <v>-0.02433953214325868</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1550569722603754</v>
+        <v>0.4622269988866048</v>
       </c>
       <c r="U25" t="n">
-        <v>0.22224343578879768</v>
+        <v>0.2609188374666047</v>
       </c>
       <c r="V25" t="n">
-        <v>0.828694321514222</v>
+        <v>0.09771655624725817</v>
       </c>
       <c r="W25" t="n">
-        <v>0.13626784890177213</v>
+        <v>-0.06119880988508264</v>
       </c>
       <c r="X25" t="n">
-        <v>0.26913307904463224</v>
+        <v>-0.13110151305588325</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.19971183200675213</v>
+        <v>-0.19476259406275176</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.5436516881369169</v>
+        <v>0.08212842197870707</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.36544646676417614</v>
+        <v>-0.022572890053899286</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.4598090763499485</v>
+        <v>-0.07106566092564393</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6911164327775321</v>
+        <v>0.49420373875722134</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.4169884479260446</v>
+        <v>0.38060849391631635</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.8407325597472077</v>
+        <v>0.266995589449893</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.29551734441247923</v>
+        <v>0.3359077785623068</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.21901040192123844</v>
+        <v>-0.0487062416870323</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.11201394721136282</v>
+        <v>-0.09006083114164554</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.7406801209481308</v>
+        <v>-0.07797652526894261</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.9313211489161208</v>
+        <v>0.005745420674800883</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.1513911622904498</v>
+        <v>-0.22801765522311435</v>
       </c>
       <c r="AL25" t="n">
-        <v>-0.04911858712478079</v>
+        <v>0.013386200520596248</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.19609902961201264</v>
+        <v>0.06918193376013093</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.34118556333613625</v>
+        <v>0.2287318661531117</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.45407480804440326</v>
+        <v>0.31083345406038276</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.3744584810083964</v>
+        <v>0.48674030765310405</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.21222378873138759</v>
+        <v>0.19871508042436403</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.4629383380367944</v>
+        <v>0.21442053527689708</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.4591576708008649</v>
+        <v>-0.11471650829803792</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5790553686690778</v>
+        <v>0.4529744233287527</v>
       </c>
       <c r="AU25" t="n">
-        <v>-0.18847756480119493</v>
+        <v>0.23159463024769167</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.49952067474972495</v>
+        <v>0.05098903873974514</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.4692295573070826</v>
+        <v>0.0035057984334692094</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.4604019392044396</v>
+        <v>0.25348993201328973</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.2488024600875285</v>
+        <v>0.23280409931272317</v>
       </c>
       <c r="AZ25" t="n">
-        <v>-0.44525165386687604</v>
+        <v>-0.09152017166844217</v>
       </c>
       <c r="BA25" t="n">
         <v>0.0</v>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B30" t="n">
         <v>4.0</v>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B31" t="n">
         <v>4.0</v>
@@ -14376,10 +14376,10 @@
         <v>1.0</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD32" t="n">
         <v>1.0</v>
@@ -14546,10 +14546,10 @@
         <v>1.0</v>
       </c>
       <c r="BB33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD33" t="n">
         <v>1.0</v>
@@ -14716,10 +14716,10 @@
         <v>0.0</v>
       </c>
       <c r="BB34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD34" t="n">
         <v>1.0</v>
@@ -15056,10 +15056,10 @@
         <v>0.0</v>
       </c>
       <c r="BB36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD36" t="n">
         <v>1.0</v>

--- a/vignettes/analysis.xlsx
+++ b/vignettes/analysis.xlsx
@@ -301,12 +301,6 @@
     <t>STAT5B</t>
   </si>
   <si>
-    <t>CEBPB</t>
-  </si>
-  <si>
-    <t>IRF3</t>
-  </si>
-  <si>
     <t>IKBKB</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
   </si>
   <si>
     <t>TRAF6</t>
+  </si>
+  <si>
+    <t>CEBPB</t>
+  </si>
+  <si>
+    <t>IRF3</t>
   </si>
   <si>
     <t>MAP4K2</t>
@@ -491,10 +491,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="n">
-        <v>0.022987931548094823</v>
+        <v>0.022097435268397726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07471077753130817</v>
+        <v>0.07181666462229261</v>
       </c>
       <c r="D2" t="n">
         <v>0.35248785758361917</v>
@@ -503,7 +503,7 @@
         <v>0.6602542750770662</v>
       </c>
       <c r="F2" t="n">
-        <v>1.705012485722425</v>
+        <v>1.6405060196238792</v>
       </c>
       <c r="G2" t="n">
         <v>9.0</v>
@@ -515,19 +515,19 @@
         <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>0.16007194244604317</v>
+        <v>0.16431095406360424</v>
       </c>
       <c r="K2" t="n">
-        <v>0.36099029775844765</v>
+        <v>0.35374149659863946</v>
       </c>
       <c r="L2" t="n">
-        <v>0.14641623786055022</v>
+        <v>0.1429011493869481</v>
       </c>
       <c r="M2" t="n">
         <v>0.5275884796905466</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3026697553897404</v>
+        <v>1.2872273421604952</v>
       </c>
       <c r="O2" t="n">
         <v>9.0</v>
@@ -544,19 +544,19 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>0.043689320388349516</v>
+        <v>0.03420071257609734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09466019417475728</v>
+        <v>0.07410154391487755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34179338089747546</v>
+        <v>0.3217759180753611</v>
       </c>
       <c r="E3" t="n">
         <v>0.3990305943917146</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4464009545203094</v>
+        <v>1.4255125470119279</v>
       </c>
       <c r="G3" t="n">
         <v>31.0</v>
@@ -568,19 +568,19 @@
         <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>0.021665748746486295</v>
+        <v>0.032461207928365016</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07041368342608045</v>
+        <v>0.10549892576718631</v>
       </c>
       <c r="L3" t="n">
-        <v>0.35248785758361917</v>
+        <v>0.3217759180753611</v>
       </c>
       <c r="M3" t="n">
         <v>0.4602171797884377</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5650575623835248</v>
+        <v>1.5698065772414966</v>
       </c>
       <c r="O3" t="n">
         <v>31.0</v>
@@ -597,19 +597,19 @@
         <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7557522123893805</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8063314711359404</v>
+        <v>0.7958015267175572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05291298484305835</v>
+        <v>0.054680848878544186</v>
       </c>
       <c r="E4" t="n">
         <v>-0.3043453382935105</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7763998236481399</v>
+        <v>-0.7951905579882964</v>
       </c>
       <c r="G4" t="n">
         <v>11.0</v>
@@ -621,19 +621,19 @@
         <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.8227848101265823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8853046594982079</v>
+        <v>0.8913502109704642</v>
       </c>
       <c r="L4" t="n">
-        <v>0.049890735672630714</v>
+        <v>0.04999139140245922</v>
       </c>
       <c r="M4" t="n">
         <v>0.28083561290130765</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7235650685096642</v>
+        <v>0.7206126985057372</v>
       </c>
       <c r="O4" t="n">
         <v>11.0</v>
@@ -650,10 +650,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>8.037525864023564E-4</v>
+        <v>5.381576971394312E-4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.010448783623230633</v>
+        <v>0.006996050062812605</v>
       </c>
       <c r="D5" t="n">
         <v>0.47727081536286214</v>
@@ -662,7 +662,7 @@
         <v>0.6726876326270983</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0099055765263363</v>
+        <v>1.9725501523528446</v>
       </c>
       <c r="G5" t="n">
         <v>15.0</v>
@@ -674,25 +674,25 @@
         <v>30</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006725714249757467</v>
+        <v>0.010773647259804574</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04265591110132323</v>
+        <v>0.046685804792486484</v>
       </c>
       <c r="L5" t="n">
-        <v>0.40701791892395395</v>
+        <v>0.3807304007227924</v>
       </c>
       <c r="M5" t="n">
         <v>0.6102865824712798</v>
       </c>
       <c r="N5" t="n">
-        <v>1.722981507753006</v>
+        <v>1.743568322203492</v>
       </c>
       <c r="O5" t="n">
         <v>15.0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -703,43 +703,43 @@
         <v>21</v>
       </c>
       <c r="B6" t="n">
-        <v>0.011899560671075986</v>
+        <v>0.0056815488234589545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.051564762907995935</v>
+        <v>0.036930067352483206</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3807304007227924</v>
+        <v>0.40701791892395395</v>
       </c>
       <c r="E6" t="n">
         <v>0.5511928206773921</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7518658642109295</v>
+        <v>1.7354493299464953</v>
       </c>
       <c r="G6" t="n">
         <v>19.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0015771169455023818</v>
+        <v>0.0028810768748921624</v>
       </c>
       <c r="K6" t="n">
-        <v>0.020502520291530962</v>
+        <v>0.03745399937359811</v>
       </c>
       <c r="L6" t="n">
-        <v>0.45505986738722953</v>
+        <v>0.4317076958033464</v>
       </c>
       <c r="M6" t="n">
         <v>0.6164976520051508</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8687853065497837</v>
+        <v>1.8906532558063602</v>
       </c>
       <c r="O6" t="n">
         <v>19.0</v>
@@ -756,19 +756,19 @@
         <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>0.037280636741799725</v>
+        <v>0.028262926402433424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09466019417475728</v>
+        <v>0.0734836086463269</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3217759180753611</v>
+        <v>0.35248785758361917</v>
       </c>
       <c r="E7" t="n">
         <v>0.5260237707589465</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6290721465260203</v>
+        <v>1.5701088253851507</v>
       </c>
       <c r="G7" t="n">
         <v>16.0</v>
@@ -780,19 +780,19 @@
         <v>31</v>
       </c>
       <c r="J7" t="n">
-        <v>0.31810490693739424</v>
+        <v>0.31305903398926654</v>
       </c>
       <c r="K7" t="n">
-        <v>0.45948486557623613</v>
+        <v>0.45219638242894056</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09497515259055948</v>
+        <v>0.09923333437711905</v>
       </c>
       <c r="M7" t="n">
         <v>0.3861841904703278</v>
       </c>
       <c r="N7" t="n">
-        <v>1.107753032464952</v>
+        <v>1.1079779561563852</v>
       </c>
       <c r="O7" t="n">
         <v>16.0</v>
@@ -809,19 +809,19 @@
         <v>23</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8063314711359404</v>
+        <v>0.7958015267175572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8063314711359404</v>
+        <v>0.7958015267175572</v>
       </c>
       <c r="D8" t="n">
-        <v>0.052269331749930564</v>
+        <v>0.0540088272801684</v>
       </c>
       <c r="E8" t="n">
         <v>-0.34603253199469186</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7177646833715748</v>
+        <v>-0.7306075921882685</v>
       </c>
       <c r="G8" t="n">
         <v>6.0</v>
@@ -833,19 +833,19 @@
         <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9458874458874459</v>
+        <v>0.9544419134396356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9458874458874459</v>
+        <v>0.9544419134396356</v>
       </c>
       <c r="L8" t="n">
-        <v>0.051845762486506596</v>
+        <v>0.053787280776029955</v>
       </c>
       <c r="M8" t="n">
         <v>-0.26117864739750407</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.58157222463147</v>
+        <v>-0.579662461401534</v>
       </c>
       <c r="O8" t="n">
         <v>6.0</v>
@@ -862,19 +862,19 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7239709443099274</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8063314711359404</v>
+        <v>0.7958015267175572</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06994587365016587</v>
+        <v>0.06435833679173605</v>
       </c>
       <c r="E9" t="n">
         <v>0.27036977261525363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8078306889355245</v>
+        <v>0.7928166214101712</v>
       </c>
       <c r="G9" t="n">
         <v>15.0</v>
@@ -886,19 +886,19 @@
         <v>31</v>
       </c>
       <c r="J9" t="n">
-        <v>0.19437939110070257</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="K9" t="n">
-        <v>0.36099029775844765</v>
+        <v>0.35374149659863946</v>
       </c>
       <c r="L9" t="n">
-        <v>0.15214492236756472</v>
+        <v>0.1723243449009459</v>
       </c>
       <c r="M9" t="n">
         <v>-0.40920221860588224</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.218916858583309</v>
+        <v>-1.27211862119843</v>
       </c>
       <c r="O9" t="n">
         <v>15.0</v>
@@ -915,19 +915,19 @@
         <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2920517560073937</v>
+        <v>0.27915869980879543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3796672828096118</v>
+        <v>0.36290630975143406</v>
       </c>
       <c r="D10" t="n">
-        <v>0.10552093684319848</v>
+        <v>0.11056471633661853</v>
       </c>
       <c r="E10" t="n">
         <v>-0.5943546062703156</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.1737765808662082</v>
+        <v>-1.1752416802244767</v>
       </c>
       <c r="G10" t="n">
         <v>5.0</v>
@@ -939,19 +939,19 @@
         <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7383966244725738</v>
+        <v>0.7225950782997763</v>
       </c>
       <c r="K10" t="n">
-        <v>0.87265055619486</v>
+        <v>0.8539760016270084</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06224904294985801</v>
+        <v>0.06613262047584399</v>
       </c>
       <c r="M10" t="n">
         <v>-0.37122697366124924</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.7735047626417989</v>
+        <v>-0.7817129223215722</v>
       </c>
       <c r="O10" t="n">
         <v>5.0</v>
@@ -968,19 +968,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.24183006535947713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.32098765432098764</v>
+        <v>0.3493100944081336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1455161460903603</v>
+        <v>0.12944288774504625</v>
       </c>
       <c r="E11" t="n">
         <v>0.3420201343692896</v>
       </c>
       <c r="F11" t="n">
-        <v>1.195770899082234</v>
+        <v>1.1775014011946812</v>
       </c>
       <c r="G11" t="n">
         <v>26.0</v>
@@ -992,19 +992,19 @@
         <v>31</v>
       </c>
       <c r="J11" t="n">
-        <v>0.49185667752442996</v>
+        <v>0.4826446280991736</v>
       </c>
       <c r="K11" t="n">
-        <v>0.639413680781759</v>
+        <v>0.6274380165289257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06944814420031753</v>
+        <v>0.07113273993278939</v>
       </c>
       <c r="M11" t="n">
         <v>0.30061249593903383</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9833761624989373</v>
+        <v>0.9805102465298532</v>
       </c>
       <c r="O11" t="n">
         <v>26.0</v>
@@ -1021,19 +1021,19 @@
         <v>27</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1990632318501171</v>
+        <v>0.21266968325791855</v>
       </c>
       <c r="C12" t="n">
-        <v>0.32098765432098764</v>
+        <v>0.34558823529411764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.15016980212840597</v>
+        <v>0.14205664357582118</v>
       </c>
       <c r="E12" t="n">
         <v>0.4025051857473026</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2465406002226005</v>
+        <v>1.2014227864518625</v>
       </c>
       <c r="G12" t="n">
         <v>16.0</v>
@@ -1045,25 +1045,25 @@
         <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>0.009843671792613055</v>
+        <v>0.006658366870013789</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04265591110132323</v>
+        <v>0.043279384655089626</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3807304007227924</v>
+        <v>0.40701791892395395</v>
       </c>
       <c r="M12" t="n">
         <v>0.6112871884706734</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7534514706846653</v>
+        <v>1.7538075002020548</v>
       </c>
       <c r="O12" t="n">
         <v>16.0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q12" t="s">
         <v>30</v>
@@ -1074,19 +1074,19 @@
         <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1309255079006772</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24314737181554338</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1847064712077387</v>
+        <v>0.16440575583821013</v>
       </c>
       <c r="E13" t="n">
         <v>0.5441579167421151</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3620608386412418</v>
+        <v>1.2990503412396512</v>
       </c>
       <c r="G13" t="n">
         <v>8.0</v>
@@ -1098,19 +1098,19 @@
         <v>31</v>
       </c>
       <c r="J13" t="n">
-        <v>0.17939609236234458</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="K13" t="n">
-        <v>0.36099029775844765</v>
+        <v>0.35374149659863946</v>
       </c>
       <c r="L13" t="n">
-        <v>0.13649043778041264</v>
+        <v>0.13145761164276346</v>
       </c>
       <c r="M13" t="n">
         <v>0.5340923271953777</v>
       </c>
       <c r="N13" t="n">
-        <v>1.2791699920175172</v>
+        <v>1.2620972277055893</v>
       </c>
       <c r="O13" t="n">
         <v>8.0</v>
@@ -1127,43 +1127,43 @@
         <v>29</v>
       </c>
       <c r="B14" t="n">
-        <v>0.011882894801299703</v>
+        <v>0.01580596088270657</v>
       </c>
       <c r="C14" t="n">
-        <v>0.051564762907995935</v>
+        <v>0.06849249715839513</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3807304007227924</v>
+        <v>0.35248785758361917</v>
       </c>
       <c r="E14" t="n">
         <v>0.7747080949897063</v>
       </c>
       <c r="F14" t="n">
-        <v>1.733062835273708</v>
+        <v>1.7189081690594918</v>
       </c>
       <c r="G14" t="n">
         <v>6.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2532347504621072</v>
+        <v>0.27708703374777977</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4115064695009242</v>
+        <v>0.4502664298401421</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1147507192270233</v>
+        <v>0.1063232559327084</v>
       </c>
       <c r="M14" t="n">
         <v>0.539502364354025</v>
       </c>
       <c r="N14" t="n">
-        <v>1.190329681160411</v>
+        <v>1.1766209333111024</v>
       </c>
       <c r="O14" t="n">
         <v>6.0</v>
@@ -1352,10 +1352,10 @@
         <v>22</v>
       </c>
       <c r="BC1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD1" t="s">
         <v>29</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>21</v>
       </c>
       <c r="BE1" t="s">
         <v>17</v>
@@ -1880,10 +1880,10 @@
         <v>1.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE4" t="n">
         <v>1.0</v>
@@ -2056,10 +2056,10 @@
         <v>1.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE5" t="n">
         <v>1.0</v>
@@ -3112,10 +3112,10 @@
         <v>1.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE11" t="n">
         <v>0.0</v>
@@ -3288,10 +3288,10 @@
         <v>1.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE12" t="n">
         <v>0.0</v>
@@ -3308,154 +3308,154 @@
         <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25659173144764397</v>
+        <v>0.4208591423258504</v>
       </c>
       <c r="D13" t="n">
-        <v>1.7302863292610773</v>
+        <v>4.910401795475521</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09078795471345771</v>
+        <v>1.3708438761814209E-5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2735130787569992</v>
+        <v>0.006525216850623563</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06443142845872565</v>
+        <v>0.1114939333697064</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4344832906653659</v>
+        <v>1.3008628197491976</v>
       </c>
       <c r="I13" t="n">
-        <v>0.666121213131337</v>
+        <v>0.20026885475256773</v>
       </c>
       <c r="J13" t="n">
-        <v>0.951789531269048</v>
+        <v>0.7333276386011531</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4293717587408086</v>
+        <v>0.04645253320586917</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5086741480998214</v>
+        <v>-0.034237795529856285</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.23229853136936107</v>
+        <v>0.22212723939527557</v>
       </c>
       <c r="N13" t="n">
-        <v>0.23591663553792763</v>
+        <v>0.10774153193326175</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.1806290888661941</v>
+        <v>0.03423779552985717</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.10913447604087523</v>
+        <v>0.08837216839038042</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.3456513984438061</v>
+        <v>0.04201156931786354</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.13909051028982233</v>
+        <v>0.19206131804516424</v>
       </c>
       <c r="S13" t="n">
-        <v>0.30717477323584674</v>
+        <v>-0.17909940172105188</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5881424098151768</v>
+        <v>-0.07156404614818612</v>
       </c>
       <c r="U13" t="n">
-        <v>0.10913447604087345</v>
+        <v>-0.2816767703764276</v>
       </c>
       <c r="V13" t="n">
-        <v>0.22961953197427754</v>
+        <v>-0.17209862211911453</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.14412507864015467</v>
+        <v>-0.3527551521804311</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.4492452178803923</v>
+        <v>-0.5367884685613058</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.3304978811970738</v>
+        <v>0.4754113257159567</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.41602797664805635</v>
+        <v>0.5615166105790763</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.23194929230792738</v>
+        <v>0.2922358345247087</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3592669805259998</v>
+        <v>0.397042505390937</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.942142252739778</v>
+        <v>0.5828354275223244</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.5581378284116241</v>
+        <v>0.4307168703138178</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.9113829763612067</v>
+        <v>0.2460714715631518</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.7938293247351869</v>
+        <v>0.43334485645486787</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.49479745354952165</v>
+        <v>0.2992912303914057</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.48833620820699686</v>
+        <v>0.12511401166033664</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.11836239387570124</v>
+        <v>0.2326110551414935</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.781323393060438</v>
+        <v>0.46059968256899175</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.5881680125285094</v>
+        <v>0.4693416001453947</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.199925901898256</v>
+        <v>-0.0093205902292679</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.31047204812104745</v>
+        <v>0.41784135800293676</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.10999278492874787</v>
+        <v>0.15107574838629745</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.24555781437108593</v>
+        <v>0.3174989126475527</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.8527711144297552</v>
+        <v>0.2730623179512186</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.12030540819799107</v>
+        <v>0.04470676232406667</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.1722021004831582</v>
+        <v>-0.18099528447720736</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.112487599094516</v>
+        <v>0.08285676694664623</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.3214658580161185</v>
+        <v>0.156357578990729</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.24779645082642965</v>
+        <v>-0.13365430495233355</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.2698880977063851</v>
+        <v>-0.2892121837041923</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.4217061086461964</v>
+        <v>-0.12863361019186303</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.2558174718771635</v>
+        <v>0.14930753794099516</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.09810994260875994</v>
+        <v>-0.0010818553714413426</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.25153998482263695</v>
+        <v>-0.19343077813621612</v>
       </c>
       <c r="BA13" t="n">
         <v>0.0</v>
@@ -3473,7 +3473,7 @@
         <v>0.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -3484,154 +3484,154 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.17333206521621367</v>
+        <v>0.22948147297559793</v>
       </c>
       <c r="D14" t="n">
-        <v>1.5121111464409667</v>
+        <v>2.1051425799306815</v>
       </c>
       <c r="E14" t="n">
-        <v>0.13785816103603005</v>
+        <v>0.041189082026772635</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3605521134788478</v>
+        <v>0.181537065229109</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08202958378627985</v>
+        <v>0.09263891924688106</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7156082045547819</v>
+        <v>0.8498208196794466</v>
       </c>
       <c r="I14" t="n">
-        <v>0.47812106920761777</v>
+        <v>0.40015568498704723</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9262665655274255</v>
+        <v>0.900800194791533</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.19743674637713493</v>
+        <v>-0.011348211359338833</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.8192584781184262</v>
+        <v>-0.05099700047285083</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.12226250239703074</v>
+        <v>-0.034949040997208414</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.11904797741926387</v>
+        <v>0.04206243863690773</v>
       </c>
       <c r="O14" t="n">
-        <v>0.28498425154294527</v>
+        <v>6.603094973751666E-4</v>
       </c>
       <c r="P14" t="n">
-        <v>0.14694445671573497</v>
+        <v>-0.01152472460218057</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.3826443373893813</v>
+        <v>-0.2711475669327408</v>
       </c>
       <c r="R14" t="n">
-        <v>0.012625762266211815</v>
+        <v>0.21225060647677196</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2630910169694234</v>
+        <v>-6.60309497376943E-4</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2499538444813023</v>
+        <v>0.6657824487347366</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.003843926456037927</v>
+        <v>0.08742996789706936</v>
       </c>
       <c r="V14" t="n">
-        <v>0.14737306266856276</v>
+        <v>0.4841433389073835</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.19943221340138617</v>
+        <v>-0.11390308447571051</v>
       </c>
       <c r="X14" t="n">
-        <v>0.003843926456037039</v>
+        <v>0.14327026787544916</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.47517532936193874</v>
+        <v>0.7879601892119439</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.34548879838893587</v>
+        <v>0.32806619617170263</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.025255250129793794</v>
+        <v>0.344167839814677</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.22133192021138814</v>
+        <v>0.7662027996911593</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.1368857473258549</v>
+        <v>0.5084665860494972</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.2910239477593475</v>
+        <v>0.1400067191186949</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.41395122821162467</v>
+        <v>0.5399261475573915</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.25101661375777606</v>
+        <v>0.2269394104443485</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.21051474592157504</v>
+        <v>0.26779001233702715</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.06529872096724354</v>
+        <v>-0.3629068186933644</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.2532930986917128</v>
+        <v>0.2901961116190197</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.6233418960351749</v>
+        <v>0.22906147126420073</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.6127156628561901</v>
+        <v>0.13095466848574056</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.16483415406764923</v>
+        <v>0.15697872827461268</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.2711697368196049</v>
+        <v>0.5549585275876243</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.031941786017971374</v>
+        <v>0.15929466321548524</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.2673127739789898</v>
+        <v>0.4804309478623239</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.28431841650664147</v>
+        <v>0.39323321800631916</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.28294881241579084</v>
+        <v>0.005750504421937919</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.37425975631751207</v>
+        <v>0.28363166865193</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.16556854829125367</v>
+        <v>0.29048254401098994</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.09511026671375156</v>
+        <v>0.4143082696289824</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.2678713766235514</v>
+        <v>0.0223968028433017</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.24251302202602787</v>
+        <v>0.14173957639406787</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.05330292779361745</v>
+        <v>0.23807577746925546</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.23469186858864433</v>
+        <v>0.11130397057490882</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.20287761234572077</v>
+        <v>-0.05171593297455246</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.15355132978567898</v>
+        <v>-0.6058762285479524</v>
       </c>
       <c r="BA14" t="n">
         <v>0.0</v>
@@ -3649,171 +3649,171 @@
         <v>0.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B15" t="n">
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3752109254564909</v>
+        <v>0.5937187207757599</v>
       </c>
       <c r="D15" t="n">
-        <v>3.658707007826087</v>
+        <v>2.976268735582548</v>
       </c>
       <c r="E15" t="n">
-        <v>6.906002797229204E-4</v>
+        <v>0.004785555782273633</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03652508146090112</v>
+        <v>0.07118514226132029</v>
       </c>
       <c r="G15" t="n">
-        <v>0.13653814662349362</v>
+        <v>0.2519205489225485</v>
       </c>
       <c r="H15" t="n">
-        <v>1.3313926647503498</v>
+        <v>1.262859376624169</v>
       </c>
       <c r="I15" t="n">
-        <v>0.19011114690221254</v>
+        <v>0.2134797244520755</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7333276386011531</v>
+        <v>0.7475853732188708</v>
       </c>
       <c r="K15" t="n">
-        <v>0.10426414957129815</v>
+        <v>0.33213115914226243</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.3840257949958943</v>
+        <v>0.8703492172509932</v>
       </c>
       <c r="M15" t="n">
-        <v>0.010897070458701918</v>
+        <v>-0.23669168974504817</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07437775588073059</v>
+        <v>0.37092279174412646</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05263556564027283</v>
+        <v>-0.8744383191874725</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.010897070458701918</v>
+        <v>0.1560438959630801</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08382410811115548</v>
+        <v>-0.24607383954726814</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.29449530350208164</v>
+        <v>-0.5881858707622865</v>
       </c>
       <c r="S15" t="n">
-        <v>0.056622460669291996</v>
+        <v>0.3904602064719942</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5585309399964089</v>
+        <v>0.9253894893522112</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.2809546318206326</v>
+        <v>-0.1560438959630801</v>
       </c>
       <c r="V15" t="n">
-        <v>0.41700618688795643</v>
+        <v>0.37849856395271964</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.31504845063525444</v>
+        <v>-0.6575324080120604</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.17922812798228271</v>
+        <v>-0.6150604078421376</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.08049133114848672</v>
+        <v>0.5684241098879497</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6069285364557899</v>
+        <v>0.6747521054100591</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.35423736514633397</v>
+        <v>0.23741401548765495</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.6485817948579911</v>
+        <v>1.252059988170327</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5628726902941033</v>
+        <v>0.28799863434889605</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.21221717593471112</v>
+        <v>1.2296326648007838</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.6463218506650641</v>
+        <v>2.072507086162659</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5340234560112975</v>
+        <v>0.5202433192061875</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.31020802752054166</v>
+        <v>0.35948301730208954</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0077677239084792404</v>
+        <v>0.012389853296788544</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.398420708246352</v>
+        <v>0.8375200749167142</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.21547237638641548</v>
+        <v>0.263475265125221</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.4718137708804342</v>
+        <v>0.0027528808870487254</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.0705432094665106</v>
+        <v>0.04317796867631252</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.29163755351569876</v>
+        <v>0.10910271266388438</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.4081859339976699</v>
+        <v>0.5778323143874733</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.13075267589791828</v>
+        <v>-0.058590560241770895</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.08400250978605328</v>
+        <v>0.8022026799728863</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.12326258939592094</v>
+        <v>0.4917634679888909</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.4163694238429674</v>
+        <v>0.6307224562146807</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0990550648283719</v>
+        <v>0.09281073484059199</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5086222386033707</v>
+        <v>0.5446258570491906</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.13227754424704408</v>
+        <v>-0.5749138549231088</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.024252788196681863</v>
+        <v>0.2831111769140646</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.0904386590955717</v>
+        <v>-0.08079109808783347</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.30104776908492425</v>
+        <v>0.626650377224939</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.16765410369478495</v>
+        <v>0.6679113360363331</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0.3594235457846082</v>
+        <v>-0.5357810223065087</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC15" t="n">
         <v>1.0</v>
@@ -3830,166 +3830,166 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B16" t="n">
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.29441061898877696</v>
+        <v>0.43444916863043836</v>
       </c>
       <c r="D16" t="n">
-        <v>2.2201557521550486</v>
+        <v>2.222360831166304</v>
       </c>
       <c r="E16" t="n">
-        <v>0.031758005574058626</v>
+        <v>0.03159763231710844</v>
       </c>
       <c r="F16" t="n">
         <v>0.1576731532834612</v>
       </c>
       <c r="G16" t="n">
-        <v>0.18220878420727</v>
+        <v>0.052798969266856406</v>
       </c>
       <c r="H16" t="n">
-        <v>1.374039705973953</v>
+        <v>0.2700853625626992</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1765859729558175</v>
+        <v>0.7883932260348766</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7251655412348408</v>
+        <v>0.951789531269048</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2679420775790309</v>
+        <v>-0.05253958147590865</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.23214903987461355</v>
+        <v>-0.02710273089703019</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.004120837321217152</v>
+        <v>0.0737437626523052</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.03964474785122718</v>
+        <v>-0.44771346271888834</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004120837321217152</v>
+        <v>-0.3845725150673829</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.11404374276202844</v>
+        <v>-0.09347869767064498</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.19196489638853365</v>
+        <v>-0.7877195681151719</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.28234026424533276</v>
+        <v>-0.5093568057171458</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0891845932089641</v>
+        <v>0.16511601614644444</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1550569722603754</v>
+        <v>1.0800739957925432</v>
       </c>
       <c r="U16" t="n">
-        <v>0.22224343578879768</v>
+        <v>0.6968983890195863</v>
       </c>
       <c r="V16" t="n">
-        <v>0.828694321514222</v>
+        <v>0.5096879298109869</v>
       </c>
       <c r="W16" t="n">
-        <v>0.13626784890177213</v>
+        <v>0.02710273089703019</v>
       </c>
       <c r="X16" t="n">
-        <v>0.26913307904463224</v>
+        <v>0.07711642428120236</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.19971183200675213</v>
+        <v>0.1493564380452126</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.5436516881369169</v>
+        <v>0.46032284916098565</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.36544646676417614</v>
+        <v>-0.07108791638344503</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.4598090763499485</v>
+        <v>0.6605476931855216</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.6911164327775321</v>
+        <v>1.0993493348859324</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.4169884479260446</v>
+        <v>0.2092830869043265</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.8407325597472077</v>
+        <v>1.1992302327003097</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.29551734441247923</v>
+        <v>0.7490543714118258</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.21901040192123844</v>
+        <v>0.5679025787081224</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.11201394721136282</v>
+        <v>-0.230535081868668</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.7406801209481308</v>
+        <v>0.09151151033362659</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.9313211489161208</v>
+        <v>1.1372298935552632</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.1513911622904498</v>
+        <v>0.02092243093751467</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.04911858712478079</v>
+        <v>0.3664568261875374</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.19609902961201264</v>
+        <v>-0.12500962048437803</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.34118556333613625</v>
+        <v>0.25118101731159825</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.45407480804440326</v>
+        <v>0.19645296611884877</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.3744584810083964</v>
+        <v>1.3322755520415903</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.21222378873138759</v>
+        <v>-0.6547683428336422</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.4629383380367944</v>
+        <v>0.5222086910937032</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.4591576708008649</v>
+        <v>0.2858574446880757</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5790553686690778</v>
+        <v>-0.09611802681113168</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0.18847756480119493</v>
+        <v>-0.5035904384429717</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.49952067474972495</v>
+        <v>0.5902135265440211</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.4692295573070826</v>
+        <v>0.381959645721099</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.4604019392044396</v>
+        <v>-0.702101929574992</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.2488024600875285</v>
+        <v>0.46148342139064535</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.44525165386687604</v>
+        <v>-0.8736024500885504</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC16" t="n">
         <v>1.0</v>
@@ -4006,160 +4006,160 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4208591423258504</v>
+        <v>0.16260372511058546</v>
       </c>
       <c r="D17" t="n">
-        <v>4.910401795475521</v>
+        <v>1.16693490649591</v>
       </c>
       <c r="E17" t="n">
-        <v>1.3708438761814209E-5</v>
+        <v>0.24970019056160184</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006525216850623563</v>
+        <v>0.5057757051375424</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1114939333697064</v>
+        <v>-0.007555567190926239</v>
       </c>
       <c r="H17" t="n">
-        <v>1.3008628197491976</v>
+        <v>-0.05422295883732559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.20026885475256773</v>
+        <v>0.9570099574530703</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7333276386011531</v>
+        <v>0.9924547706920728</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04645253320586917</v>
+        <v>-0.2403016201894932</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.034237795529856285</v>
+        <v>0.009909987213329252</v>
       </c>
       <c r="M17" t="n">
-        <v>0.22212723939527557</v>
+        <v>-0.021487233531319205</v>
       </c>
       <c r="N17" t="n">
-        <v>0.10774153193326175</v>
+        <v>-0.5666599985167853</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03423779552985717</v>
+        <v>0.2061487850558441</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08837216839038042</v>
+        <v>0.2397529275456085</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04201156931786354</v>
+        <v>-0.5436504078847362</v>
       </c>
       <c r="R17" t="n">
-        <v>0.19206131804516424</v>
+        <v>0.6884291062476553</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.17909940172105188</v>
+        <v>-0.00990998721333014</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.07156404614818612</v>
+        <v>0.520902378494676</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.2816767703764276</v>
+        <v>0.22350320764770348</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.17209862211911453</v>
+        <v>0.05205461736244743</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.3527551521804311</v>
+        <v>-0.1371218337745903</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.5367884685613058</v>
+        <v>-0.20238494662362605</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.4754113257159567</v>
+        <v>0.01637131543797299</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5615166105790763</v>
+        <v>0.21507864118225495</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.2922358345247087</v>
+        <v>0.2223424209359104</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.397042505390937</v>
+        <v>0.30521707038655244</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5828354275223244</v>
+        <v>0.056390709164801045</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.4307168703138178</v>
+        <v>0.24041173371544922</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.2460714715631518</v>
+        <v>0.7017778265323775</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.43334485645486787</v>
+        <v>0.26194130130393134</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.2992912303914057</v>
+        <v>0.16002527137881462</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.12511401166033664</v>
+        <v>0.11115855035277722</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.2326110551414935</v>
+        <v>0.5922040307384036</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.46059968256899175</v>
+        <v>0.2549035079846327</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.4693416001453947</v>
+        <v>-0.5511990515436294</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.0093205902292679</v>
+        <v>-0.09098619418868648</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.41784135800293676</v>
+        <v>0.4604802811596578</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.15107574838629745</v>
+        <v>0.3572240269061986</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.3174989126475527</v>
+        <v>-0.0012748476972772593</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.2730623179512186</v>
+        <v>-0.5011499755872144</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.04470676232406667</v>
+        <v>-0.14980811292087637</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.18099528447720736</v>
+        <v>0.3070831151946978</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.08285676694664623</v>
+        <v>-0.2015144205202164</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.156357578990729</v>
+        <v>0.16531290232716422</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0.13365430495233355</v>
+        <v>0.04968336619932323</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0.2892121837041923</v>
+        <v>0.5305469475453073</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0.12863361019186303</v>
+        <v>-0.009308506788307191</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.14930753794099516</v>
+        <v>0.4684703485419002</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.0010818553714413426</v>
+        <v>-1.006751272903661</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.19343077813621612</v>
+        <v>-0.3555868102962796</v>
       </c>
       <c r="BA17" t="n">
         <v>0.0</v>
@@ -4168,174 +4168,174 @@
         <v>0.0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE17" t="n">
         <v>0.0</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.22948147297559793</v>
+        <v>0.24945615707731433</v>
       </c>
       <c r="D18" t="n">
-        <v>2.1051425799306815</v>
+        <v>1.366661722028969</v>
       </c>
       <c r="E18" t="n">
-        <v>0.041189082026772635</v>
+        <v>0.17887123635650706</v>
       </c>
       <c r="F18" t="n">
-        <v>0.181537065229109</v>
+        <v>0.41500987677462026</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09263891924688106</v>
+        <v>0.03184511176249427</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8498208196794466</v>
+        <v>0.17446550844622663</v>
       </c>
       <c r="I18" t="n">
-        <v>0.40015568498704723</v>
+        <v>0.8623226658649237</v>
       </c>
       <c r="J18" t="n">
-        <v>0.900800194791533</v>
+        <v>0.9620104838169957</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.011348211359338833</v>
+        <v>-0.0027005659659655734</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.05099700047285083</v>
+        <v>-0.7479349755727691</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.034949040997208414</v>
+        <v>-0.6516803401348437</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04206243863690773</v>
+        <v>0.0027005659659655734</v>
       </c>
       <c r="O18" t="n">
-        <v>6.603094973751666E-4</v>
+        <v>-0.7616887601039632</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01152472460218057</v>
+        <v>-0.7281206577226946</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.2711475669327408</v>
+        <v>-0.6536094657657374</v>
       </c>
       <c r="R18" t="n">
-        <v>0.21225060647677196</v>
+        <v>0.1482002792610384</v>
       </c>
       <c r="S18" t="n">
-        <v>-6.60309497376943E-4</v>
+        <v>0.2091880068216403</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6657824487347366</v>
+        <v>0.9114425772005994</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08742996789706936</v>
+        <v>0.13164655006863324</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4841433389073835</v>
+        <v>0.355533179359508</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.11390308447571051</v>
+        <v>-0.29404533672852295</v>
       </c>
       <c r="X18" t="n">
-        <v>0.14327026787544916</v>
+        <v>0.029340248922945733</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.7879601892119439</v>
+        <v>0.15887280611090482</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.32806619617170263</v>
+        <v>0.7315659852872267</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.344167839814677</v>
+        <v>0.22592979032295002</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.7662027996911593</v>
+        <v>-0.27365398716579126</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.5084665860494972</v>
+        <v>0.4521013328525587</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.1400067191186949</v>
+        <v>-0.25179342189073317</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.5399261475573915</v>
+        <v>0.44848193803193936</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.2269394104443485</v>
+        <v>0.3145278391550548</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.26779001233702715</v>
+        <v>0.22426790765644178</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.3629068186933644</v>
+        <v>-0.7162942052476335</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.2901961116190197</v>
+        <v>-0.18190081057316743</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.22906147126420073</v>
+        <v>0.8514448483001456</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.13095466848574056</v>
+        <v>0.06952960488304871</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.15697872827461268</v>
+        <v>-0.6124221230347198</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.5549585275876243</v>
+        <v>-0.8076396190672703</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.15929466321548524</v>
+        <v>-0.6263443217603859</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.4804309478623239</v>
+        <v>0.24489281337269997</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.39323321800631916</v>
+        <v>0.5070713118268744</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.005750504421937919</v>
+        <v>-0.3305438247109693</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.28363166865193</v>
+        <v>-0.13704750818915734</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.29048254401098994</v>
+        <v>0.5222018286735608</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.4143082696289824</v>
+        <v>-0.17317262214064666</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.0223968028433017</v>
+        <v>-0.710662965645037</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.14173957639406787</v>
+        <v>0.23589941786736013</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.23807577746925546</v>
+        <v>0.6911220817220416</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.11130397057490882</v>
+        <v>-0.2503861082508543</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.05171593297455246</v>
+        <v>-0.0857993955644023</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.6058762285479524</v>
+        <v>-0.6854882178530595</v>
       </c>
       <c r="BA18" t="n">
         <v>0.0</v>
@@ -4344,368 +4344,368 @@
         <v>0.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE18" t="n">
         <v>0.0</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5937187207757599</v>
+        <v>0.2430387312494626</v>
       </c>
       <c r="D19" t="n">
-        <v>2.976268735582548</v>
+        <v>2.570980838611452</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004785555782273633</v>
+        <v>0.013703675433150462</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07118514226132029</v>
+        <v>0.11953694441187547</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2519205489225485</v>
+        <v>0.20201832565831623</v>
       </c>
       <c r="H19" t="n">
-        <v>1.262859376624169</v>
+        <v>2.1370472173128086</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2134797244520755</v>
+        <v>0.03835327887852739</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7475853732188708</v>
+        <v>0.6184314049540025</v>
       </c>
       <c r="K19" t="n">
-        <v>0.33213115914226243</v>
+        <v>-0.15309328992133686</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8703492172509932</v>
+        <v>0.1794309352315686</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.23669168974504817</v>
+        <v>-0.0879709565300626</v>
       </c>
       <c r="N19" t="n">
-        <v>0.37092279174412646</v>
+        <v>0.1591954099342594</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.8744383191874725</v>
+        <v>-0.15682263880445113</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1560438959630801</v>
+        <v>0.2083421616575798</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.24607383954726814</v>
+        <v>-0.14002983133936553</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.5881858707622865</v>
+        <v>-0.0751914418493822</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3904602064719942</v>
+        <v>0.242745356024896</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9253894893522112</v>
+        <v>0.5670296786254418</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.1560438959630801</v>
+        <v>-0.2856245383822582</v>
       </c>
       <c r="V19" t="n">
-        <v>0.37849856395271964</v>
+        <v>0.3072881993837271</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.6575324080120604</v>
+        <v>-0.10826660464564064</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.6150604078421376</v>
+        <v>0.0751914418493822</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5684241098879497</v>
+        <v>0.07350553829907014</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.6747521054100591</v>
+        <v>0.4349507483493742</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.23741401548765495</v>
+        <v>0.46263998006605433</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.252059988170327</v>
+        <v>0.06571739393304554</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.28799863434889605</v>
+        <v>0.564863379216666</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.2296326648007838</v>
+        <v>0.2833663480373634</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.072507086162659</v>
+        <v>0.41675823077368435</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.5202433192061875</v>
+        <v>0.17677546637045616</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.35948301730208954</v>
+        <v>0.4858633184421226</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.012389853296788544</v>
+        <v>0.058261035417809026</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.8375200749167142</v>
+        <v>0.3653125667491697</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.263475265125221</v>
+        <v>0.3239196088789793</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.0027528808870487254</v>
+        <v>0.008208570504312007</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.04317796867631252</v>
+        <v>0.41462393368872696</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.10910271266388438</v>
+        <v>0.002555583740900147</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.5778323143874733</v>
+        <v>0.10360726503750861</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.058590560241770895</v>
+        <v>0.3315191198897445</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.8022026799728863</v>
+        <v>0.7302873472851115</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.4917634679888909</v>
+        <v>0.5546551957665997</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.6307224562146807</v>
+        <v>0.300127202309147</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.09281073484059199</v>
+        <v>0.1548178002431264</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5446258570491906</v>
+        <v>0.4246032177986514</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.5749138549231088</v>
+        <v>-0.0404635507639437</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.2831111769140646</v>
+        <v>0.05732228793802463</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0.08079109808783347</v>
+        <v>0.11499684396373411</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.626650377224939</v>
+        <v>0.5449437268634725</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.6679113360363331</v>
+        <v>0.4343495583414505</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-0.5357810223065087</v>
+        <v>-0.152841157962742</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.43444916863043836</v>
+        <v>0.27252718987554164</v>
       </c>
       <c r="D20" t="n">
-        <v>2.222360831166304</v>
+        <v>2.243525542913429</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03159763231710844</v>
+        <v>0.030094547294688804</v>
       </c>
       <c r="F20" t="n">
         <v>0.1576731532834612</v>
       </c>
       <c r="G20" t="n">
-        <v>0.052798969266856406</v>
+        <v>0.25418622696978216</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2700853625626992</v>
+        <v>2.0925372368310504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7883932260348766</v>
+        <v>0.04235920435428537</v>
       </c>
       <c r="J20" t="n">
-        <v>0.951789531269048</v>
+        <v>0.6504187507303173</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.05253958147590865</v>
+        <v>-0.05692824232339433</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.02710273089703019</v>
+        <v>-0.16840760579288805</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0737437626523052</v>
+        <v>-0.025270412916125196</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.44771346271888834</v>
+        <v>0.24057218435145877</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.3845725150673829</v>
+        <v>-0.018630230709204554</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.09347869767064498</v>
+        <v>0.031052451952961135</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.7877195681151719</v>
+        <v>-0.12054888967035282</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.5093568057171458</v>
+        <v>-0.11108289877872046</v>
       </c>
       <c r="S20" t="n">
-        <v>0.16511601614644444</v>
+        <v>0.4391663254475322</v>
       </c>
       <c r="T20" t="n">
-        <v>1.0800739957925432</v>
+        <v>0.5972783115224907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.6968983890195863</v>
+        <v>0.19050768867981915</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5096879298109869</v>
+        <v>0.29482491312068504</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02710273089703019</v>
+        <v>-0.01558783302314204</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07711642428120236</v>
+        <v>0.015587833023140263</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1493564380452126</v>
+        <v>0.41085935738722945</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.46032284916098565</v>
+        <v>0.5837246176690307</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.07108791638344503</v>
+        <v>0.03846673590786054</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.6605476931855216</v>
+        <v>0.27019489512365347</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.0993493348859324</v>
+        <v>0.5132787570865105</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.2092830869043265</v>
+        <v>0.5991651090789922</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.1992302327003097</v>
+        <v>1.0957306418530415</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.7490543714118258</v>
+        <v>0.39773093758705613</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.5679025787081224</v>
+        <v>0.4179169008432826</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.230535081868668</v>
+        <v>0.016549465584338563</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.09151151033362659</v>
+        <v>0.3612819217063823</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.1372298935552632</v>
+        <v>0.3637975472592885</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.02092243093751467</v>
+        <v>-0.16197176869374275</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.3664568261875374</v>
+        <v>0.2011891347489012</v>
       </c>
       <c r="AM20" t="n">
-        <v>-0.12500962048437803</v>
+        <v>-0.09187050598755775</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.25118101731159825</v>
+        <v>0.22037783411874123</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.19645296611884877</v>
+        <v>0.8363192372976478</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.3322755520415903</v>
+        <v>1.0871754738159147</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-0.6547683428336422</v>
+        <v>0.32348470612315694</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.5222086910937032</v>
+        <v>0.5006053988301922</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.2858574446880757</v>
+        <v>0.08448016911706624</v>
       </c>
       <c r="AT20" t="n">
-        <v>-0.09611802681113168</v>
+        <v>0.6440497782530841</v>
       </c>
       <c r="AU20" t="n">
-        <v>-0.5035904384429717</v>
+        <v>-0.09429201039609225</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.5902135265440211</v>
+        <v>0.23484968825607488</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.381959645721099</v>
+        <v>0.3944261844456882</v>
       </c>
       <c r="AX20" t="n">
-        <v>-0.702101929574992</v>
+        <v>0.4088606331633091</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.46148342139064535</v>
+        <v>0.6193398830881556</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-0.8736024500885504</v>
+        <v>-0.3166656976641704</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -4713,157 +4713,157 @@
         <v>101</v>
       </c>
       <c r="B21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16260372511058546</v>
+        <v>0.29299754159091274</v>
       </c>
       <c r="D21" t="n">
-        <v>1.16693490649591</v>
+        <v>1.912306050978645</v>
       </c>
       <c r="E21" t="n">
-        <v>0.24970019056160184</v>
+        <v>0.06254792435093856</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5057757051375424</v>
+        <v>0.22713506911938255</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007555567190926239</v>
+        <v>0.09976206574596709</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.05422295883732559</v>
+        <v>0.651116732748925</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9570099574530703</v>
+        <v>0.5184534451559426</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9924547706920728</v>
+        <v>0.9312597731857686</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2403016201894932</v>
+        <v>0.39763403391881624</v>
       </c>
       <c r="L21" t="n">
-        <v>0.009909987213329252</v>
+        <v>-0.24137213694007897</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.021487233531319205</v>
+        <v>-0.08472273764172833</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.5666599985167853</v>
+        <v>0.09903344444713902</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2061487850558441</v>
+        <v>-0.29481704773620443</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2397529275456085</v>
+        <v>0.16489997581598637</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.5436504078847362</v>
+        <v>-0.5002953939968942</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6884291062476553</v>
+        <v>-0.17087151484996</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.00990998721333014</v>
+        <v>-0.16818787991788753</v>
       </c>
       <c r="T21" t="n">
-        <v>0.520902378494676</v>
+        <v>1.1778224097745227</v>
       </c>
       <c r="U21" t="n">
-        <v>0.22350320764770348</v>
+        <v>0.12334205668004294</v>
       </c>
       <c r="V21" t="n">
-        <v>0.05205461736244743</v>
+        <v>0.6456341481787149</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.1371218337745903</v>
+        <v>-0.008742526344169832</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.20238494662362605</v>
+        <v>0.008742526344169832</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01637131543797299</v>
+        <v>0.233438053324166</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.21507864118225495</v>
+        <v>0.6313262996970046</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2223424209359104</v>
+        <v>0.4408168991660677</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.30521707038655244</v>
+        <v>0.554416539326624</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.056390709164801045</v>
+        <v>0.8785303908437729</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.24041173371544922</v>
+        <v>0.4323631814798521</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.7017778265323775</v>
+        <v>0.5171723767416445</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.26194130130393134</v>
+        <v>0.36202424196076954</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.16002527137881462</v>
+        <v>0.3251830118051249</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.11115855035277722</v>
+        <v>-0.3338410718731559</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.5922040307384036</v>
+        <v>0.3241695252068464</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2549035079846327</v>
+        <v>1.4375303501416798</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.5511990515436294</v>
+        <v>-0.4477715984071393</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.09098619418868648</v>
+        <v>-0.10529325940802181</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.4604802811596578</v>
+        <v>0.12340619771969408</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.3572240269061986</v>
+        <v>0.3326277649420941</v>
       </c>
       <c r="AO21" t="n">
-        <v>-0.0012748476972772593</v>
+        <v>0.4540878134031807</v>
       </c>
       <c r="AP21" t="n">
-        <v>-0.5011499755872144</v>
+        <v>0.32799446640480134</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-0.14980811292087637</v>
+        <v>-0.2496510056097172</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.3070831151946978</v>
+        <v>0.5531110306940068</v>
       </c>
       <c r="AS21" t="n">
-        <v>-0.2015144205202164</v>
+        <v>0.39554924248598944</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.16531290232716422</v>
+        <v>0.36081625192782774</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.04968336619932323</v>
+        <v>-0.28822456216042625</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.5305469475453073</v>
+        <v>0.08549188008900899</v>
       </c>
       <c r="AW21" t="n">
-        <v>-0.009308506788307191</v>
+        <v>0.3192329718269473</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.4684703485419002</v>
+        <v>0.42282105224084</v>
       </c>
       <c r="AY21" t="n">
-        <v>-1.006751272903661</v>
+        <v>-0.03449121956807488</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.3555868102962796</v>
+        <v>-0.25800360622016427</v>
       </c>
       <c r="BA21" t="n">
         <v>0.0</v>
@@ -4872,10 +4872,10 @@
         <v>0.0</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE21" t="n">
         <v>0.0</v>
@@ -4889,157 +4889,157 @@
         <v>102</v>
       </c>
       <c r="B22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.24945615707731433</v>
+        <v>0.08392229997617119</v>
       </c>
       <c r="D22" t="n">
-        <v>1.366661722028969</v>
+        <v>0.7300081338955766</v>
       </c>
       <c r="E22" t="n">
-        <v>0.17887123635650706</v>
+        <v>0.46936390514535364</v>
       </c>
       <c r="F22" t="n">
-        <v>0.41500987677462026</v>
+        <v>0.7137930314670554</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03184511176249427</v>
+        <v>0.16538500488390098</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17446550844622663</v>
+        <v>1.4386211867869219</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8623226658649237</v>
+        <v>0.1575341115158047</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9620104838169957</v>
+        <v>0.7186265464382217</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0027005659659655734</v>
+        <v>0.3180375290488051</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.7479349755727691</v>
+        <v>-0.37092985960223146</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.6516803401348437</v>
+        <v>-0.16875546944415376</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0027005659659655734</v>
+        <v>0.26360130170791507</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.7616887601039632</v>
+        <v>-0.2703341449769674</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.7281206577226946</v>
+        <v>0.14548287011499283</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.6536094657657374</v>
+        <v>-0.1454828701149946</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1482002792610384</v>
+        <v>0.20633444650950672</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2091880068216403</v>
+        <v>0.19967037147422317</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9114425772005994</v>
+        <v>0.16203354024210626</v>
       </c>
       <c r="U22" t="n">
-        <v>0.13164655006863324</v>
+        <v>-0.25708813507936945</v>
       </c>
       <c r="V22" t="n">
-        <v>0.355533179359508</v>
+        <v>0.1711120285624208</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.29404533672852295</v>
+        <v>-0.4933390398007589</v>
       </c>
       <c r="X22" t="n">
-        <v>0.029340248922945733</v>
+        <v>-0.554895735415716</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.15887280611090482</v>
+        <v>0.28084267928918116</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.7315659852872267</v>
+        <v>0.06042058059246891</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.22592979032295002</v>
+        <v>-0.2583686091927433</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.27365398716579126</v>
+        <v>-0.059223329906107125</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.4521013328525587</v>
+        <v>0.18676094164258572</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.25179342189073317</v>
+        <v>-0.045375601290199796</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.44848193803193936</v>
+        <v>0.23061347170471258</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.3145278391550548</v>
+        <v>-0.1407312499835971</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.22426790765644178</v>
+        <v>-0.2927997946029546</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.7162942052476335</v>
+        <v>-0.1883696088767728</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.18190081057316743</v>
+        <v>0.4299444298471542</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.8514448483001456</v>
+        <v>-0.007758272716005266</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.06952960488304871</v>
+        <v>0.09278556431067209</v>
       </c>
       <c r="AL22" t="n">
-        <v>-0.6124221230347198</v>
+        <v>0.09161783207375684</v>
       </c>
       <c r="AM22" t="n">
-        <v>-0.8076396190672703</v>
+        <v>0.14551123263114363</v>
       </c>
       <c r="AN22" t="n">
-        <v>-0.6263443217603859</v>
+        <v>0.18712246614847317</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.24489281337269997</v>
+        <v>0.6862846472750626</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5070713118268744</v>
+        <v>0.6721307530727856</v>
       </c>
       <c r="AQ22" t="n">
-        <v>-0.3305438247109693</v>
+        <v>0.07303472125322052</v>
       </c>
       <c r="AR22" t="n">
-        <v>-0.13704750818915734</v>
+        <v>-0.27629863166918334</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5222018286735608</v>
+        <v>-0.005847785503160452</v>
       </c>
       <c r="AT22" t="n">
-        <v>-0.17317262214064666</v>
+        <v>0.4112119214029999</v>
       </c>
       <c r="AU22" t="n">
-        <v>-0.710662965645037</v>
+        <v>-0.13886155140700218</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.23589941786736013</v>
+        <v>-0.32296841486384054</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.6911220817220416</v>
+        <v>-0.17995958431111703</v>
       </c>
       <c r="AX22" t="n">
-        <v>-0.2503861082508543</v>
+        <v>0.373552672351126</v>
       </c>
       <c r="AY22" t="n">
-        <v>-0.0857993955644023</v>
+        <v>0.27907893096132774</v>
       </c>
       <c r="AZ22" t="n">
-        <v>-0.6854882178530595</v>
+        <v>-0.3831544757414438</v>
       </c>
       <c r="BA22" t="n">
         <v>0.0</v>
@@ -5048,10 +5048,10 @@
         <v>0.0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE22" t="n">
         <v>0.0</v>
@@ -5062,512 +5062,512 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B23" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2430387312494626</v>
+        <v>0.11061827404060529</v>
       </c>
       <c r="D23" t="n">
-        <v>2.570980838611452</v>
+        <v>0.8428746540084002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.013703675433150462</v>
+        <v>0.4039864533684099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.11953694441187547</v>
+        <v>0.6630950062184935</v>
       </c>
       <c r="G23" t="n">
-        <v>0.20201832565831623</v>
+        <v>-0.024019481111208982</v>
       </c>
       <c r="H23" t="n">
-        <v>2.1370472173128086</v>
+        <v>-0.1830205000634885</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03835327887852739</v>
+        <v>0.8556465553774718</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6184314049540025</v>
+        <v>0.9620104838169957</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.15309328992133686</v>
+        <v>-0.1643135092720014</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1794309352315686</v>
+        <v>-0.3622751535364497</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0879709565300626</v>
+        <v>0.06037933453645827</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1591954099342594</v>
+        <v>-6.803151248480077E-4</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.15682263880445113</v>
+        <v>0.13396186466438298</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2083421616575798</v>
+        <v>6.803151248488959E-4</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.14002983133936553</v>
+        <v>-0.051346412583647805</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0751914418493822</v>
+        <v>-0.32596098433604137</v>
       </c>
       <c r="S23" t="n">
-        <v>0.242745356024896</v>
+        <v>-0.22913659641684792</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5670296786254418</v>
+        <v>0.8229262880873112</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.2856245383822582</v>
+        <v>-0.17451602818026402</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3072881993837271</v>
+        <v>0.7974080138393553</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.10826660464564064</v>
+        <v>0.34102906556406865</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0751914418493822</v>
+        <v>0.5698074178017123</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.07350553829907014</v>
+        <v>0.009540882194086997</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.4349507483493742</v>
+        <v>0.33875137574392333</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.46263998006605433</v>
+        <v>0.4148573864041758</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.06571739393304554</v>
+        <v>-0.28420746059374835</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.564863379216666</v>
+        <v>0.28662370885238886</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.2833663480373634</v>
+        <v>0.31969122012602647</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.41675823077368435</v>
+        <v>0.23801293433847093</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.17677546637045616</v>
+        <v>0.15523546239154662</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.4858633184421226</v>
+        <v>0.04004745685651745</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.058261035417809026</v>
+        <v>-0.013360515019190444</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.3653125667491697</v>
+        <v>0.3507983642915793</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.3239196088789793</v>
+        <v>0.4461074681345121</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.008208570504312007</v>
+        <v>0.6563987784046219</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.41462393368872696</v>
+        <v>0.008122074611602415</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.002555583740900147</v>
+        <v>-0.18554039191959415</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.10360726503750861</v>
+        <v>0.21434444476856473</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.3315191198897445</v>
+        <v>-0.08152325865451537</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.7302873472851115</v>
+        <v>-0.1869018220606442</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5546551957665997</v>
+        <v>0.1995491708476509</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.300127202309147</v>
+        <v>0.26312762128376477</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.1548178002431264</v>
+        <v>0.7445853508025237</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.4246032177986514</v>
+        <v>0.04877883311104547</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.0404635507639437</v>
+        <v>-0.03393023581780774</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.05732228793802463</v>
+        <v>0.35396866776418</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.11499684396373411</v>
+        <v>0.39865663649338323</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.5449437268634725</v>
+        <v>0.3545465249644142</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.4343495583414505</v>
+        <v>-0.22252219736055867</v>
       </c>
       <c r="AZ23" t="n">
-        <v>-0.152841157962742</v>
+        <v>-0.7854487796112952</v>
       </c>
       <c r="BA23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.27252718987554164</v>
+        <v>0.10255551132536396</v>
       </c>
       <c r="D24" t="n">
-        <v>2.243525542913429</v>
+        <v>1.0048339416117118</v>
       </c>
       <c r="E24" t="n">
-        <v>0.030094547294688804</v>
+        <v>0.32062667259553096</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1576731532834612</v>
+        <v>0.583870656421232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25418622696978216</v>
+        <v>0.0407485113348468</v>
       </c>
       <c r="H24" t="n">
-        <v>2.0925372368310504</v>
+        <v>0.3992519439496669</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04235920435428537</v>
+        <v>0.6916937378912393</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6504187507303173</v>
+        <v>0.951789531269048</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.05692824232339433</v>
+        <v>0.20161229084132337</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.16840760579288805</v>
+        <v>-0.20562663894741995</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.025270412916125196</v>
+        <v>-0.011230447767321294</v>
       </c>
       <c r="N24" t="n">
-        <v>0.24057218435145877</v>
+        <v>0.19217733611571752</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.018630230709204554</v>
+        <v>-0.1457563849585064</v>
       </c>
       <c r="P24" t="n">
-        <v>0.031052451952961135</v>
+        <v>0.006649493361633674</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.12054888967035282</v>
+        <v>-0.00664949336163545</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.11108289877872046</v>
+        <v>-0.1712574941422016</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4391663254475322</v>
+        <v>0.03182670292580525</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5972783115224907</v>
+        <v>0.8450847341270329</v>
       </c>
       <c r="U24" t="n">
-        <v>0.19050768867981915</v>
+        <v>0.04506171804538717</v>
       </c>
       <c r="V24" t="n">
-        <v>0.29482491312068504</v>
+        <v>0.3605442690350422</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.01558783302314204</v>
+        <v>-0.03002431941701289</v>
       </c>
       <c r="X24" t="n">
-        <v>0.015587833023140263</v>
+        <v>-0.13955020926623085</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.41085935738722945</v>
+        <v>-0.029689136749357914</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.5837246176690307</v>
+        <v>0.2129247530762335</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.03846673590786054</v>
+        <v>0.4109067642580513</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.27019489512365347</v>
+        <v>-0.20224461400934857</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5132787570865105</v>
+        <v>0.5575256224500826</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.5991651090789922</v>
+        <v>0.1286387907085036</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.0957306418530415</v>
+        <v>0.5281560518680344</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.39773093758705613</v>
+        <v>0.3340615806134135</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.4179169008432826</v>
+        <v>0.05142037718086101</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.016549465584338563</v>
+        <v>-0.14380090210427987</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.3612819217063823</v>
+        <v>0.2759784463019095</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.3637975472592885</v>
+        <v>0.4921887169137893</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.16197176869374275</v>
+        <v>-0.07130635130746654</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.2011891347489012</v>
+        <v>-0.13612138405372853</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.09187050598755775</v>
+        <v>0.01617626950562645</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.22037783411874123</v>
+        <v>0.29628732627484844</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.8363192372976478</v>
+        <v>0.42205404648702505</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.0871754738159147</v>
+        <v>0.1170684179591941</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.32348470612315694</v>
+        <v>0.0812254142611657</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.5006053988301922</v>
+        <v>0.045914553132892166</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.08448016911706624</v>
+        <v>0.17364655423680375</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.6440497782530841</v>
+        <v>0.2972753058092774</v>
       </c>
       <c r="AU24" t="n">
-        <v>-0.09429201039609225</v>
+        <v>0.016697538447941085</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.23484968825607488</v>
+        <v>-0.008381517784838977</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.3944261844456882</v>
+        <v>0.06831033336537828</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.4088606331633091</v>
+        <v>0.48283319297385496</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.6193398830881556</v>
+        <v>-0.18157603000160094</v>
       </c>
       <c r="AZ24" t="n">
-        <v>-0.3166656976641704</v>
+        <v>-0.2841906893880992</v>
       </c>
       <c r="BA24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.29299754159091274</v>
+        <v>0.15462126875355467</v>
       </c>
       <c r="D25" t="n">
-        <v>1.912306050978645</v>
+        <v>1.6178153953498398</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06254792435093856</v>
+        <v>0.11305290487016088</v>
       </c>
       <c r="F25" t="n">
-        <v>0.22713506911938255</v>
+        <v>0.3110588596427548</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09976206574596709</v>
+        <v>0.17085465331523492</v>
       </c>
       <c r="H25" t="n">
-        <v>0.651116732748925</v>
+        <v>1.7876666692025975</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5184534451559426</v>
+        <v>0.08091489103579498</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9312597731857686</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K25" t="n">
-        <v>0.39763403391881624</v>
+        <v>0.13242162234861965</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.24137213694007897</v>
+        <v>-0.06821114465334865</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.08472273764172833</v>
+        <v>0.09184652297442142</v>
       </c>
       <c r="N25" t="n">
-        <v>0.09903344444713902</v>
+        <v>0.08770363639344048</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.29481704773620443</v>
+        <v>-0.30292365201670357</v>
       </c>
       <c r="P25" t="n">
-        <v>0.16489997581598637</v>
+        <v>0.17749320349547482</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.5002953939968942</v>
+        <v>-0.15395918133713948</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.17087151484996</v>
+        <v>0.06821114465335043</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.16818787991788753</v>
+        <v>-0.29073792601053583</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1778224097745227</v>
+        <v>0.19258887317954</v>
       </c>
       <c r="U25" t="n">
-        <v>0.12334205668004294</v>
+        <v>-0.2625019249132219</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6456341481787149</v>
+        <v>0.14885738690515993</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.008742526344169832</v>
+        <v>-0.18155711090510174</v>
       </c>
       <c r="X25" t="n">
-        <v>0.008742526344169832</v>
+        <v>-0.25192347593972464</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.233438053324166</v>
+        <v>0.30300383095123706</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6313262996970046</v>
+        <v>0.25531274325146747</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.4408168991660677</v>
+        <v>-0.07936257771617328</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.554416539326624</v>
+        <v>0.12483984783517066</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.8785303908437729</v>
+        <v>0.3423292910113549</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.4323631814798521</v>
+        <v>-0.014203872133155215</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.5171723767416445</v>
+        <v>0.24359111436492675</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.36202424196076954</v>
+        <v>0.04078862083829726</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.3251830118051249</v>
+        <v>0.12835592544272245</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.3338410718731559</v>
+        <v>-0.03355885783951962</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.3241695252068464</v>
+        <v>0.26910907101877335</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.4375303501416798</v>
+        <v>-0.14235634008896092</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.4477715984071393</v>
+        <v>-0.005483469582284073</v>
       </c>
       <c r="AL25" t="n">
-        <v>-0.10529325940802181</v>
+        <v>0.11964040937013287</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.12340619771969408</v>
+        <v>0.42017839705073357</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.3326277649420941</v>
+        <v>0.2673398621172378</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.4540878134031807</v>
+        <v>0.75965217854014</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.32799446640480134</v>
+        <v>0.3283396912535199</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-0.2496510056097172</v>
+        <v>0.010044989517105307</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.5531110306940068</v>
+        <v>0.0157937582312222</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.39554924248598944</v>
+        <v>-0.04220318479842966</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.36081625192782774</v>
+        <v>0.36649177635109353</v>
       </c>
       <c r="AU25" t="n">
-        <v>-0.28822456216042625</v>
+        <v>-0.04222662474220229</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.08549188008900899</v>
+        <v>-0.19539049617600845</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.3192329718269473</v>
+        <v>-0.13149612006500533</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.42282105224084</v>
+        <v>0.4599352054205106</v>
       </c>
       <c r="AY25" t="n">
-        <v>-0.03449121956807488</v>
+        <v>0.016639577649128157</v>
       </c>
       <c r="AZ25" t="n">
-        <v>-0.25800360622016427</v>
+        <v>-0.45382588976152505</v>
       </c>
       <c r="BA25" t="n">
         <v>0.0</v>
@@ -5576,10 +5576,10 @@
         <v>0.0</v>
       </c>
       <c r="BC25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE25" t="n">
         <v>0.0</v>
@@ -5590,160 +5590,160 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B26" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08392229997617119</v>
+        <v>0.07082632761981736</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7300081338955766</v>
+        <v>0.8058544672089316</v>
       </c>
       <c r="E26" t="n">
-        <v>0.46936390514535364</v>
+        <v>0.4247835723075216</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7137930314670554</v>
+        <v>0.6877448313550351</v>
       </c>
       <c r="G26" t="n">
-        <v>0.16538500488390098</v>
+        <v>0.10412035803232175</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4386211867869219</v>
+        <v>1.1846704250731597</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1575341115158047</v>
+        <v>0.24268753515510905</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7186265464382217</v>
+        <v>0.7702339488970553</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3180375290488051</v>
+        <v>0.024845061379035194</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.37092985960223146</v>
+        <v>-0.1079462035454517</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.16875546944415376</v>
+        <v>0.1638990940823586</v>
       </c>
       <c r="N26" t="n">
-        <v>0.26360130170791507</v>
+        <v>0.15293592982027882</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.2703341449769674</v>
+        <v>0.18868151526022992</v>
       </c>
       <c r="P26" t="n">
-        <v>0.14548287011499283</v>
+        <v>0.11950117548423655</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.1454828701149946</v>
+        <v>0.04090404874757603</v>
       </c>
       <c r="R26" t="n">
-        <v>0.20633444650950672</v>
+        <v>0.3525359224014615</v>
       </c>
       <c r="S26" t="n">
-        <v>0.19967037147422317</v>
+        <v>-0.024845061379035194</v>
       </c>
       <c r="T26" t="n">
-        <v>0.16203354024210626</v>
+        <v>-0.19496935072489308</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.25708813507936945</v>
+        <v>-0.4033527186345358</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1711120285624208</v>
+        <v>-0.14972993404949264</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.4933390398007589</v>
+        <v>-0.3680676198492021</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.554895735415716</v>
+        <v>-0.2756963570264901</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.28084267928918116</v>
+        <v>-0.14282119059236464</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.06042058059246891</v>
+        <v>0.03522855929043178</v>
       </c>
       <c r="AA26" t="n">
-        <v>-0.2583686091927433</v>
+        <v>0.16781755426392841</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.059223329906107125</v>
+        <v>-0.18457263782514666</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.18676094164258572</v>
+        <v>-0.08921398295820548</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.045375601290199796</v>
+        <v>0.315697254458307</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.23061347170471258</v>
+        <v>-0.1479204346211347</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.1407312499835971</v>
+        <v>0.09030098279034515</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.2927997946029546</v>
+        <v>0.16080648236728656</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.1883696088767728</v>
+        <v>0.10624006104487904</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.4299444298471542</v>
+        <v>-0.015202446788620705</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-0.007758272716005266</v>
+        <v>0.046491885452498494</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.09278556431067209</v>
+        <v>0.27652706953472084</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.09161783207375684</v>
+        <v>-0.10911506777340385</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.14551123263114363</v>
+        <v>0.05147359994840528</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.18712246614847317</v>
+        <v>-0.040504899688710516</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.6862846472750626</v>
+        <v>0.26123162179870363</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.6721307530727856</v>
+        <v>0.4961569199153679</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.07303472125322052</v>
+        <v>0.04158275551281587</v>
       </c>
       <c r="AR26" t="n">
-        <v>-0.27629863166918334</v>
+        <v>-0.2194652791664371</v>
       </c>
       <c r="AS26" t="n">
-        <v>-0.005847785503160452</v>
+        <v>-0.13626554317367834</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4112119214029999</v>
+        <v>0.16734859135720903</v>
       </c>
       <c r="AU26" t="n">
-        <v>-0.13886155140700218</v>
+        <v>0.2988957329362698</v>
       </c>
       <c r="AV26" t="n">
-        <v>-0.32296841486384054</v>
+        <v>-0.36173710243934387</v>
       </c>
       <c r="AW26" t="n">
-        <v>-0.17995958431111703</v>
+        <v>-0.07912789311843937</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.373552672351126</v>
+        <v>0.04645328398883386</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.27907893096132774</v>
+        <v>0.30632230947644423</v>
       </c>
       <c r="AZ26" t="n">
-        <v>-0.3831544757414438</v>
+        <v>0.14401641707114088</v>
       </c>
       <c r="BA26" t="n">
         <v>0.0</v>
@@ -5752,10 +5752,10 @@
         <v>0.0</v>
       </c>
       <c r="BC26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE26" t="n">
         <v>0.0</v>
@@ -5766,160 +5766,160 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B27" t="n">
         <v>3.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11061827404060529</v>
+        <v>0.25659173144764397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8428746540084002</v>
+        <v>1.7302863292610773</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4039864533684099</v>
+        <v>0.09078795471345771</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6630950062184935</v>
+        <v>0.2735130787569992</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.024019481111208982</v>
+        <v>0.06443142845872565</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1830205000634885</v>
+        <v>0.4344832906653659</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8556465553774718</v>
+        <v>0.666121213131337</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9620104838169957</v>
+        <v>0.951789531269048</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.1643135092720014</v>
+        <v>0.4293717587408086</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3622751535364497</v>
+        <v>0.5086741480998214</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06037933453645827</v>
+        <v>-0.23229853136936107</v>
       </c>
       <c r="N27" t="n">
-        <v>-6.803151248480077E-4</v>
+        <v>0.23591663553792763</v>
       </c>
       <c r="O27" t="n">
-        <v>0.13396186466438298</v>
+        <v>-0.1806290888661941</v>
       </c>
       <c r="P27" t="n">
-        <v>6.803151248488959E-4</v>
+        <v>-0.10913447604087523</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.051346412583647805</v>
+        <v>-0.3456513984438061</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.32596098433604137</v>
+        <v>-0.13909051028982233</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.22913659641684792</v>
+        <v>0.30717477323584674</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8229262880873112</v>
+        <v>0.5881424098151768</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.17451602818026402</v>
+        <v>0.10913447604087345</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7974080138393553</v>
+        <v>0.22961953197427754</v>
       </c>
       <c r="W27" t="n">
-        <v>0.34102906556406865</v>
+        <v>-0.14412507864015467</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5698074178017123</v>
+        <v>-0.4492452178803923</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.009540882194086997</v>
+        <v>-0.3304978811970738</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.33875137574392333</v>
+        <v>0.41602797664805635</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.4148573864041758</v>
+        <v>0.23194929230792738</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.28420746059374835</v>
+        <v>0.3592669805259998</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.28662370885238886</v>
+        <v>0.942142252739778</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.31969122012602647</v>
+        <v>0.5581378284116241</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.23801293433847093</v>
+        <v>0.9113829763612067</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.15523546239154662</v>
+        <v>0.7938293247351869</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.04004745685651745</v>
+        <v>0.49479745354952165</v>
       </c>
       <c r="AH27" t="n">
-        <v>-0.013360515019190444</v>
+        <v>-0.48833620820699686</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.3507983642915793</v>
+        <v>0.11836239387570124</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.4461074681345121</v>
+        <v>0.781323393060438</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.6563987784046219</v>
+        <v>-0.5881680125285094</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.008122074611602415</v>
+        <v>0.199925901898256</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.18554039191959415</v>
+        <v>-0.31047204812104745</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.21434444476856473</v>
+        <v>-0.10999278492874787</v>
       </c>
       <c r="AO27" t="n">
-        <v>-0.08152325865451537</v>
+        <v>0.24555781437108593</v>
       </c>
       <c r="AP27" t="n">
-        <v>-0.1869018220606442</v>
+        <v>0.8527711144297552</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.1995491708476509</v>
+        <v>-0.12030540819799107</v>
       </c>
       <c r="AR27" t="n">
-        <v>0.26312762128376477</v>
+        <v>0.1722021004831582</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.7445853508025237</v>
+        <v>0.112487599094516</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.04877883311104547</v>
+        <v>0.3214658580161185</v>
       </c>
       <c r="AU27" t="n">
-        <v>-0.03393023581780774</v>
+        <v>-0.24779645082642965</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.35396866776418</v>
+        <v>0.2698880977063851</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.39865663649338323</v>
+        <v>0.4217061086461964</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.3545465249644142</v>
+        <v>0.2558174718771635</v>
       </c>
       <c r="AY27" t="n">
-        <v>-0.22252219736055867</v>
+        <v>0.09810994260875994</v>
       </c>
       <c r="AZ27" t="n">
-        <v>-0.7854487796112952</v>
+        <v>-0.25153998482263695</v>
       </c>
       <c r="BA27" t="n">
         <v>0.0</v>
@@ -5942,160 +5942,160 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B28" t="n">
         <v>3.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.10255551132536396</v>
+        <v>0.17333206521621367</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0048339416117118</v>
+        <v>1.5121111464409667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.32062667259553096</v>
+        <v>0.13785816103603005</v>
       </c>
       <c r="F28" t="n">
-        <v>0.583870656421232</v>
+        <v>0.3605521134788478</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0407485113348468</v>
+        <v>0.08202958378627985</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3992519439496669</v>
+        <v>0.7156082045547819</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6916937378912393</v>
+        <v>0.47812106920761777</v>
       </c>
       <c r="J28" t="n">
-        <v>0.951789531269048</v>
+        <v>0.9262665655274255</v>
       </c>
       <c r="K28" t="n">
-        <v>0.20161229084132337</v>
+        <v>-0.19743674637713493</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.20562663894741995</v>
+        <v>-0.8192584781184262</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.011230447767321294</v>
+        <v>-0.12226250239703074</v>
       </c>
       <c r="N28" t="n">
-        <v>0.19217733611571752</v>
+        <v>-0.11904797741926387</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.1457563849585064</v>
+        <v>0.28498425154294527</v>
       </c>
       <c r="P28" t="n">
-        <v>0.006649493361633674</v>
+        <v>0.14694445671573497</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.00664949336163545</v>
+        <v>-0.3826443373893813</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.1712574941422016</v>
+        <v>0.012625762266211815</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03182670292580525</v>
+        <v>0.2630910169694234</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8450847341270329</v>
+        <v>0.2499538444813023</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04506171804538717</v>
+        <v>-0.003843926456037927</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3605442690350422</v>
+        <v>0.14737306266856276</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.03002431941701289</v>
+        <v>-0.19943221340138617</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.13955020926623085</v>
+        <v>0.003843926456037039</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.029689136749357914</v>
+        <v>0.47517532936193874</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.2129247530762335</v>
+        <v>-0.34548879838893587</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.4109067642580513</v>
+        <v>-0.025255250129793794</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.20224461400934857</v>
+        <v>0.22133192021138814</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.5575256224500826</v>
+        <v>-0.1368857473258549</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.1286387907085036</v>
+        <v>0.2910239477593475</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.5281560518680344</v>
+        <v>0.41395122821162467</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.3340615806134135</v>
+        <v>-0.25101661375777606</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.05142037718086101</v>
+        <v>-0.21051474592157504</v>
       </c>
       <c r="AH28" t="n">
-        <v>-0.14380090210427987</v>
+        <v>-0.06529872096724354</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.2759784463019095</v>
+        <v>0.2532930986917128</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.4921887169137893</v>
+        <v>0.6233418960351749</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.07130635130746654</v>
+        <v>0.6127156628561901</v>
       </c>
       <c r="AL28" t="n">
-        <v>-0.13612138405372853</v>
+        <v>-0.16483415406764923</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.01617626950562645</v>
+        <v>0.2711697368196049</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.29628732627484844</v>
+        <v>0.031941786017971374</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.42205404648702505</v>
+        <v>0.2673127739789898</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.1170684179591941</v>
+        <v>0.28431841650664147</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.0812254142611657</v>
+        <v>0.28294881241579084</v>
       </c>
       <c r="AR28" t="n">
-        <v>0.045914553132892166</v>
+        <v>-0.37425975631751207</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.17364655423680375</v>
+        <v>-0.16556854829125367</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.2972753058092774</v>
+        <v>0.09511026671375156</v>
       </c>
       <c r="AU28" t="n">
-        <v>0.016697538447941085</v>
+        <v>-0.2678713766235514</v>
       </c>
       <c r="AV28" t="n">
-        <v>-0.008381517784838977</v>
+        <v>-0.24251302202602787</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.06831033336537828</v>
+        <v>-0.05330292779361745</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.48283319297385496</v>
+        <v>0.23469186858864433</v>
       </c>
       <c r="AY28" t="n">
-        <v>-0.18157603000160094</v>
+        <v>0.20287761234572077</v>
       </c>
       <c r="AZ28" t="n">
-        <v>-0.2841906893880992</v>
+        <v>-0.15355132978567898</v>
       </c>
       <c r="BA28" t="n">
         <v>0.0</v>
@@ -6118,166 +6118,166 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B29" t="n">
         <v>3.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.15462126875355467</v>
+        <v>0.3752109254564909</v>
       </c>
       <c r="D29" t="n">
-        <v>1.6178153953498398</v>
+        <v>3.658707007826087</v>
       </c>
       <c r="E29" t="n">
-        <v>0.11305290487016088</v>
+        <v>6.906002797229204E-4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3110588596427548</v>
+        <v>0.03652508146090112</v>
       </c>
       <c r="G29" t="n">
-        <v>0.17085465331523492</v>
+        <v>0.13653814662349362</v>
       </c>
       <c r="H29" t="n">
-        <v>1.7876666692025975</v>
+        <v>1.3313926647503498</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08091489103579498</v>
+        <v>0.19011114690221254</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.7333276386011531</v>
       </c>
       <c r="K29" t="n">
-        <v>0.13242162234861965</v>
+        <v>0.10426414957129815</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.06821114465334865</v>
+        <v>-0.3840257949958943</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09184652297442142</v>
+        <v>0.010897070458701918</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08770363639344048</v>
+        <v>0.07437775588073059</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.30292365201670357</v>
+        <v>0.05263556564027283</v>
       </c>
       <c r="P29" t="n">
-        <v>0.17749320349547482</v>
+        <v>-0.010897070458701918</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.15395918133713948</v>
+        <v>-0.08382410811115548</v>
       </c>
       <c r="R29" t="n">
-        <v>0.06821114465335043</v>
+        <v>-0.29449530350208164</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.29073792601053583</v>
+        <v>0.056622460669291996</v>
       </c>
       <c r="T29" t="n">
-        <v>0.19258887317954</v>
+        <v>0.5585309399964089</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.2625019249132219</v>
+        <v>-0.2809546318206326</v>
       </c>
       <c r="V29" t="n">
-        <v>0.14885738690515993</v>
+        <v>0.41700618688795643</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.18155711090510174</v>
+        <v>-0.31504845063525444</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.25192347593972464</v>
+        <v>-0.17922812798228271</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.30300383095123706</v>
+        <v>0.08049133114848672</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.25531274325146747</v>
+        <v>0.6069285364557899</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.07936257771617328</v>
+        <v>0.35423736514633397</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.12483984783517066</v>
+        <v>0.6485817948579911</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.3423292910113549</v>
+        <v>0.5628726902941033</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.014203872133155215</v>
+        <v>0.21221717593471112</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.24359111436492675</v>
+        <v>0.6463218506650641</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.04078862083829726</v>
+        <v>0.5340234560112975</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.12835592544272245</v>
+        <v>0.31020802752054166</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.03355885783951962</v>
+        <v>0.0077677239084792404</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.26910907101877335</v>
+        <v>0.398420708246352</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-0.14235634008896092</v>
+        <v>0.21547237638641548</v>
       </c>
       <c r="AK29" t="n">
-        <v>-0.005483469582284073</v>
+        <v>0.4718137708804342</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.11964040937013287</v>
+        <v>-0.0705432094665106</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.42017839705073357</v>
+        <v>0.29163755351569876</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.2673398621172378</v>
+        <v>0.4081859339976699</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.75965217854014</v>
+        <v>0.13075267589791828</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.3283396912535199</v>
+        <v>0.08400250978605328</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.010044989517105307</v>
+        <v>0.12326258939592094</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.0157937582312222</v>
+        <v>0.4163694238429674</v>
       </c>
       <c r="AS29" t="n">
-        <v>-0.04220318479842966</v>
+        <v>0.0990550648283719</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.36649177635109353</v>
+        <v>0.5086222386033707</v>
       </c>
       <c r="AU29" t="n">
-        <v>-0.04222662474220229</v>
+        <v>-0.13227754424704408</v>
       </c>
       <c r="AV29" t="n">
-        <v>-0.19539049617600845</v>
+        <v>0.024252788196681863</v>
       </c>
       <c r="AW29" t="n">
-        <v>-0.13149612006500533</v>
+        <v>-0.0904386590955717</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.4599352054205106</v>
+        <v>0.30104776908492425</v>
       </c>
       <c r="AY29" t="n">
-        <v>0.016639577649128157</v>
+        <v>-0.16765410369478495</v>
       </c>
       <c r="AZ29" t="n">
-        <v>-0.45382588976152505</v>
+        <v>-0.3594235457846082</v>
       </c>
       <c r="BA29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC29" t="n">
         <v>0.0</v>
@@ -6294,166 +6294,166 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B30" t="n">
         <v>3.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07082632761981736</v>
+        <v>0.29441061898877696</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8058544672089316</v>
+        <v>2.2201557521550486</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4247835723075216</v>
+        <v>0.031758005574058626</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6877448313550351</v>
+        <v>0.1576731532834612</v>
       </c>
       <c r="G30" t="n">
-        <v>0.10412035803232175</v>
+        <v>0.18220878420727</v>
       </c>
       <c r="H30" t="n">
-        <v>1.1846704250731597</v>
+        <v>1.374039705973953</v>
       </c>
       <c r="I30" t="n">
-        <v>0.24268753515510905</v>
+        <v>0.1765859729558175</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7702339488970553</v>
+        <v>0.7251655412348408</v>
       </c>
       <c r="K30" t="n">
-        <v>0.024845061379035194</v>
+        <v>-0.2679420775790309</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.1079462035454517</v>
+        <v>-0.23214903987461355</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1638990940823586</v>
+        <v>-0.004120837321217152</v>
       </c>
       <c r="N30" t="n">
-        <v>0.15293592982027882</v>
+        <v>-0.03964474785122718</v>
       </c>
       <c r="O30" t="n">
-        <v>0.18868151526022992</v>
+        <v>0.004120837321217152</v>
       </c>
       <c r="P30" t="n">
-        <v>0.11950117548423655</v>
+        <v>-0.11404374276202844</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.04090404874757603</v>
+        <v>-0.19196489638853365</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3525359224014615</v>
+        <v>-0.28234026424533276</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.024845061379035194</v>
+        <v>0.0891845932089641</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.19496935072489308</v>
+        <v>1.1550569722603754</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.4033527186345358</v>
+        <v>0.22224343578879768</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.14972993404949264</v>
+        <v>0.828694321514222</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.3680676198492021</v>
+        <v>0.13626784890177213</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.2756963570264901</v>
+        <v>0.26913307904463224</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.14282119059236464</v>
+        <v>0.19971183200675213</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.03522855929043178</v>
+        <v>0.5436516881369169</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.16781755426392841</v>
+        <v>0.36544646676417614</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.18457263782514666</v>
+        <v>0.4598090763499485</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.08921398295820548</v>
+        <v>0.6911164327775321</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.315697254458307</v>
+        <v>0.4169884479260446</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.1479204346211347</v>
+        <v>0.8407325597472077</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.09030098279034515</v>
+        <v>0.29551734441247923</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.16080648236728656</v>
+        <v>0.21901040192123844</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.10624006104487904</v>
+        <v>-0.11201394721136282</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.015202446788620705</v>
+        <v>0.7406801209481308</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.046491885452498494</v>
+        <v>0.9313211489161208</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.27652706953472084</v>
+        <v>0.1513911622904498</v>
       </c>
       <c r="AL30" t="n">
-        <v>-0.10911506777340385</v>
+        <v>-0.04911858712478079</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.05147359994840528</v>
+        <v>0.19609902961201264</v>
       </c>
       <c r="AN30" t="n">
-        <v>-0.040504899688710516</v>
+        <v>0.34118556333613625</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.26123162179870363</v>
+        <v>0.45407480804440326</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.4961569199153679</v>
+        <v>0.3744584810083964</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.04158275551281587</v>
+        <v>0.21222378873138759</v>
       </c>
       <c r="AR30" t="n">
-        <v>-0.2194652791664371</v>
+        <v>0.4629383380367944</v>
       </c>
       <c r="AS30" t="n">
-        <v>-0.13626554317367834</v>
+        <v>0.4591576708008649</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.16734859135720903</v>
+        <v>0.5790553686690778</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.2988957329362698</v>
+        <v>-0.18847756480119493</v>
       </c>
       <c r="AV30" t="n">
-        <v>-0.36173710243934387</v>
+        <v>0.49952067474972495</v>
       </c>
       <c r="AW30" t="n">
-        <v>-0.07912789311843937</v>
+        <v>0.4692295573070826</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.04645328398883386</v>
+        <v>0.4604019392044396</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.30632230947644423</v>
+        <v>0.2488024600875285</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.14401641707114088</v>
+        <v>-0.44525165386687604</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC30" t="n">
         <v>0.0</v>
@@ -6984,10 +6984,10 @@
         <v>1.0</v>
       </c>
       <c r="BC33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE33" t="n">
         <v>1.0</v>
@@ -7336,10 +7336,10 @@
         <v>1.0</v>
       </c>
       <c r="BC35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE35" t="n">
         <v>1.0</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" t="n">
         <v>5.0</v>
@@ -7864,10 +7864,10 @@
         <v>0.0</v>
       </c>
       <c r="BC38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE38" t="n">
         <v>0.0</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" t="n">
         <v>5.0</v>
@@ -8040,10 +8040,10 @@
         <v>0.0</v>
       </c>
       <c r="BC39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE39" t="n">
         <v>0.0</v>
@@ -8216,10 +8216,10 @@
         <v>1.0</v>
       </c>
       <c r="BC40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE40" t="n">
         <v>1.0</v>
@@ -8392,10 +8392,10 @@
         <v>1.0</v>
       </c>
       <c r="BC41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE41" t="n">
         <v>1.0</v>
@@ -9106,10 +9106,10 @@
         <v>21</v>
       </c>
       <c r="BB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC1" t="s">
         <v>20</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>27</v>
       </c>
       <c r="BD1" t="s">
         <v>18</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
         <v>1.0</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="n">
         <v>1.0</v>
@@ -9786,10 +9786,10 @@
         <v>1.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD5" t="n">
         <v>1.0</v>
@@ -9956,10 +9956,10 @@
         <v>1.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD6" t="n">
         <v>1.0</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" t="n">
         <v>1.0</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="n">
         <v>1.0</v>
@@ -10477,7 +10477,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="n">
         <v>1.0</v>
@@ -10647,160 +10647,160 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B11" t="n">
         <v>2.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3410859499232979</v>
+        <v>0.025557150248771227</v>
       </c>
       <c r="D11" t="n">
-        <v>2.9382356603465705</v>
+        <v>0.3017048660599277</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005300115030229515</v>
+        <v>0.7643388393832697</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07645014407240149</v>
+        <v>0.8912076736953188</v>
       </c>
       <c r="G11" t="n">
-        <v>0.26175052923677034</v>
+        <v>0.131538288485428</v>
       </c>
       <c r="H11" t="n">
-        <v>2.254812135448603</v>
+        <v>1.5528234299579733</v>
       </c>
       <c r="I11" t="n">
-        <v>0.029319281175297484</v>
+        <v>0.12783261993510642</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6184314049540025</v>
+        <v>0.6914582623762574</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.39455897843353327</v>
+        <v>-0.11524393383222886</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.7422761976737835</v>
+        <v>-0.6210345596782609</v>
       </c>
       <c r="M11" t="n">
-        <v>0.11787925228672691</v>
+        <v>0.13074194043095488</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06300312343516801</v>
+        <v>0.1778424096047022</v>
       </c>
       <c r="O11" t="n">
-        <v>0.009108900493247418</v>
+        <v>0.17132731187943406</v>
       </c>
       <c r="P11" t="n">
-        <v>0.310486145061061</v>
+        <v>0.1023565286467516</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.013971151042628804</v>
+        <v>0.18405815896243283</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.009108900493245642</v>
+        <v>0.1241055706759564</v>
       </c>
       <c r="S11" t="n">
-        <v>0.06981925346699924</v>
+        <v>0.08607297815560067</v>
       </c>
       <c r="T11" t="n">
-        <v>0.610571883389154</v>
+        <v>-0.08607297815560244</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.34817518526044466</v>
+        <v>-0.2838053648870904</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5417707588930138</v>
+        <v>-0.10495045830151994</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.31508541852398864</v>
+        <v>-0.2054236826623157</v>
       </c>
       <c r="X11" t="n">
-        <v>0.08673580047521945</v>
+        <v>-0.303562794861973</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.670190083566883</v>
+        <v>-0.046454085479929574</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5098700842385462</v>
+        <v>-0.06569806978409609</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.48884662940361956</v>
+        <v>0.0474310089403609</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.49911475982800724</v>
+        <v>-0.3410429552236991</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4455192667518606</v>
+        <v>-0.007516485959504493</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.23408822638586102</v>
+        <v>-0.15097361391677389</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.46785783560136984</v>
+        <v>-0.3282976765129124</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.054605585326184425</v>
+        <v>-0.07743555350531572</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1153171168626752</v>
+        <v>-0.034207538524190895</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.19251526609604497</v>
+        <v>0.07954702103785571</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.4727232163552273</v>
+        <v>-0.01725860901125742</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.43256331237839696</v>
+        <v>0.20006890271937294</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.07871130836974771</v>
+        <v>0.12872061610719676</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.026526353035636774</v>
+        <v>0.22732826857250998</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.3725905275985326</v>
+        <v>-0.05177981486126271</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.5487445990392441</v>
+        <v>0.0514496540807432</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.4452673240765037</v>
+        <v>0.19372651401087104</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.45802337510629343</v>
+        <v>0.39493563839094037</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.14875709173739082</v>
+        <v>0.18276062293783468</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.27381949213085477</v>
+        <v>-0.1051787786106484</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.2229234698451883</v>
+        <v>-0.01814162936071284</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6240084625545901</v>
+        <v>0.14396034560847326</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.1224802799908673</v>
+        <v>0.14555448917262126</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.043336401674050506</v>
+        <v>-0.2520792341424052</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.03603405727545628</v>
+        <v>-0.031179220238955807</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.7026516126135665</v>
+        <v>0.34430863090463326</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.0639122957206748</v>
+        <v>0.15266307306527693</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.2512830315054355</v>
+        <v>-0.053053126184575916</v>
       </c>
       <c r="BA11" t="n">
         <v>0.0</v>
@@ -10809,7 +10809,7 @@
         <v>1.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD11" t="n">
         <v>0.0</v>
@@ -10817,333 +10817,333 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="n">
         <v>2.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2430387312494626</v>
+        <v>0.3410859499232979</v>
       </c>
       <c r="D12" t="n">
-        <v>2.570980838611452</v>
+        <v>2.9382356603465705</v>
       </c>
       <c r="E12" t="n">
-        <v>0.013703675433150462</v>
+        <v>0.005300115030229515</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11953694441187547</v>
+        <v>0.07645014407240149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.20201832565831623</v>
+        <v>0.26175052923677034</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1370472173128086</v>
+        <v>2.254812135448603</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03835327887852739</v>
+        <v>0.029319281175297484</v>
       </c>
       <c r="J12" t="n">
         <v>0.6184314049540025</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.15309328992133686</v>
+        <v>-0.39455897843353327</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1794309352315686</v>
+        <v>-0.7422761976737835</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0879709565300626</v>
+        <v>0.11787925228672691</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1591954099342594</v>
+        <v>-0.06300312343516801</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.15682263880445113</v>
+        <v>0.009108900493247418</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2083421616575798</v>
+        <v>0.310486145061061</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.14002983133936553</v>
+        <v>-0.013971151042628804</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0751914418493822</v>
+        <v>-0.009108900493245642</v>
       </c>
       <c r="S12" t="n">
-        <v>0.242745356024896</v>
+        <v>0.06981925346699924</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5670296786254418</v>
+        <v>0.610571883389154</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.2856245383822582</v>
+        <v>-0.34817518526044466</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3072881993837271</v>
+        <v>0.5417707588930138</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.10826660464564064</v>
+        <v>-0.31508541852398864</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0751914418493822</v>
+        <v>0.08673580047521945</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07350553829907014</v>
+        <v>0.670190083566883</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.4349507483493742</v>
+        <v>0.5098700842385462</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.46263998006605433</v>
+        <v>0.48884662940361956</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06571739393304554</v>
+        <v>0.49911475982800724</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.564863379216666</v>
+        <v>0.4455192667518606</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2833663480373634</v>
+        <v>0.23408822638586102</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.41675823077368435</v>
+        <v>0.46785783560136984</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.17677546637045616</v>
+        <v>0.054605585326184425</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.4858633184421226</v>
+        <v>0.1153171168626752</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.058261035417809026</v>
+        <v>0.19251526609604497</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.3653125667491697</v>
+        <v>0.4727232163552273</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.3239196088789793</v>
+        <v>0.43256331237839696</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.008208570504312007</v>
+        <v>0.07871130836974771</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.41462393368872696</v>
+        <v>-0.026526353035636774</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.002555583740900147</v>
+        <v>0.3725905275985326</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.10360726503750861</v>
+        <v>0.5487445990392441</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.3315191198897445</v>
+        <v>0.4452673240765037</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.7302873472851115</v>
+        <v>0.45802337510629343</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.5546551957665997</v>
+        <v>0.14875709173739082</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.300127202309147</v>
+        <v>0.27381949213085477</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1548178002431264</v>
+        <v>0.2229234698451883</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.4246032177986514</v>
+        <v>0.6240084625545901</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0.0404635507639437</v>
+        <v>0.1224802799908673</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.05732228793802463</v>
+        <v>-0.043336401674050506</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.11499684396373411</v>
+        <v>-0.03603405727545628</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.5449437268634725</v>
+        <v>0.7026516126135665</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.4343495583414505</v>
+        <v>-0.0639122957206748</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.152841157962742</v>
+        <v>-0.2512830315054355</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB12" t="n">
         <v>1.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B13" t="n">
         <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.27252718987554164</v>
+        <v>0.26764696447151</v>
       </c>
       <c r="D13" t="n">
-        <v>2.243525542913429</v>
+        <v>2.2553732709029</v>
       </c>
       <c r="E13" t="n">
-        <v>0.030094547294688804</v>
+        <v>0.02928120559114356</v>
       </c>
       <c r="F13" t="n">
         <v>0.1576731532834612</v>
       </c>
       <c r="G13" t="n">
-        <v>0.25418622696978216</v>
+        <v>0.2213027773817412</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0925372368310504</v>
+        <v>1.8648459916924771</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04235920435428537</v>
+        <v>0.06907220009575947</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6504187507303173</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.05692824232339433</v>
+        <v>-0.16531699859204885</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.16840760579288805</v>
+        <v>-0.5137925615315133</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.025270412916125196</v>
+        <v>0.12797846128097135</v>
       </c>
       <c r="N13" t="n">
-        <v>0.24057218435145877</v>
+        <v>0.15413156119461746</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.018630230709204554</v>
+        <v>0.10338419549488975</v>
       </c>
       <c r="P13" t="n">
-        <v>0.031052451952961135</v>
+        <v>0.1970956292265189</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.12054888967035282</v>
+        <v>-0.10338419549489153</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.11108289877872046</v>
+        <v>-0.5592125236084531</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4391663254475322</v>
+        <v>-0.2096066458581518</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5972783115224907</v>
+        <v>0.5520637922731773</v>
       </c>
       <c r="U13" t="n">
-        <v>0.19050768867981915</v>
+        <v>-0.3730980549711127</v>
       </c>
       <c r="V13" t="n">
-        <v>0.29482491312068504</v>
+        <v>0.5793013073778202</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.01558783302314204</v>
+        <v>-0.5002292474886509</v>
       </c>
       <c r="X13" t="n">
-        <v>0.015587833023140263</v>
+        <v>0.1364237269338222</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.41085935738722945</v>
+        <v>0.380552330819933</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5837246176690307</v>
+        <v>0.4725139282808364</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03846673590786054</v>
+        <v>0.3264020439431494</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.27019489512365347</v>
+        <v>0.14358346767748387</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5132787570865105</v>
+        <v>0.5329896969392696</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.5991651090789922</v>
+        <v>0.12042110424249408</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.0957306418530415</v>
+        <v>0.4051518848591549</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.39773093758705613</v>
+        <v>0.09018497670709458</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.4179169008432826</v>
+        <v>0.21116266487047675</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.016549465584338563</v>
+        <v>-0.08071385933055097</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.3612819217063823</v>
+        <v>0.49465583371685184</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.3637975472592885</v>
+        <v>0.16170931459130777</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.16197176869374275</v>
+        <v>-0.08443071010039738</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.2011891347489012</v>
+        <v>-0.0013867283790016671</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.09187050598755775</v>
+        <v>0.4992458205700814</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.22037783411874123</v>
+        <v>0.4490152292875038</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.8363192372976478</v>
+        <v>0.4779610354305035</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.0871754738159147</v>
+        <v>0.20994047539300453</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.32348470612315694</v>
+        <v>-0.07359414123069818</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.5006053988301922</v>
+        <v>0.15368980640958263</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.08448016911706624</v>
+        <v>0.16922590444931807</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6440497782530841</v>
+        <v>0.6531171615984359</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.09429201039609225</v>
+        <v>-0.1635043190644918</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.23484968825607488</v>
+        <v>0.1458166641882226</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.3944261844456882</v>
+        <v>0.01053110015362968</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.4088606331633091</v>
+        <v>0.5119894290661584</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.6193398830881556</v>
+        <v>-0.12715278012967168</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.3166656976641704</v>
+        <v>-0.3923040565402065</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
         <v>1.0</v>
@@ -11152,165 +11152,165 @@
         <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B14" t="n">
         <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22328185070048015</v>
+        <v>0.5492925119307347</v>
       </c>
       <c r="D14" t="n">
-        <v>1.333449572336759</v>
+        <v>3.432543287771932</v>
       </c>
       <c r="E14" t="n">
-        <v>0.189441168396487</v>
+        <v>0.001338390193843832</v>
       </c>
       <c r="F14" t="n">
-        <v>0.42939998169870386</v>
+        <v>0.045505266590690284</v>
       </c>
       <c r="G14" t="n">
-        <v>0.30653653406259923</v>
+        <v>0.22402522172863748</v>
       </c>
       <c r="H14" t="n">
-        <v>1.830650404271692</v>
+        <v>1.3999394756599575</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07412424112705542</v>
+        <v>0.16874186726529108</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.7236137731376446</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3770180972830133</v>
+        <v>0.08241301345245944</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.844765038982132</v>
+        <v>-0.27787141153273964</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07561784160726681</v>
+        <v>-0.024611180059364912</v>
       </c>
       <c r="N14" t="n">
-        <v>0.26495865251002115</v>
+        <v>0.024611180059364912</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.31216280179392797</v>
+        <v>-0.33055768974923794</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2697103755502521</v>
+        <v>0.23305352865676277</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.09858123641297745</v>
+        <v>-0.38943334691589726</v>
       </c>
       <c r="R14" t="n">
-        <v>0.12613786678586258</v>
+        <v>-0.20779286282644271</v>
       </c>
       <c r="S14" t="n">
-        <v>0.25167532116116753</v>
+        <v>0.06598823357871986</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9547627860119565</v>
+        <v>1.171061778835778</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.2526143730395827</v>
+        <v>-0.31440398494657984</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7704803749989235</v>
+        <v>0.7913154664725877</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.31899422937174293</v>
+        <v>-0.39850066545608875</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.07561784160726681</v>
+        <v>0.13429066377889498</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8139616875205036</v>
+        <v>0.5669789438121313</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.32466023093746976</v>
+        <v>1.0688574971009057</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.11014249312641589</v>
+        <v>0.7037574971934042</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.37292185900006203</v>
+        <v>1.0953259832722004</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3391991781107482</v>
+        <v>0.839404153068255</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.37935756403862086</v>
+        <v>0.6200783397200116</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.5233285124951372</v>
+        <v>1.1886486813268764</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.1562895212494535</v>
+        <v>0.37537392982390294</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.1882854986471525</v>
+        <v>0.3828272941604869</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.039543220496280895</v>
+        <v>-0.05733544398424684</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.8198867422417937</v>
+        <v>0.7108780050483148</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.9196797415792162</v>
+        <v>0.7686216898710274</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.2687319854318311</v>
+        <v>0.11028706565232227</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.028302570809866978</v>
+        <v>-0.12404574568711801</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.7517600558676865</v>
+        <v>0.4955655875111855</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.6177703393226288</v>
+        <v>0.5047305290203266</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.0419006959204111</v>
+        <v>0.4890929984581387</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.8118063765099333</v>
+        <v>0.5112587990597941</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.18578192976032426</v>
+        <v>0.14848665566878871</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.1472694170357869</v>
+        <v>0.4410559545346988</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.4962232267436626</v>
+        <v>0.48430972623650526</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.9119174034758686</v>
+        <v>0.7825331532990507</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.23803404010730134</v>
+        <v>-0.2824857016787412</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.1427378057139208</v>
+        <v>0.12605612721652015</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.032681778082530144</v>
+        <v>0.2312969999903114</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.4199084751214066</v>
+        <v>0.541650568064199</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.1467834748783332</v>
+        <v>-0.010035029205864632</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.44886702724242156</v>
+        <v>-0.7676005406257698</v>
       </c>
       <c r="BA14" t="n">
         <v>0.0</v>
@@ -11319,168 +11319,168 @@
         <v>1.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B15" t="n">
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4468992553699398</v>
+        <v>0.25609154691405217</v>
       </c>
       <c r="D15" t="n">
-        <v>3.2893076534664507</v>
+        <v>1.9183064076634793</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002015159276160081</v>
+        <v>0.061761871154838846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.056424459732482266</v>
+        <v>0.22713506911938255</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2022556503743993</v>
+        <v>0.2409837696690969</v>
       </c>
       <c r="H15" t="n">
-        <v>1.488660029613681</v>
+        <v>1.8051384946894657</v>
       </c>
       <c r="I15" t="n">
-        <v>0.14391208814729808</v>
+        <v>0.07809401232751079</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7139792222239946</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.32418524039496965</v>
+        <v>-0.07697828543351548</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05886691427386559</v>
+        <v>-0.8118737793157802</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1444012090779001</v>
+        <v>0.13619326724922587</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2768150367825264</v>
+        <v>0.16358229957549675</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.05886691427386559</v>
+        <v>-0.026900700265462874</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.11713636316767406</v>
+        <v>0.3603862956024848</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1986969295722094</v>
+        <v>-0.30297184440104985</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.132022885224659</v>
+        <v>0.30302194725537923</v>
       </c>
       <c r="S15" t="n">
-        <v>0.12420825223430754</v>
+        <v>-0.13699841454343087</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3357092305063798</v>
+        <v>0.5114993419612688</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.09930067068161819</v>
+        <v>-0.20901753275554924</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1346255357920949</v>
+        <v>0.48066752692191983</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.4920162878569858</v>
+        <v>-0.31683318393825743</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.36112880780896717</v>
+        <v>0.026900700265462874</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.2839870708236525</v>
+        <v>0.8971293160979208</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.9037213054233533</v>
+        <v>0.2534372542158412</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.6256063163715133</v>
+        <v>0.1952626923546088</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.38115483176199305</v>
+        <v>0.6271166258750096</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.0231229890405587</v>
+        <v>0.23663104786837863</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.5484619518760443</v>
+        <v>-0.18881526667247783</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.5476776359482542</v>
+        <v>0.615892388938093</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.7556942029482734</v>
+        <v>-0.15062697093879507</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.6361396871902318</v>
+        <v>-0.043312224216725426</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.21064243500735635</v>
+        <v>-0.11972428655863077</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.008693229600591934</v>
+        <v>0.59956876363057</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.7163493068516456</v>
+        <v>0.9474542039276752</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.18253808923707737</v>
+        <v>-0.028995875483152744</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.37908855443785683</v>
+        <v>-0.15505837406339396</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.04414366124301061</v>
+        <v>0.6101980756562302</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.12457657741506267</v>
+        <v>0.4384174420838125</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.37638980074859774</v>
+        <v>0.5546688470678394</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.9301282915885061</v>
+        <v>0.2299067797018015</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.03856268805734331</v>
+        <v>0.038543969911678744</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.714838328044447</v>
+        <v>0.1606648596957463</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.3660844877395988</v>
+        <v>0.4705983779873133</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6592892016887841</v>
+        <v>0.6456172771374522</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.1418176953899053</v>
+        <v>-0.042167501884204484</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.12828180452805782</v>
+        <v>0.024049144754934915</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.20550833850960792</v>
+        <v>0.0518940555015881</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.33712352468874407</v>
+        <v>0.39983581432184856</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.5105602377741612</v>
+        <v>-0.03357302080253355</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0.15718055531351638</v>
+        <v>-0.07420370758795869</v>
       </c>
       <c r="BA15" t="n">
         <v>0.0</v>
@@ -11492,165 +11492,165 @@
         <v>0.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B16" t="n">
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5492925119307347</v>
+        <v>-0.02474422212533722</v>
       </c>
       <c r="D16" t="n">
-        <v>3.432543287771932</v>
+        <v>-0.14052428047158613</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001338390193843832</v>
+        <v>0.8889053378922902</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045505266590690284</v>
+        <v>0.9484027078756346</v>
       </c>
       <c r="G16" t="n">
-        <v>0.22402522172863748</v>
+        <v>0.26507075159577753</v>
       </c>
       <c r="H16" t="n">
-        <v>1.3999394756599575</v>
+        <v>1.5053565415547112</v>
       </c>
       <c r="I16" t="n">
-        <v>0.16874186726529108</v>
+        <v>0.13958066526194227</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7236137731376446</v>
+        <v>0.7139792222239946</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08241301345245944</v>
+        <v>-0.3207735421039999</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.27787141153273964</v>
+        <v>-0.3013559308663041</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.024611180059364912</v>
+        <v>0.5027185695518668</v>
       </c>
       <c r="N16" t="n">
-        <v>0.024611180059364912</v>
+        <v>0.3655625621719256</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.33055768974923794</v>
+        <v>0.7358874678821525</v>
       </c>
       <c r="P16" t="n">
-        <v>0.23305352865676277</v>
+        <v>0.6509558013643613</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.38943334691589726</v>
+        <v>0.3013559308663041</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.20779286282644271</v>
+        <v>0.7030409204422323</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06598823357871986</v>
+        <v>0.48720940358395737</v>
       </c>
       <c r="T16" t="n">
-        <v>1.171061778835778</v>
+        <v>-0.626688576571981</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.31440398494657984</v>
+        <v>-0.41036556322420736</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7913154664725877</v>
+        <v>-0.5021333272505117</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.39850066545608875</v>
+        <v>-0.7341333550091704</v>
       </c>
       <c r="X16" t="n">
-        <v>0.13429066377889498</v>
+        <v>-0.5869644337813789</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5669789438121313</v>
+        <v>0.6871789442451988</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.0688574971009057</v>
+        <v>-0.26254433014768885</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.7037574971934042</v>
+        <v>-0.15654930104764375</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.0953259832722004</v>
+        <v>-0.529515100643339</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.839404153068255</v>
+        <v>-0.4438876480631304</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.6200783397200116</v>
+        <v>-0.12547945291627016</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.1886486813268764</v>
+        <v>-0.05501654246904231</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.37537392982390294</v>
+        <v>-0.2572803818569227</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.3828272941604869</v>
+        <v>-0.18044690802471663</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.05733544398424684</v>
+        <v>0.44882441592530853</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.7108780050483148</v>
+        <v>-0.011251126003081424</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.7686216898710274</v>
+        <v>0.1285426318953533</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.11028706565232227</v>
+        <v>0.051691981146964494</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.12404574568711801</v>
+        <v>0.6236296352595403</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.4955655875111855</v>
+        <v>0.07969704734532712</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.5047305290203266</v>
+        <v>0.031137145486015427</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.4890929984581387</v>
+        <v>0.6796155379481803</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.5112587990597941</v>
+        <v>0.8796048019771128</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.14848665566878871</v>
+        <v>0.48546963232928775</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.4410559545346988</v>
+        <v>0.18310352288664866</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.48430972623650526</v>
+        <v>-0.48835957366100935</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.7825331532990507</v>
+        <v>0.5069899902655415</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0.2824857016787412</v>
+        <v>0.41987706341064523</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.12605612721652015</v>
+        <v>-0.3653891281599151</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.2312969999903114</v>
+        <v>-0.4518428703587798</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.541650568064199</v>
+        <v>0.6280598203211252</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.010035029205864632</v>
+        <v>0.8822631685355837</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.7676005406257698</v>
+        <v>0.5050802910703691</v>
       </c>
       <c r="BA16" t="n">
         <v>0.0</v>
@@ -11659,7 +11659,7 @@
         <v>1.0</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BD16" t="n">
         <v>0.0</v>
@@ -11667,160 +11667,160 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B17" t="n">
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3752109254564909</v>
+        <v>0.033508438521007516</v>
       </c>
       <c r="D17" t="n">
-        <v>3.658707007826087</v>
+        <v>0.39183809677188197</v>
       </c>
       <c r="E17" t="n">
-        <v>6.906002797229204E-4</v>
+        <v>0.6971229963127321</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03652508146090112</v>
+        <v>0.8504928786182735</v>
       </c>
       <c r="G17" t="n">
-        <v>0.13653814662349362</v>
+        <v>0.15364637951674853</v>
       </c>
       <c r="H17" t="n">
-        <v>1.3313926647503498</v>
+        <v>1.7966968197574744</v>
       </c>
       <c r="I17" t="n">
-        <v>0.19011114690221254</v>
+        <v>0.07944642812907211</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7333276386011531</v>
+        <v>0.6605979243379088</v>
       </c>
       <c r="K17" t="n">
-        <v>0.10426414957129815</v>
+        <v>0.02433953214325868</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.3840257949958943</v>
+        <v>-0.21995162817866465</v>
       </c>
       <c r="M17" t="n">
-        <v>0.010897070458701918</v>
+        <v>0.16272533907741504</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07437775588073059</v>
+        <v>0.034565590683941494</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05263556564027283</v>
+        <v>0.20545220167373301</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.010897070458701918</v>
+        <v>-0.07215024066937659</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.08382410811115548</v>
+        <v>-0.17183961854558127</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.29449530350208164</v>
+        <v>-0.19066860749826553</v>
       </c>
       <c r="S17" t="n">
-        <v>0.056622460669291996</v>
+        <v>-0.02433953214325868</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5585309399964089</v>
+        <v>0.4622269988866048</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.2809546318206326</v>
+        <v>0.2609188374666047</v>
       </c>
       <c r="V17" t="n">
-        <v>0.41700618688795643</v>
+        <v>0.09771655624725817</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.31504845063525444</v>
+        <v>-0.06119880988508264</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.17922812798228271</v>
+        <v>-0.13110151305588325</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.08049133114848672</v>
+        <v>-0.19476259406275176</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.6069285364557899</v>
+        <v>0.08212842197870707</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.35423736514633397</v>
+        <v>-0.022572890053899286</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.6485817948579911</v>
+        <v>-0.07106566092564393</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5628726902941033</v>
+        <v>0.49420373875722134</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.21221717593471112</v>
+        <v>0.38060849391631635</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.6463218506650641</v>
+        <v>0.266995589449893</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.5340234560112975</v>
+        <v>0.3359077785623068</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.31020802752054166</v>
+        <v>-0.0487062416870323</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0077677239084792404</v>
+        <v>-0.09006083114164554</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.398420708246352</v>
+        <v>-0.07797652526894261</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.21547237638641548</v>
+        <v>0.005745420674800883</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.4718137708804342</v>
+        <v>-0.22801765522311435</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.0705432094665106</v>
+        <v>0.013386200520596248</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.29163755351569876</v>
+        <v>0.06918193376013093</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.4081859339976699</v>
+        <v>0.2287318661531117</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.13075267589791828</v>
+        <v>0.31083345406038276</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.08400250978605328</v>
+        <v>0.48674030765310405</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.12326258939592094</v>
+        <v>0.19871508042436403</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.4163694238429674</v>
+        <v>0.21442053527689708</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0990550648283719</v>
+        <v>-0.11471650829803792</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5086222386033707</v>
+        <v>0.4529744233287527</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0.13227754424704408</v>
+        <v>0.23159463024769167</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.024252788196681863</v>
+        <v>0.05098903873974514</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0.0904386590955717</v>
+        <v>0.0035057984334692094</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.30104776908492425</v>
+        <v>0.25348993201328973</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.16765410369478495</v>
+        <v>0.23280409931272317</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.3594235457846082</v>
+        <v>-0.09152017166844217</v>
       </c>
       <c r="BA17" t="n">
         <v>0.0</v>
@@ -11837,160 +11837,160 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.29441061898877696</v>
+        <v>0.3410859499232979</v>
       </c>
       <c r="D18" t="n">
-        <v>2.2201557521550486</v>
+        <v>2.9382356603465705</v>
       </c>
       <c r="E18" t="n">
-        <v>0.031758005574058626</v>
+        <v>0.005300115030229515</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1576731532834612</v>
+        <v>0.07645014407240149</v>
       </c>
       <c r="G18" t="n">
-        <v>0.18220878420727</v>
+        <v>0.26175052923677034</v>
       </c>
       <c r="H18" t="n">
-        <v>1.374039705973953</v>
+        <v>2.254812135448603</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1765859729558175</v>
+        <v>0.029319281175297484</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7251655412348408</v>
+        <v>0.6184314049540025</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.2679420775790309</v>
+        <v>-0.39455897843353327</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.23214903987461355</v>
+        <v>-0.7422761976737835</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.004120837321217152</v>
+        <v>0.11787925228672691</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.03964474785122718</v>
+        <v>-0.06300312343516801</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004120837321217152</v>
+        <v>0.009108900493247418</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.11404374276202844</v>
+        <v>0.310486145061061</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.19196489638853365</v>
+        <v>-0.013971151042628804</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.28234026424533276</v>
+        <v>-0.009108900493245642</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0891845932089641</v>
+        <v>0.06981925346699924</v>
       </c>
       <c r="T18" t="n">
-        <v>1.1550569722603754</v>
+        <v>0.610571883389154</v>
       </c>
       <c r="U18" t="n">
-        <v>0.22224343578879768</v>
+        <v>-0.34817518526044466</v>
       </c>
       <c r="V18" t="n">
-        <v>0.828694321514222</v>
+        <v>0.5417707588930138</v>
       </c>
       <c r="W18" t="n">
-        <v>0.13626784890177213</v>
+        <v>-0.31508541852398864</v>
       </c>
       <c r="X18" t="n">
-        <v>0.26913307904463224</v>
+        <v>0.08673580047521945</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.19971183200675213</v>
+        <v>0.670190083566883</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5436516881369169</v>
+        <v>0.5098700842385462</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.36544646676417614</v>
+        <v>0.48884662940361956</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.4598090763499485</v>
+        <v>0.49911475982800724</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.6911164327775321</v>
+        <v>0.4455192667518606</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4169884479260446</v>
+        <v>0.23408822638586102</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.8407325597472077</v>
+        <v>0.46785783560136984</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.29551734441247923</v>
+        <v>0.054605585326184425</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.21901040192123844</v>
+        <v>0.1153171168626752</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.11201394721136282</v>
+        <v>0.19251526609604497</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.7406801209481308</v>
+        <v>0.4727232163552273</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.9313211489161208</v>
+        <v>0.43256331237839696</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.1513911622904498</v>
+        <v>0.07871130836974771</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.04911858712478079</v>
+        <v>-0.026526353035636774</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.19609902961201264</v>
+        <v>0.3725905275985326</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.34118556333613625</v>
+        <v>0.5487445990392441</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.45407480804440326</v>
+        <v>0.4452673240765037</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.3744584810083964</v>
+        <v>0.45802337510629343</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.21222378873138759</v>
+        <v>0.14875709173739082</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.4629383380367944</v>
+        <v>0.27381949213085477</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.4591576708008649</v>
+        <v>0.2229234698451883</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5790553686690778</v>
+        <v>0.6240084625545901</v>
       </c>
       <c r="AU18" t="n">
-        <v>-0.18847756480119493</v>
+        <v>0.1224802799908673</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.49952067474972495</v>
+        <v>-0.043336401674050506</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.4692295573070826</v>
+        <v>-0.03603405727545628</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.4604019392044396</v>
+        <v>0.7026516126135665</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.2488024600875285</v>
+        <v>-0.0639122957206748</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.44525165386687604</v>
+        <v>-0.2512830315054355</v>
       </c>
       <c r="BA18" t="n">
         <v>0.0</v>
@@ -11999,7 +11999,7 @@
         <v>1.0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD18" t="n">
         <v>0.0</v>
@@ -12007,163 +12007,163 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B19" t="n">
         <v>3.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.025557150248771227</v>
+        <v>0.2430387312494626</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3017048660599277</v>
+        <v>2.570980838611452</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7643388393832697</v>
+        <v>0.013703675433150462</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8912076736953188</v>
+        <v>0.11953694441187547</v>
       </c>
       <c r="G19" t="n">
-        <v>0.131538288485428</v>
+        <v>0.20201832565831623</v>
       </c>
       <c r="H19" t="n">
-        <v>1.5528234299579733</v>
+        <v>2.1370472173128086</v>
       </c>
       <c r="I19" t="n">
-        <v>0.12783261993510642</v>
+        <v>0.03835327887852739</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6914582623762574</v>
+        <v>0.6184314049540025</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.11524393383222886</v>
+        <v>-0.15309328992133686</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.6210345596782609</v>
+        <v>0.1794309352315686</v>
       </c>
       <c r="M19" t="n">
-        <v>0.13074194043095488</v>
+        <v>-0.0879709565300626</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1778424096047022</v>
+        <v>0.1591954099342594</v>
       </c>
       <c r="O19" t="n">
-        <v>0.17132731187943406</v>
+        <v>-0.15682263880445113</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1023565286467516</v>
+        <v>0.2083421616575798</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.18405815896243283</v>
+        <v>-0.14002983133936553</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1241055706759564</v>
+        <v>-0.0751914418493822</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08607297815560067</v>
+        <v>0.242745356024896</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.08607297815560244</v>
+        <v>0.5670296786254418</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.2838053648870904</v>
+        <v>-0.2856245383822582</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.10495045830151994</v>
+        <v>0.3072881993837271</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.2054236826623157</v>
+        <v>-0.10826660464564064</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.303562794861973</v>
+        <v>0.0751914418493822</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.046454085479929574</v>
+        <v>0.07350553829907014</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.06569806978409609</v>
+        <v>0.4349507483493742</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0474310089403609</v>
+        <v>0.46263998006605433</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.3410429552236991</v>
+        <v>0.06571739393304554</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.007516485959504493</v>
+        <v>0.564863379216666</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.15097361391677389</v>
+        <v>0.2833663480373634</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.3282976765129124</v>
+        <v>0.41675823077368435</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.07743555350531572</v>
+        <v>0.17677546637045616</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.034207538524190895</v>
+        <v>0.4858633184421226</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.07954702103785571</v>
+        <v>0.058261035417809026</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.01725860901125742</v>
+        <v>0.3653125667491697</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.20006890271937294</v>
+        <v>0.3239196088789793</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.12872061610719676</v>
+        <v>0.008208570504312007</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.22732826857250998</v>
+        <v>0.41462393368872696</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.05177981486126271</v>
+        <v>0.002555583740900147</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.0514496540807432</v>
+        <v>0.10360726503750861</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.19372651401087104</v>
+        <v>0.3315191198897445</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.39493563839094037</v>
+        <v>0.7302873472851115</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.18276062293783468</v>
+        <v>0.5546551957665997</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.1051787786106484</v>
+        <v>0.300127202309147</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.01814162936071284</v>
+        <v>0.1548178002431264</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.14396034560847326</v>
+        <v>0.4246032177986514</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.14555448917262126</v>
+        <v>-0.0404635507639437</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.2520792341424052</v>
+        <v>0.05732228793802463</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0.031179220238955807</v>
+        <v>0.11499684396373411</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.34430863090463326</v>
+        <v>0.5449437268634725</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.15266307306527693</v>
+        <v>0.4343495583414505</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-0.053053126184575916</v>
+        <v>-0.152841157962742</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB19" t="n">
         <v>0.0</v>
@@ -12172,335 +12172,335 @@
         <v>1.0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" t="n">
         <v>3.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3410859499232979</v>
+        <v>0.27252718987554164</v>
       </c>
       <c r="D20" t="n">
-        <v>2.9382356603465705</v>
+        <v>2.243525542913429</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005300115030229515</v>
+        <v>0.030094547294688804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07645014407240149</v>
+        <v>0.1576731532834612</v>
       </c>
       <c r="G20" t="n">
-        <v>0.26175052923677034</v>
+        <v>0.25418622696978216</v>
       </c>
       <c r="H20" t="n">
-        <v>2.254812135448603</v>
+        <v>2.0925372368310504</v>
       </c>
       <c r="I20" t="n">
-        <v>0.029319281175297484</v>
+        <v>0.04235920435428537</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6184314049540025</v>
+        <v>0.6504187507303173</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.39455897843353327</v>
+        <v>-0.05692824232339433</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.7422761976737835</v>
+        <v>-0.16840760579288805</v>
       </c>
       <c r="M20" t="n">
-        <v>0.11787925228672691</v>
+        <v>-0.025270412916125196</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.06300312343516801</v>
+        <v>0.24057218435145877</v>
       </c>
       <c r="O20" t="n">
-        <v>0.009108900493247418</v>
+        <v>-0.018630230709204554</v>
       </c>
       <c r="P20" t="n">
-        <v>0.310486145061061</v>
+        <v>0.031052451952961135</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.013971151042628804</v>
+        <v>-0.12054888967035282</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.009108900493245642</v>
+        <v>-0.11108289877872046</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06981925346699924</v>
+        <v>0.4391663254475322</v>
       </c>
       <c r="T20" t="n">
-        <v>0.610571883389154</v>
+        <v>0.5972783115224907</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.34817518526044466</v>
+        <v>0.19050768867981915</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5417707588930138</v>
+        <v>0.29482491312068504</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.31508541852398864</v>
+        <v>-0.01558783302314204</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08673580047521945</v>
+        <v>0.015587833023140263</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.670190083566883</v>
+        <v>0.41085935738722945</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5098700842385462</v>
+        <v>0.5837246176690307</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.48884662940361956</v>
+        <v>0.03846673590786054</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.49911475982800724</v>
+        <v>0.27019489512365347</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4455192667518606</v>
+        <v>0.5132787570865105</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.23408822638586102</v>
+        <v>0.5991651090789922</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.46785783560136984</v>
+        <v>1.0957306418530415</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.054605585326184425</v>
+        <v>0.39773093758705613</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1153171168626752</v>
+        <v>0.4179169008432826</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.19251526609604497</v>
+        <v>0.016549465584338563</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.4727232163552273</v>
+        <v>0.3612819217063823</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.43256331237839696</v>
+        <v>0.3637975472592885</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.07871130836974771</v>
+        <v>-0.16197176869374275</v>
       </c>
       <c r="AL20" t="n">
-        <v>-0.026526353035636774</v>
+        <v>0.2011891347489012</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.3725905275985326</v>
+        <v>-0.09187050598755775</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.5487445990392441</v>
+        <v>0.22037783411874123</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.4452673240765037</v>
+        <v>0.8363192372976478</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.45802337510629343</v>
+        <v>1.0871754738159147</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.14875709173739082</v>
+        <v>0.32348470612315694</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.27381949213085477</v>
+        <v>0.5006053988301922</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.2229234698451883</v>
+        <v>0.08448016911706624</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6240084625545901</v>
+        <v>0.6440497782530841</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.1224802799908673</v>
+        <v>-0.09429201039609225</v>
       </c>
       <c r="AV20" t="n">
-        <v>-0.043336401674050506</v>
+        <v>0.23484968825607488</v>
       </c>
       <c r="AW20" t="n">
-        <v>-0.03603405727545628</v>
+        <v>0.3944261844456882</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.7026516126135665</v>
+        <v>0.4088606331633091</v>
       </c>
       <c r="AY20" t="n">
-        <v>-0.0639122957206748</v>
+        <v>0.6193398830881556</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-0.2512830315054355</v>
+        <v>-0.3166656976641704</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC20" t="n">
         <v>1.0</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B21" t="n">
         <v>3.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26764696447151</v>
+        <v>0.22328185070048015</v>
       </c>
       <c r="D21" t="n">
-        <v>2.2553732709029</v>
+        <v>1.333449572336759</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02928120559114356</v>
+        <v>0.189441168396487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1576731532834612</v>
+        <v>0.42939998169870386</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2213027773817412</v>
+        <v>0.30653653406259923</v>
       </c>
       <c r="H21" t="n">
-        <v>1.8648459916924771</v>
+        <v>1.830650404271692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06907220009575947</v>
+        <v>0.07412424112705542</v>
       </c>
       <c r="J21" t="n">
         <v>0.6605979243379088</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.16531699859204885</v>
+        <v>-0.3770180972830133</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.5137925615315133</v>
+        <v>-0.844765038982132</v>
       </c>
       <c r="M21" t="n">
-        <v>0.12797846128097135</v>
+        <v>0.07561784160726681</v>
       </c>
       <c r="N21" t="n">
-        <v>0.15413156119461746</v>
+        <v>0.26495865251002115</v>
       </c>
       <c r="O21" t="n">
-        <v>0.10338419549488975</v>
+        <v>-0.31216280179392797</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1970956292265189</v>
+        <v>0.2697103755502521</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.10338419549489153</v>
+        <v>-0.09858123641297745</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.5592125236084531</v>
+        <v>0.12613786678586258</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.2096066458581518</v>
+        <v>0.25167532116116753</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5520637922731773</v>
+        <v>0.9547627860119565</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.3730980549711127</v>
+        <v>-0.2526143730395827</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5793013073778202</v>
+        <v>0.7704803749989235</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.5002292474886509</v>
+        <v>-0.31899422937174293</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1364237269338222</v>
+        <v>-0.07561784160726681</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.380552330819933</v>
+        <v>0.8139616875205036</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.4725139282808364</v>
+        <v>0.32466023093746976</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.3264020439431494</v>
+        <v>-0.11014249312641589</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.14358346767748387</v>
+        <v>0.37292185900006203</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.5329896969392696</v>
+        <v>0.3391991781107482</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.12042110424249408</v>
+        <v>-0.37935756403862086</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.4051518848591549</v>
+        <v>0.5233285124951372</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.09018497670709458</v>
+        <v>-0.1562895212494535</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.21116266487047675</v>
+        <v>-0.1882854986471525</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.08071385933055097</v>
+        <v>0.039543220496280895</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.49465583371685184</v>
+        <v>0.8198867422417937</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.16170931459130777</v>
+        <v>0.9196797415792162</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.08443071010039738</v>
+        <v>0.2687319854318311</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.0013867283790016671</v>
+        <v>-0.028302570809866978</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.4992458205700814</v>
+        <v>0.7517600558676865</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.4490152292875038</v>
+        <v>0.6177703393226288</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.4779610354305035</v>
+        <v>1.0419006959204111</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.20994047539300453</v>
+        <v>0.8118063765099333</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-0.07359414123069818</v>
+        <v>0.18578192976032426</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.15368980640958263</v>
+        <v>-0.1472694170357869</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.16922590444931807</v>
+        <v>0.4962232267436626</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6531171615984359</v>
+        <v>0.9119174034758686</v>
       </c>
       <c r="AU21" t="n">
-        <v>-0.1635043190644918</v>
+        <v>-0.23803404010730134</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.1458166641882226</v>
+        <v>0.1427378057139208</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.01053110015362968</v>
+        <v>0.032681778082530144</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.5119894290661584</v>
+        <v>0.4199084751214066</v>
       </c>
       <c r="AY21" t="n">
-        <v>-0.12715278012967168</v>
+        <v>0.1467834748783332</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.3923040565402065</v>
+        <v>-0.44886702724242156</v>
       </c>
       <c r="BA21" t="n">
         <v>0.0</v>
@@ -12512,341 +12512,341 @@
         <v>1.0</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" t="n">
         <v>3.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5492925119307347</v>
+        <v>0.4468992553699398</v>
       </c>
       <c r="D22" t="n">
-        <v>3.432543287771932</v>
+        <v>3.2893076534664507</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001338390193843832</v>
+        <v>0.002015159276160081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.045505266590690284</v>
+        <v>0.056424459732482266</v>
       </c>
       <c r="G22" t="n">
-        <v>0.22402522172863748</v>
+        <v>0.2022556503743993</v>
       </c>
       <c r="H22" t="n">
-        <v>1.3999394756599575</v>
+        <v>1.488660029613681</v>
       </c>
       <c r="I22" t="n">
-        <v>0.16874186726529108</v>
+        <v>0.14391208814729808</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7236137731376446</v>
+        <v>0.7139792222239946</v>
       </c>
       <c r="K22" t="n">
-        <v>0.08241301345245944</v>
+        <v>0.32418524039496965</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.27787141153273964</v>
+        <v>0.05886691427386559</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.024611180059364912</v>
+        <v>0.1444012090779001</v>
       </c>
       <c r="N22" t="n">
-        <v>0.024611180059364912</v>
+        <v>0.2768150367825264</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.33055768974923794</v>
+        <v>-0.05886691427386559</v>
       </c>
       <c r="P22" t="n">
-        <v>0.23305352865676277</v>
+        <v>-0.11713636316767406</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.38943334691589726</v>
+        <v>-0.1986969295722094</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.20779286282644271</v>
+        <v>-0.132022885224659</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06598823357871986</v>
+        <v>0.12420825223430754</v>
       </c>
       <c r="T22" t="n">
-        <v>1.171061778835778</v>
+        <v>0.3357092305063798</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.31440398494657984</v>
+        <v>-0.09930067068161819</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7913154664725877</v>
+        <v>0.1346255357920949</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.39850066545608875</v>
+        <v>-0.4920162878569858</v>
       </c>
       <c r="X22" t="n">
-        <v>0.13429066377889498</v>
+        <v>-0.36112880780896717</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5669789438121313</v>
+        <v>-0.2839870708236525</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.0688574971009057</v>
+        <v>0.9037213054233533</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.7037574971934042</v>
+        <v>0.6256063163715133</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.0953259832722004</v>
+        <v>0.38115483176199305</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.839404153068255</v>
+        <v>1.0231229890405587</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.6200783397200116</v>
+        <v>0.5484619518760443</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.1886486813268764</v>
+        <v>0.5476776359482542</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.37537392982390294</v>
+        <v>0.7556942029482734</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3828272941604869</v>
+        <v>0.6361396871902318</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.05733544398424684</v>
+        <v>-0.21064243500735635</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.7108780050483148</v>
+        <v>-0.008693229600591934</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.7686216898710274</v>
+        <v>0.7163493068516456</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.11028706565232227</v>
+        <v>0.18253808923707737</v>
       </c>
       <c r="AL22" t="n">
-        <v>-0.12404574568711801</v>
+        <v>0.37908855443785683</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.4955655875111855</v>
+        <v>0.04414366124301061</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.5047305290203266</v>
+        <v>-0.12457657741506267</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.4890929984581387</v>
+        <v>0.37638980074859774</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5112587990597941</v>
+        <v>0.9301282915885061</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.14848665566878871</v>
+        <v>0.03856268805734331</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.4410559545346988</v>
+        <v>0.714838328044447</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.48430972623650526</v>
+        <v>-0.3660844877395988</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.7825331532990507</v>
+        <v>0.6592892016887841</v>
       </c>
       <c r="AU22" t="n">
-        <v>-0.2824857016787412</v>
+        <v>0.1418176953899053</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.12605612721652015</v>
+        <v>-0.12828180452805782</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.2312969999903114</v>
+        <v>-0.20550833850960792</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.541650568064199</v>
+        <v>0.33712352468874407</v>
       </c>
       <c r="AY22" t="n">
-        <v>-0.010035029205864632</v>
+        <v>0.5105602377741612</v>
       </c>
       <c r="AZ22" t="n">
-        <v>-0.7676005406257698</v>
+        <v>-0.15718055531351638</v>
       </c>
       <c r="BA22" t="n">
         <v>0.0</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC22" t="n">
         <v>1.0</v>
       </c>
       <c r="BD22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B23" t="n">
         <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25609154691405217</v>
+        <v>0.5492925119307347</v>
       </c>
       <c r="D23" t="n">
-        <v>1.9183064076634793</v>
+        <v>3.432543287771932</v>
       </c>
       <c r="E23" t="n">
-        <v>0.061761871154838846</v>
+        <v>0.001338390193843832</v>
       </c>
       <c r="F23" t="n">
-        <v>0.22713506911938255</v>
+        <v>0.045505266590690284</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2409837696690969</v>
+        <v>0.22402522172863748</v>
       </c>
       <c r="H23" t="n">
-        <v>1.8051384946894657</v>
+        <v>1.3999394756599575</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07809401232751079</v>
+        <v>0.16874186726529108</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.7236137731376446</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.07697828543351548</v>
+        <v>0.08241301345245944</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.8118737793157802</v>
+        <v>-0.27787141153273964</v>
       </c>
       <c r="M23" t="n">
-        <v>0.13619326724922587</v>
+        <v>-0.024611180059364912</v>
       </c>
       <c r="N23" t="n">
-        <v>0.16358229957549675</v>
+        <v>0.024611180059364912</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.026900700265462874</v>
+        <v>-0.33055768974923794</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3603862956024848</v>
+        <v>0.23305352865676277</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.30297184440104985</v>
+        <v>-0.38943334691589726</v>
       </c>
       <c r="R23" t="n">
-        <v>0.30302194725537923</v>
+        <v>-0.20779286282644271</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.13699841454343087</v>
+        <v>0.06598823357871986</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5114993419612688</v>
+        <v>1.171061778835778</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.20901753275554924</v>
+        <v>-0.31440398494657984</v>
       </c>
       <c r="V23" t="n">
-        <v>0.48066752692191983</v>
+        <v>0.7913154664725877</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.31683318393825743</v>
+        <v>-0.39850066545608875</v>
       </c>
       <c r="X23" t="n">
-        <v>0.026900700265462874</v>
+        <v>0.13429066377889498</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.8971293160979208</v>
+        <v>0.5669789438121313</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.2534372542158412</v>
+        <v>1.0688574971009057</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.1952626923546088</v>
+        <v>0.7037574971934042</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.6271166258750096</v>
+        <v>1.0953259832722004</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.23663104786837863</v>
+        <v>0.839404153068255</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.18881526667247783</v>
+        <v>0.6200783397200116</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.615892388938093</v>
+        <v>1.1886486813268764</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.15062697093879507</v>
+        <v>0.37537392982390294</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.043312224216725426</v>
+        <v>0.3828272941604869</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.11972428655863077</v>
+        <v>-0.05733544398424684</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.59956876363057</v>
+        <v>0.7108780050483148</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.9474542039276752</v>
+        <v>0.7686216898710274</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.028995875483152744</v>
+        <v>0.11028706565232227</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.15505837406339396</v>
+        <v>-0.12404574568711801</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.6101980756562302</v>
+        <v>0.4955655875111855</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.4384174420838125</v>
+        <v>0.5047305290203266</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.5546688470678394</v>
+        <v>0.4890929984581387</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.2299067797018015</v>
+        <v>0.5112587990597941</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.038543969911678744</v>
+        <v>0.14848665566878871</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.1606648596957463</v>
+        <v>0.4410559545346988</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.4705983779873133</v>
+        <v>0.48430972623650526</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6456172771374522</v>
+        <v>0.7825331532990507</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.042167501884204484</v>
+        <v>-0.2824857016787412</v>
       </c>
       <c r="AV23" t="n">
-        <v>0.024049144754934915</v>
+        <v>0.12605612721652015</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.0518940555015881</v>
+        <v>0.2312969999903114</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.39983581432184856</v>
+        <v>0.541650568064199</v>
       </c>
       <c r="AY23" t="n">
-        <v>-0.03357302080253355</v>
+        <v>-0.010035029205864632</v>
       </c>
       <c r="AZ23" t="n">
-        <v>-0.07420370758795869</v>
+        <v>-0.7676005406257698</v>
       </c>
       <c r="BA23" t="n">
         <v>0.0</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BC23" t="n">
         <v>1.0</v>
@@ -12857,160 +12857,160 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B24" t="n">
         <v>3.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.02474422212533722</v>
+        <v>0.3752109254564909</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.14052428047158613</v>
+        <v>3.658707007826087</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8889053378922902</v>
+        <v>6.906002797229204E-4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9484027078756346</v>
+        <v>0.03652508146090112</v>
       </c>
       <c r="G24" t="n">
-        <v>0.26507075159577753</v>
+        <v>0.13653814662349362</v>
       </c>
       <c r="H24" t="n">
-        <v>1.5053565415547112</v>
+        <v>1.3313926647503498</v>
       </c>
       <c r="I24" t="n">
-        <v>0.13958066526194227</v>
+        <v>0.19011114690221254</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7139792222239946</v>
+        <v>0.7333276386011531</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3207735421039999</v>
+        <v>0.10426414957129815</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3013559308663041</v>
+        <v>-0.3840257949958943</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5027185695518668</v>
+        <v>0.010897070458701918</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3655625621719256</v>
+        <v>0.07437775588073059</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7358874678821525</v>
+        <v>0.05263556564027283</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6509558013643613</v>
+        <v>-0.010897070458701918</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3013559308663041</v>
+        <v>-0.08382410811115548</v>
       </c>
       <c r="R24" t="n">
-        <v>0.7030409204422323</v>
+        <v>-0.29449530350208164</v>
       </c>
       <c r="S24" t="n">
-        <v>0.48720940358395737</v>
+        <v>0.056622460669291996</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.626688576571981</v>
+        <v>0.5585309399964089</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.41036556322420736</v>
+        <v>-0.2809546318206326</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.5021333272505117</v>
+        <v>0.41700618688795643</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.7341333550091704</v>
+        <v>-0.31504845063525444</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.5869644337813789</v>
+        <v>-0.17922812798228271</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6871789442451988</v>
+        <v>0.08049133114848672</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.26254433014768885</v>
+        <v>0.6069285364557899</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.15654930104764375</v>
+        <v>0.35423736514633397</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.529515100643339</v>
+        <v>0.6485817948579911</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.4438876480631304</v>
+        <v>0.5628726902941033</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.12547945291627016</v>
+        <v>0.21221717593471112</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.05501654246904231</v>
+        <v>0.6463218506650641</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.2572803818569227</v>
+        <v>0.5340234560112975</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.18044690802471663</v>
+        <v>0.31020802752054166</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.44882441592530853</v>
+        <v>0.0077677239084792404</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.011251126003081424</v>
+        <v>0.398420708246352</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.1285426318953533</v>
+        <v>0.21547237638641548</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.051691981146964494</v>
+        <v>0.4718137708804342</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.6236296352595403</v>
+        <v>-0.0705432094665106</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.07969704734532712</v>
+        <v>0.29163755351569876</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.031137145486015427</v>
+        <v>0.4081859339976699</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.6796155379481803</v>
+        <v>0.13075267589791828</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.8796048019771128</v>
+        <v>0.08400250978605328</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.48546963232928775</v>
+        <v>0.12326258939592094</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.18310352288664866</v>
+        <v>0.4163694238429674</v>
       </c>
       <c r="AS24" t="n">
-        <v>-0.48835957366100935</v>
+        <v>0.0990550648283719</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5069899902655415</v>
+        <v>0.5086222386033707</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.41987706341064523</v>
+        <v>-0.13227754424704408</v>
       </c>
       <c r="AV24" t="n">
-        <v>-0.3653891281599151</v>
+        <v>0.024252788196681863</v>
       </c>
       <c r="AW24" t="n">
-        <v>-0.4518428703587798</v>
+        <v>-0.0904386590955717</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.6280598203211252</v>
+        <v>0.30104776908492425</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.8822631685355837</v>
+        <v>-0.16765410369478495</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.5050802910703691</v>
+        <v>-0.3594235457846082</v>
       </c>
       <c r="BA24" t="n">
         <v>0.0</v>
@@ -13027,160 +13027,160 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B25" t="n">
         <v>3.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.033508438521007516</v>
+        <v>0.29441061898877696</v>
       </c>
       <c r="D25" t="n">
-        <v>0.39183809677188197</v>
+        <v>2.2201557521550486</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6971229963127321</v>
+        <v>0.031758005574058626</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8504928786182735</v>
+        <v>0.1576731532834612</v>
       </c>
       <c r="G25" t="n">
-        <v>0.15364637951674853</v>
+        <v>0.18220878420727</v>
       </c>
       <c r="H25" t="n">
-        <v>1.7966968197574744</v>
+        <v>1.374039705973953</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07944642812907211</v>
+        <v>0.1765859729558175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6605979243379088</v>
+        <v>0.7251655412348408</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02433953214325868</v>
+        <v>-0.2679420775790309</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.21995162817866465</v>
+        <v>-0.23214903987461355</v>
       </c>
       <c r="M25" t="n">
-        <v>0.16272533907741504</v>
+        <v>-0.004120837321217152</v>
       </c>
       <c r="N25" t="n">
-        <v>0.034565590683941494</v>
+        <v>-0.03964474785122718</v>
       </c>
       <c r="O25" t="n">
-        <v>0.20545220167373301</v>
+        <v>0.004120837321217152</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.07215024066937659</v>
+        <v>-0.11404374276202844</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.17183961854558127</v>
+        <v>-0.19196489638853365</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.19066860749826553</v>
+        <v>-0.28234026424533276</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.02433953214325868</v>
+        <v>0.0891845932089641</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4622269988866048</v>
+        <v>1.1550569722603754</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2609188374666047</v>
+        <v>0.22224343578879768</v>
       </c>
       <c r="V25" t="n">
-        <v>0.09771655624725817</v>
+        <v>0.828694321514222</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.06119880988508264</v>
+        <v>0.13626784890177213</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.13110151305588325</v>
+        <v>0.26913307904463224</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.19476259406275176</v>
+        <v>0.19971183200675213</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08212842197870707</v>
+        <v>0.5436516881369169</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.022572890053899286</v>
+        <v>0.36544646676417614</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.07106566092564393</v>
+        <v>0.4598090763499485</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.49420373875722134</v>
+        <v>0.6911164327775321</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.38060849391631635</v>
+        <v>0.4169884479260446</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.266995589449893</v>
+        <v>0.8407325597472077</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.3359077785623068</v>
+        <v>0.29551734441247923</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.0487062416870323</v>
+        <v>0.21901040192123844</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.09006083114164554</v>
+        <v>-0.11201394721136282</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.07797652526894261</v>
+        <v>0.7406801209481308</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.005745420674800883</v>
+        <v>0.9313211489161208</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.22801765522311435</v>
+        <v>0.1513911622904498</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.013386200520596248</v>
+        <v>-0.04911858712478079</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.06918193376013093</v>
+        <v>0.19609902961201264</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.2287318661531117</v>
+        <v>0.34118556333613625</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.31083345406038276</v>
+        <v>0.45407480804440326</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.48674030765310405</v>
+        <v>0.3744584810083964</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.19871508042436403</v>
+        <v>0.21222378873138759</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.21442053527689708</v>
+        <v>0.4629383380367944</v>
       </c>
       <c r="AS25" t="n">
-        <v>-0.11471650829803792</v>
+        <v>0.4591576708008649</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.4529744233287527</v>
+        <v>0.5790553686690778</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.23159463024769167</v>
+        <v>-0.18847756480119493</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.05098903873974514</v>
+        <v>0.49952067474972495</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.0035057984334692094</v>
+        <v>0.4692295573070826</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.25348993201328973</v>
+        <v>0.4604019392044396</v>
       </c>
       <c r="AY25" t="n">
-        <v>0.23280409931272317</v>
+        <v>0.2488024600875285</v>
       </c>
       <c r="AZ25" t="n">
-        <v>-0.09152017166844217</v>
+        <v>-0.44525165386687604</v>
       </c>
       <c r="BA25" t="n">
         <v>0.0</v>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" t="n">
         <v>4.0</v>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="n">
         <v>4.0</v>
@@ -14376,10 +14376,10 @@
         <v>1.0</v>
       </c>
       <c r="BB32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD32" t="n">
         <v>1.0</v>
@@ -14546,10 +14546,10 @@
         <v>1.0</v>
       </c>
       <c r="BB33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD33" t="n">
         <v>1.0</v>
@@ -14716,10 +14716,10 @@
         <v>0.0</v>
       </c>
       <c r="BB34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD34" t="n">
         <v>1.0</v>
@@ -15056,10 +15056,10 @@
         <v>0.0</v>
       </c>
       <c r="BB36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BC36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD36" t="n">
         <v>1.0</v>
